--- a/Test Case/Prapancha/Test Case- EMR OP.xlsx
+++ b/Test Case/Prapancha/Test Case- EMR OP.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEM\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB9191-DF75-4CCA-93DE-D36EA95A66AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="EMR OP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="449">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1038,12 +1032,6 @@
     <t>Enter data in mandatory fields</t>
   </si>
   <si>
-    <t>Click on Add page option</t>
-  </si>
-  <si>
-    <t>Again enter mandatory field and click on save option</t>
-  </si>
-  <si>
     <t>New page should get added</t>
   </si>
   <si>
@@ -1053,9 +1041,6 @@
     <t>New  page option</t>
   </si>
   <si>
-    <t>Verify New Control Option</t>
-  </si>
-  <si>
     <t>Click on New control  option</t>
   </si>
   <si>
@@ -1138,13 +1123,486 @@
   </si>
   <si>
     <t>MED_EMR OP_TC_022</t>
+  </si>
+  <si>
+    <t>Click on create  page option</t>
+  </si>
+  <si>
+    <t>Again enter mandatory field and click on Add option</t>
+  </si>
+  <si>
+    <t>Check Dynamic pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Dynamic pages option
+Select data from radio button </t>
+  </si>
+  <si>
+    <t>Enter a keyword in search option</t>
+  </si>
+  <si>
+    <t>Search option under Dynamic pages</t>
+  </si>
+  <si>
+    <t>Dynamic page popup should be displayed</t>
+  </si>
+  <si>
+    <t>View Dynamic page</t>
+  </si>
+  <si>
+    <t>Click on searched data and verify its view</t>
+  </si>
+  <si>
+    <t>Dynamic page should be viewed</t>
+  </si>
+  <si>
+    <t>Type setting</t>
+  </si>
+  <si>
+    <t>Click on Type setting option and enter data in fields</t>
+  </si>
+  <si>
+    <t>Click save option and verify data saved popup appears</t>
+  </si>
+  <si>
+    <t>Save data</t>
+  </si>
+  <si>
+    <t>Type setting data should be saved</t>
+  </si>
+  <si>
+    <t>Type setting popup should be displayed</t>
+  </si>
+  <si>
+    <t>Check clear and add row</t>
+  </si>
+  <si>
+    <t>Click clear after entering data in Type setting popup  and click add row option</t>
+  </si>
+  <si>
+    <t>Data should be cleared and  a new row should be added</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify New Control Option </t>
+  </si>
+  <si>
+    <t>Verify functionality of Dynamic page generator</t>
+  </si>
+  <si>
+    <t>Verify the Mandatory Dynamic page settings under Dynamic pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Dynamic page setting&gt;&gt;Mandatory Dynamic page </t>
+  </si>
+  <si>
+    <t>Mandatory Dynamic page should  be displayed</t>
+  </si>
+  <si>
+    <t>Verify Dynamic Template Master functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Dynamic page setting&gt;&gt;Dynamic Template Master </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dynamic Template Master popup should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_024</t>
+  </si>
+  <si>
+    <t>Click on the bottom menu items like HTML Editor/Shift Control Up/Down/Control Options</t>
+  </si>
+  <si>
+    <t>Data  should be displayed</t>
+  </si>
+  <si>
+    <t>Verify  parameter  Settings functionality</t>
+  </si>
+  <si>
+    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Parameter Setting &gt;&gt;Parameter Setting</t>
+  </si>
+  <si>
+    <t>Parameter Setting popup should be displayed</t>
+  </si>
+  <si>
+    <t>Enter data in fields of respective tabs and verify savings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on close option </t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_025</t>
+  </si>
+  <si>
+    <t>To Verify Speciality wise doctors functionality</t>
+  </si>
+  <si>
+    <t>Save option</t>
+  </si>
+  <si>
+    <t>Cancel  option</t>
+  </si>
+  <si>
+    <t>Speciality wise doctors popup should be displayed</t>
+  </si>
+  <si>
+    <t>Enter data in fields  and verify savings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on cancel option </t>
+  </si>
+  <si>
+    <t>Process should be cancelled</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_026</t>
+  </si>
+  <si>
+    <t>To verify Emergency call option functionality</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_027</t>
+  </si>
+  <si>
+    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Parameter Setting &gt;&gt;Speciality wise doctors</t>
+  </si>
+  <si>
+    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Transaction&gt;&gt;Emergency Call</t>
+  </si>
+  <si>
+    <t>Emergency Call popup should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter data in mandatory fields and click save option </t>
+  </si>
+  <si>
+    <t>Patient search</t>
+  </si>
+  <si>
+    <t>Search from list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After adding the data, verify it gets listed in page so that on entering a key word , data can be searched from listed </t>
+  </si>
+  <si>
+    <t>Added data should be listed and searched keyword should be displayed</t>
+  </si>
+  <si>
+    <t>Click close option and verify changes</t>
+  </si>
+  <si>
+    <t>Click patient search option and Enter a keyword for patient search like name,ID</t>
+  </si>
+  <si>
+    <t>Clear search</t>
+  </si>
+  <si>
+    <t>Searched patient should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on clear option </t>
+  </si>
+  <si>
+    <t>Verify postpone surgery schedule</t>
+  </si>
+  <si>
+    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Transaction&gt;&gt;postpone surgery schedule</t>
+  </si>
+  <si>
+    <t>postpone surgery schedule pop up should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter keyword to be searched </t>
+  </si>
+  <si>
+    <t>Check clear functionality on clicking clear</t>
+  </si>
+  <si>
+    <t>Data to be cleared</t>
+  </si>
+  <si>
+    <t>Click on post pone option when searched data get displayed</t>
+  </si>
+  <si>
+    <t>Select a date from date picker and click save option</t>
+  </si>
+  <si>
+    <t>Surgery should be scheduled to new date</t>
+  </si>
+  <si>
+    <t>Navigates to select a new date</t>
+  </si>
+  <si>
+    <t>Verify Outlet wise user mapping Functionality</t>
+  </si>
+  <si>
+    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Master&gt;&gt; Outlet wise user mapping</t>
+  </si>
+  <si>
+    <t>Verify save option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outlet wise user mapping pop up should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_028</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_029</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_030</t>
+  </si>
+  <si>
+    <t>Verify Medicine upload Master functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Master&gt;&gt; Medicine upload Master </t>
+  </si>
+  <si>
+    <t>Medicine upload Master popup shuld be displayed</t>
+  </si>
+  <si>
+    <t>File upload</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Show Log</t>
+  </si>
+  <si>
+    <t>Try to Uplaod a file of Excel/CSV type</t>
+  </si>
+  <si>
+    <t>Click on download option</t>
+  </si>
+  <si>
+    <t>File should be downloaded</t>
+  </si>
+  <si>
+    <t>File should be uploaded</t>
+  </si>
+  <si>
+    <t>Click on Show Log option</t>
+  </si>
+  <si>
+    <t>Log list should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_031</t>
+  </si>
+  <si>
+    <t>Verify Immunization Master Functionality</t>
+  </si>
+  <si>
+    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Master&gt;&gt; Immunization</t>
+  </si>
+  <si>
+    <t>Immunization Master pop up should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_032</t>
+  </si>
+  <si>
+    <t>Verify Radiology Ordering Master</t>
+  </si>
+  <si>
+    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Menu&gt;&gt;Master&gt;&gt; Radiology Ordering Master</t>
+  </si>
+  <si>
+    <t>Radiology Ordering Master pop up should be displayed</t>
+  </si>
+  <si>
+    <t>New option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter data in mandatory fields and click save </t>
+  </si>
+  <si>
+    <t>Click on New option</t>
+  </si>
+  <si>
+    <t>Upload a file of type csv/excel</t>
+  </si>
+  <si>
+    <t>File should be uploaded successfully</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_033</t>
+  </si>
+  <si>
+    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out-patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition: Patient should be in pre-consulted /Being seen status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on pre-consulted/ Being seen  status of a patient </t>
+  </si>
+  <si>
+    <t>Patient OP Consultation popup should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Re-consult option listed under right side patient information tab</t>
+  </si>
+  <si>
+    <t>Verify the status gets changed to pre-consulting under Out-patients tab.</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_034</t>
+  </si>
+  <si>
+    <t>Patient status to be changed to Re-Consulted</t>
+  </si>
+  <si>
+    <t>Data should be saved with a notification</t>
+  </si>
+  <si>
+    <t>Data should  be saved</t>
+  </si>
+  <si>
+    <t>Out-patient page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Re-Consulted status should be displayed in out-patients page-Todays waiting out-patients</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Enter data in Assessment Entry,Allergy etc</t>
+  </si>
+  <si>
+    <t>Verify Re-Consult of a pre-consulted patient</t>
+  </si>
+  <si>
+    <t>Select ER Examinations under patient OP Consultation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ER Examinations should display:
+ -Diagnosis
+ -Investigation Order
+ -Physical Examination</t>
+  </si>
+  <si>
+    <t>Verify page validation</t>
+  </si>
+  <si>
+    <t>It should be properly aligned</t>
+  </si>
+  <si>
+    <t>To Verify the contents of Reports</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Select Reports menu</t>
+  </si>
+  <si>
+    <t>Verify the contents listed</t>
+  </si>
+  <si>
+    <t>Alignment should be proper</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should display:
+-Investigation Status
+-Lab Results
+-Tabular Lab Results
+-Radiology Results
+-Radiology Result View
+</t>
+  </si>
+  <si>
+    <t>To Verify the contents of Requests</t>
+  </si>
+  <si>
+    <t>Click on pre-consulted/ Being seen  status of a patient</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Select Requests menu</t>
+  </si>
+  <si>
+    <t>It should display:
+-Reference Request
+-Surgery Request
+-Surgery Request List
+Physiotherapy Referal Request</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_036</t>
+  </si>
+  <si>
+    <t>Verify Immunization page</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Select Immunization</t>
+  </si>
+  <si>
+    <t>Select data from Check box</t>
+  </si>
+  <si>
+    <t>Print option</t>
+  </si>
+  <si>
+    <t>Select option</t>
+  </si>
+  <si>
+    <t>Select data from dropdown</t>
+  </si>
+  <si>
+    <t>Data should be listed</t>
+  </si>
+  <si>
+    <t>Click on Print option</t>
+  </si>
+  <si>
+    <t>Data should be printed</t>
+  </si>
+  <si>
+    <t>Checkbox should be enabled</t>
+  </si>
+  <si>
+    <t>Immunization page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_037</t>
+  </si>
+  <si>
+    <t>Click save option after inputing data</t>
+  </si>
+  <si>
+    <t>Previous,Next  option</t>
+  </si>
+  <si>
+    <t>Click Previous,Next  option</t>
+  </si>
+  <si>
+    <t>page should be navigated</t>
+  </si>
+  <si>
+    <t>Verify Antenatal Notes page</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Select Antenatal Notes</t>
+  </si>
+  <si>
+    <t>It should display:
+-Antenatal Notes
+-Previous Pregnancies
+-Antenatal Summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,7 +1722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1326,15 +1784,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1642,22 +2107,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R529"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="8" customWidth="1"/>
@@ -1673,7 +2138,7 @@
     <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1719,9 +2184,9 @@
       </c>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="45">
       <c r="A2" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>185</v>
@@ -1729,7 +2194,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7">
@@ -1749,7 +2214,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>18</v>
@@ -1759,11 +2224,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="45">
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="20"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -1795,11 +2260,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="5" customFormat="1">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="20"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -1828,8 +2293,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="20"/>
+    <row r="5" spans="1:18" ht="30">
+      <c r="D5" s="23"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -1848,8 +2313,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="210" x14ac:dyDescent="0.25">
-      <c r="D6" s="20"/>
+    <row r="6" spans="1:18" ht="210">
+      <c r="D6" s="23"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -1861,8 +2326,8 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="225" x14ac:dyDescent="0.25">
-      <c r="D7" s="20"/>
+    <row r="7" spans="1:18" ht="225">
+      <c r="D7" s="23"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -1874,8 +2339,8 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="20"/>
+    <row r="8" spans="1:18" ht="30" customHeight="1">
+      <c r="D8" s="23"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -1887,8 +2352,8 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="20"/>
+    <row r="9" spans="1:18" ht="30">
+      <c r="D9" s="23"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -1900,8 +2365,8 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:18" ht="270" x14ac:dyDescent="0.25">
-      <c r="D10" s="20"/>
+    <row r="10" spans="1:18" ht="270">
+      <c r="D10" s="23"/>
       <c r="E10" s="15">
         <v>9</v>
       </c>
@@ -1913,9 +2378,9 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="60" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>185</v>
@@ -1923,7 +2388,7 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="25" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="7">
@@ -1934,8 +2399,8 @@
       </c>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="22"/>
+    <row r="12" spans="1:18">
+      <c r="D12" s="25"/>
       <c r="E12" s="7">
         <v>2</v>
       </c>
@@ -1947,8 +2412,8 @@
       </c>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="22"/>
+    <row r="13" spans="1:18" ht="45" customHeight="1">
+      <c r="D13" s="25"/>
       <c r="E13" s="7">
         <v>3</v>
       </c>
@@ -1960,8 +2425,8 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D14" s="22"/>
+    <row r="14" spans="1:18" ht="30">
+      <c r="D14" s="25"/>
       <c r="E14" s="7">
         <v>4</v>
       </c>
@@ -1973,8 +2438,8 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="22"/>
+    <row r="15" spans="1:18" ht="30">
+      <c r="D15" s="25"/>
       <c r="E15" s="7">
         <v>5</v>
       </c>
@@ -1986,8 +2451,8 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="D16" s="22"/>
+    <row r="16" spans="1:18" ht="94.5">
+      <c r="D16" s="25"/>
       <c r="E16" s="7">
         <v>6</v>
       </c>
@@ -1999,8 +2464,8 @@
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D17" s="22"/>
+    <row r="17" spans="1:11" ht="45">
+      <c r="D17" s="25"/>
       <c r="E17" s="7">
         <v>7</v>
       </c>
@@ -2012,8 +2477,8 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="22"/>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="D18" s="25"/>
       <c r="E18" s="7">
         <v>8</v>
       </c>
@@ -2025,8 +2490,8 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="22"/>
+    <row r="19" spans="1:11" ht="30">
+      <c r="D19" s="25"/>
       <c r="E19" s="7">
         <v>9</v>
       </c>
@@ -2038,8 +2503,8 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="22"/>
+    <row r="20" spans="1:11" ht="30">
+      <c r="D20" s="25"/>
       <c r="E20" s="7">
         <v>10</v>
       </c>
@@ -2051,8 +2516,8 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="22"/>
+    <row r="21" spans="1:11" ht="30">
+      <c r="D21" s="25"/>
       <c r="E21" s="7">
         <v>11</v>
       </c>
@@ -2064,8 +2529,8 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="22"/>
+    <row r="22" spans="1:11" ht="30">
+      <c r="D22" s="25"/>
       <c r="E22" s="7">
         <v>12</v>
       </c>
@@ -2077,8 +2542,8 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="22"/>
+    <row r="23" spans="1:11" ht="45" customHeight="1">
+      <c r="D23" s="25"/>
       <c r="E23" s="7">
         <v>13</v>
       </c>
@@ -2090,8 +2555,8 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="D24" s="22"/>
+    <row r="24" spans="1:11" ht="150">
+      <c r="D24" s="25"/>
       <c r="E24" s="7">
         <v>14</v>
       </c>
@@ -2103,9 +2568,9 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="45" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>185</v>
@@ -2113,7 +2578,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="7">
@@ -2124,8 +2589,8 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="20"/>
+    <row r="26" spans="1:11" ht="30">
+      <c r="D26" s="23"/>
       <c r="E26" s="7">
         <v>2</v>
       </c>
@@ -2140,8 +2605,8 @@
       </c>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D27" s="20"/>
+    <row r="27" spans="1:11" ht="30">
+      <c r="D27" s="23"/>
       <c r="E27" s="7">
         <v>3</v>
       </c>
@@ -2153,8 +2618,8 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="20"/>
+    <row r="28" spans="1:11" ht="60" customHeight="1">
+      <c r="D28" s="23"/>
       <c r="E28" s="7">
         <v>4</v>
       </c>
@@ -2166,8 +2631,8 @@
       </c>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="D29" s="20"/>
+    <row r="29" spans="1:11" ht="135">
+      <c r="D29" s="23"/>
       <c r="E29" s="7">
         <v>5</v>
       </c>
@@ -2179,9 +2644,9 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="60" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>185</v>
@@ -2189,7 +2654,7 @@
       <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="15">
@@ -2200,8 +2665,8 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D31" s="20"/>
+    <row r="31" spans="1:11" ht="30">
+      <c r="D31" s="23"/>
       <c r="E31" s="15">
         <v>2</v>
       </c>
@@ -2216,8 +2681,8 @@
       </c>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D32" s="20"/>
+    <row r="32" spans="1:11" ht="30">
+      <c r="D32" s="23"/>
       <c r="E32" s="15">
         <v>3</v>
       </c>
@@ -2229,8 +2694,8 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="4:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="20"/>
+    <row r="33" spans="4:11" ht="60" customHeight="1">
+      <c r="D33" s="23"/>
       <c r="E33" s="15">
         <v>4</v>
       </c>
@@ -2242,8 +2707,8 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="4:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="D34" s="20"/>
+    <row r="34" spans="4:11" ht="135">
+      <c r="D34" s="23"/>
       <c r="E34" s="15">
         <v>5</v>
       </c>
@@ -2255,8 +2720,8 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="20"/>
+    <row r="35" spans="4:11" ht="30">
+      <c r="D35" s="23"/>
       <c r="E35" s="15">
         <v>6</v>
       </c>
@@ -2268,8 +2733,8 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D36" s="20"/>
+    <row r="36" spans="4:11" ht="30">
+      <c r="D36" s="23"/>
       <c r="E36" s="15">
         <v>7</v>
       </c>
@@ -2281,8 +2746,8 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="20"/>
+    <row r="37" spans="4:11" ht="30">
+      <c r="D37" s="23"/>
       <c r="E37" s="15">
         <v>8</v>
       </c>
@@ -2294,8 +2759,8 @@
       </c>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D38" s="20"/>
+    <row r="38" spans="4:11" ht="30">
+      <c r="D38" s="23"/>
       <c r="E38" s="15">
         <v>9</v>
       </c>
@@ -2307,8 +2772,8 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="D39" s="20"/>
+    <row r="39" spans="4:11" ht="135">
+      <c r="D39" s="23"/>
       <c r="E39" s="15">
         <v>10</v>
       </c>
@@ -2320,8 +2785,8 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="20"/>
+    <row r="40" spans="4:11" ht="45" customHeight="1">
+      <c r="D40" s="23"/>
       <c r="E40" s="15">
         <v>11</v>
       </c>
@@ -2333,8 +2798,8 @@
       </c>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="20"/>
+    <row r="41" spans="4:11">
+      <c r="D41" s="23"/>
       <c r="E41" s="15">
         <v>12</v>
       </c>
@@ -2346,8 +2811,8 @@
       </c>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="20"/>
+    <row r="42" spans="4:11">
+      <c r="D42" s="23"/>
       <c r="E42" s="15">
         <v>13</v>
       </c>
@@ -2359,8 +2824,8 @@
       </c>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="20"/>
+    <row r="43" spans="4:11">
+      <c r="D43" s="23"/>
       <c r="E43" s="15">
         <v>14</v>
       </c>
@@ -2372,8 +2837,8 @@
       </c>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="20"/>
+    <row r="44" spans="4:11">
+      <c r="D44" s="23"/>
       <c r="E44" s="15">
         <v>15</v>
       </c>
@@ -2385,8 +2850,8 @@
       </c>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D45" s="20"/>
+    <row r="45" spans="4:11" ht="30">
+      <c r="D45" s="23"/>
       <c r="E45" s="15">
         <v>16</v>
       </c>
@@ -2398,8 +2863,8 @@
       </c>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="20"/>
+    <row r="46" spans="4:11" ht="45" customHeight="1">
+      <c r="D46" s="23"/>
       <c r="E46" s="15">
         <v>17</v>
       </c>
@@ -2411,8 +2876,8 @@
       </c>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D47" s="20"/>
+    <row r="47" spans="4:11" ht="30">
+      <c r="D47" s="23"/>
       <c r="E47" s="15">
         <v>18</v>
       </c>
@@ -2424,8 +2889,8 @@
       </c>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="20"/>
+    <row r="48" spans="4:11">
+      <c r="D48" s="23"/>
       <c r="E48" s="15">
         <v>19</v>
       </c>
@@ -2437,9 +2902,9 @@
       </c>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="45">
       <c r="A49" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>185</v>
@@ -2447,7 +2912,7 @@
       <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="25" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="7">
@@ -2458,8 +2923,8 @@
       </c>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D50" s="22"/>
+    <row r="50" spans="1:11" ht="30">
+      <c r="D50" s="25"/>
       <c r="E50" s="7">
         <v>2</v>
       </c>
@@ -2474,8 +2939,8 @@
       </c>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="22"/>
+    <row r="51" spans="1:11" ht="30">
+      <c r="D51" s="25"/>
       <c r="E51" s="7">
         <v>3</v>
       </c>
@@ -2487,8 +2952,8 @@
       </c>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="D52" s="22"/>
+    <row r="52" spans="1:11" ht="180">
+      <c r="D52" s="25"/>
       <c r="E52" s="7">
         <v>4</v>
       </c>
@@ -2500,8 +2965,8 @@
       </c>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D53" s="22"/>
+    <row r="53" spans="1:11" ht="60">
+      <c r="D53" s="25"/>
       <c r="E53" s="7">
         <v>5</v>
       </c>
@@ -2513,8 +2978,8 @@
       </c>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="22"/>
+    <row r="54" spans="1:11" ht="45" customHeight="1">
+      <c r="D54" s="25"/>
       <c r="E54" s="7">
         <v>6</v>
       </c>
@@ -2526,8 +2991,8 @@
       </c>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D55" s="22"/>
+    <row r="55" spans="1:11" ht="45">
+      <c r="D55" s="25"/>
       <c r="E55" s="7">
         <v>7</v>
       </c>
@@ -2539,9 +3004,9 @@
       </c>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="30">
       <c r="A56" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>185</v>
@@ -2549,7 +3014,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="7">
@@ -2563,8 +3028,8 @@
       </c>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D57" s="20"/>
+    <row r="57" spans="1:11">
+      <c r="D57" s="23"/>
       <c r="E57" s="7">
         <v>2</v>
       </c>
@@ -2576,8 +3041,8 @@
       </c>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="D58" s="20"/>
+    <row r="58" spans="1:11" ht="120">
+      <c r="D58" s="23"/>
       <c r="E58" s="7">
         <v>3</v>
       </c>
@@ -2589,8 +3054,8 @@
       </c>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="20"/>
+    <row r="59" spans="1:11" ht="45" customHeight="1">
+      <c r="D59" s="23"/>
       <c r="E59" s="7">
         <v>4</v>
       </c>
@@ -2602,8 +3067,8 @@
       </c>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D60" s="20"/>
+    <row r="60" spans="1:11" ht="30">
+      <c r="D60" s="23"/>
       <c r="E60" s="7">
         <v>5</v>
       </c>
@@ -2615,8 +3080,8 @@
       </c>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D61" s="20"/>
+    <row r="61" spans="1:11">
+      <c r="D61" s="23"/>
       <c r="E61" s="7">
         <v>6</v>
       </c>
@@ -2628,8 +3093,8 @@
       </c>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D62" s="20"/>
+    <row r="62" spans="1:11" ht="90">
+      <c r="D62" s="23"/>
       <c r="E62" s="7">
         <v>7</v>
       </c>
@@ -2641,8 +3106,8 @@
       </c>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="20"/>
+    <row r="63" spans="1:11" ht="45" customHeight="1">
+      <c r="D63" s="23"/>
       <c r="E63" s="7">
         <v>8</v>
       </c>
@@ -2654,8 +3119,8 @@
       </c>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D64" s="20"/>
+    <row r="64" spans="1:11" ht="30">
+      <c r="D64" s="23"/>
       <c r="E64" s="7">
         <v>9</v>
       </c>
@@ -2667,8 +3132,8 @@
       </c>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D65" s="20"/>
+    <row r="65" spans="1:11" ht="30">
+      <c r="D65" s="23"/>
       <c r="E65" s="7">
         <v>10</v>
       </c>
@@ -2680,8 +3145,8 @@
       </c>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="D66" s="20"/>
+    <row r="66" spans="1:11" ht="120">
+      <c r="D66" s="23"/>
       <c r="E66" s="7">
         <v>11</v>
       </c>
@@ -2693,8 +3158,8 @@
       </c>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="20"/>
+    <row r="67" spans="1:11" ht="99.75" customHeight="1">
+      <c r="D67" s="23"/>
       <c r="E67" s="7">
         <v>12</v>
       </c>
@@ -2706,8 +3171,8 @@
       </c>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="D68" s="20"/>
+    <row r="68" spans="1:11" ht="105">
+      <c r="D68" s="23"/>
       <c r="E68" s="7">
         <v>13</v>
       </c>
@@ -2719,8 +3184,8 @@
       </c>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="D69" s="20"/>
+    <row r="69" spans="1:11" ht="60">
+      <c r="D69" s="23"/>
       <c r="E69" s="7">
         <v>14</v>
       </c>
@@ -2732,8 +3197,8 @@
       </c>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="D70" s="20"/>
+    <row r="70" spans="1:11" ht="90">
+      <c r="D70" s="23"/>
       <c r="E70" s="7">
         <v>15</v>
       </c>
@@ -2745,12 +3210,12 @@
       </c>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="60" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>185</v>
@@ -2769,7 +3234,7 @@
       </c>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="60">
       <c r="A73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7">
@@ -2783,7 +3248,7 @@
       </c>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="30">
       <c r="A74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7">
@@ -2797,9 +3262,9 @@
       </c>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="105">
       <c r="A75" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>185</v>
@@ -2821,7 +3286,7 @@
       </c>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="97.5" customHeight="1">
       <c r="A76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7">
@@ -2835,7 +3300,7 @@
       </c>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="235.5" customHeight="1">
       <c r="A77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7">
@@ -2849,9 +3314,9 @@
       </c>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="60" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>185</v>
@@ -2876,7 +3341,7 @@
       </c>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="15">
@@ -2890,7 +3355,7 @@
       </c>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="409.5">
       <c r="A80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="15">
@@ -2904,9 +3369,9 @@
       </c>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>287</v>
+    <row r="81" spans="1:11" ht="75">
+      <c r="A81" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>185</v>
@@ -2923,32 +3388,42 @@
       <c r="F81" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="7"/>
+      <c r="G81" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="60" customHeight="1">
       <c r="A82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="15">
         <v>2</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="F82" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>416</v>
+      </c>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="15">
         <v>3</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="F83" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>418</v>
+      </c>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
-        <v>288</v>
+    <row r="84" spans="1:11" ht="90">
+      <c r="A84" s="21" t="s">
+        <v>285</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>185</v>
@@ -2970,7 +3445,7 @@
       </c>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="30">
       <c r="E85" s="15">
         <v>2</v>
       </c>
@@ -2982,7 +3457,7 @@
       </c>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="125.25" customHeight="1">
       <c r="E86" s="15">
         <v>3</v>
       </c>
@@ -2994,7 +3469,7 @@
       </c>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="45" customHeight="1">
       <c r="E87" s="15">
         <v>4</v>
       </c>
@@ -3006,9 +3481,9 @@
       </c>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="60">
       <c r="A88" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>185</v>
@@ -3030,7 +3505,7 @@
       </c>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="30">
       <c r="A89" s="7"/>
       <c r="D89" s="19"/>
       <c r="E89" s="15">
@@ -3044,7 +3519,7 @@
       </c>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="155.25" customHeight="1">
       <c r="A90" s="7"/>
       <c r="E90" s="15">
         <v>3</v>
@@ -3057,7 +3532,7 @@
       </c>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="7"/>
       <c r="D91" s="15" t="s">
         <v>191</v>
@@ -3073,7 +3548,7 @@
       </c>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="190.5" customHeight="1">
       <c r="A92" s="7"/>
       <c r="D92" s="15" t="s">
         <v>177</v>
@@ -3089,7 +3564,7 @@
       </c>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="147" customHeight="1">
       <c r="A93" s="7"/>
       <c r="D93" s="15" t="s">
         <v>153</v>
@@ -3105,7 +3580,7 @@
       </c>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="7"/>
       <c r="D94" s="15" t="s">
         <v>195</v>
@@ -3121,7 +3596,7 @@
       </c>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="D95" s="15" t="s">
         <v>197</v>
       </c>
@@ -3136,7 +3611,7 @@
       </c>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="D96" s="9"/>
       <c r="E96" s="15">
         <v>9</v>
@@ -3149,7 +3624,7 @@
       </c>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="137.25" customHeight="1">
       <c r="D97" s="15" t="s">
         <v>204</v>
       </c>
@@ -3164,9 +3639,9 @@
       </c>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="45" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>185</v>
@@ -3188,7 +3663,7 @@
       </c>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="30">
       <c r="E99" s="15">
         <v>2</v>
       </c>
@@ -3200,7 +3675,7 @@
       </c>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="E100" s="15">
         <v>3</v>
       </c>
@@ -3212,7 +3687,7 @@
       </c>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="E101" s="15">
         <v>4</v>
       </c>
@@ -3224,7 +3699,7 @@
       </c>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="E102" s="15">
         <v>5</v>
       </c>
@@ -3236,7 +3711,7 @@
       </c>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="30">
       <c r="E103" s="15">
         <v>6</v>
       </c>
@@ -3248,7 +3723,7 @@
       </c>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="75" customHeight="1">
       <c r="E104" s="15">
         <v>7</v>
       </c>
@@ -3260,7 +3735,7 @@
       </c>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="E105" s="15">
         <v>8</v>
       </c>
@@ -3272,9 +3747,9 @@
       </c>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="60">
       <c r="A106" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>185</v>
@@ -3299,7 +3774,7 @@
       </c>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="D107" s="9" t="s">
         <v>178</v>
       </c>
@@ -3314,7 +3789,7 @@
       </c>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="73.5" customHeight="1">
       <c r="D108" s="9" t="s">
         <v>210</v>
       </c>
@@ -3329,7 +3804,7 @@
       </c>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="54.75" customHeight="1">
       <c r="D109" s="15" t="s">
         <v>220</v>
       </c>
@@ -3344,7 +3819,7 @@
       </c>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="30" customHeight="1">
       <c r="D110" s="15" t="s">
         <v>221</v>
       </c>
@@ -3359,7 +3834,7 @@
       </c>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="51.75" customHeight="1">
       <c r="D111" s="15" t="s">
         <v>233</v>
       </c>
@@ -3374,7 +3849,7 @@
       </c>
       <c r="K111" s="10"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="D112" s="15" t="s">
         <v>222</v>
       </c>
@@ -3389,7 +3864,7 @@
       </c>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="43.5" customHeight="1">
       <c r="D113" s="15" t="s">
         <v>153</v>
       </c>
@@ -3404,7 +3879,7 @@
       </c>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="64.5" customHeight="1">
       <c r="D114" s="15" t="s">
         <v>223</v>
       </c>
@@ -3419,9 +3894,9 @@
       </c>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="75">
       <c r="A115" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>185</v>
@@ -3446,7 +3921,7 @@
       </c>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="E116" s="15">
         <v>2</v>
       </c>
@@ -3458,7 +3933,7 @@
       </c>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="E117" s="15">
         <v>3</v>
       </c>
@@ -3470,7 +3945,7 @@
       </c>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30" customHeight="1">
       <c r="E118" s="15">
         <v>4</v>
       </c>
@@ -3482,9 +3957,9 @@
       </c>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="60">
       <c r="A119" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>185</v>
@@ -3509,7 +3984,7 @@
       </c>
       <c r="K119" s="10"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="E120" s="15">
         <v>2</v>
       </c>
@@ -3521,9 +3996,9 @@
       </c>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="60">
       <c r="A121" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>185</v>
@@ -3548,7 +4023,7 @@
       </c>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="E122" s="15">
         <v>2</v>
       </c>
@@ -3560,9 +4035,9 @@
       </c>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="30" customHeight="1">
       <c r="A123" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>185</v>
@@ -3587,7 +4062,7 @@
       </c>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="E124" s="15">
         <v>2</v>
       </c>
@@ -3599,9 +4074,9 @@
       </c>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="60">
       <c r="A125" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>185</v>
@@ -3626,7 +4101,7 @@
       </c>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="E126" s="15">
         <v>2</v>
       </c>
@@ -3638,9 +4113,9 @@
       </c>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="60">
       <c r="A127" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>185</v>
@@ -3665,7 +4140,7 @@
       </c>
       <c r="K127" s="10"/>
     </row>
-    <row r="128" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="45" customHeight="1">
       <c r="E128" s="15">
         <v>2</v>
       </c>
@@ -3677,7 +4152,7 @@
       </c>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="D129" s="15" t="s">
         <v>255</v>
       </c>
@@ -3692,7 +4167,7 @@
       </c>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30">
       <c r="D130" s="15" t="s">
         <v>256</v>
       </c>
@@ -3707,7 +4182,7 @@
       </c>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="D131" s="15" t="s">
         <v>261</v>
       </c>
@@ -3722,9 +4197,9 @@
       </c>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="81" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>185</v>
@@ -3742,16 +4217,16 @@
         <v>263</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H132" s="18" t="s">
         <v>68</v>
       </c>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="D133" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E133" s="15">
         <v>2</v>
@@ -3761,7 +4236,7 @@
       </c>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="E134" s="15">
         <v>3</v>
       </c>
@@ -3770,39 +4245,39 @@
       </c>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="E135" s="15">
         <v>4</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="K135" s="10"/>
     </row>
-    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="30">
       <c r="E136" s="15">
         <v>5</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="104.25" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B137" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B137" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="E137" s="15">
         <v>1</v>
@@ -3811,1457 +4286,2351 @@
         <v>263</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
+      </c>
+      <c r="H137" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
+      <c r="D138" s="15" t="s">
+        <v>317</v>
+      </c>
       <c r="E138" s="15">
         <v>2</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="36" customHeight="1">
       <c r="E139" s="15">
         <v>3</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="D140" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E140" s="15">
         <v>4</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="30">
+      <c r="D141" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E141" s="15">
+        <v>5</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="30">
+      <c r="D142" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E142" s="15">
+        <v>6</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="30" customHeight="1">
+      <c r="D143" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E143" s="15">
+        <v>7</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="K143" s="10"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="30">
+      <c r="D144" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E144" s="15">
+        <v>8</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>312</v>
+      </c>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30">
+      <c r="D145" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E145" s="15">
+        <v>9</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>311</v>
+      </c>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="30">
+      <c r="D146" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E146" s="15">
+        <v>10</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>315</v>
+      </c>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="60">
+      <c r="A147" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E147" s="15">
+        <v>1</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H147" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="30">
+      <c r="E148" s="15">
+        <v>2</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="60">
+      <c r="A149" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E149" s="15">
+        <v>1</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H149" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="30">
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="15">
+        <v>2</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="72" customHeight="1">
+      <c r="A151" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E151" s="15">
+        <v>1</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H151" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K151" s="10"/>
     </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="30">
+      <c r="E152" s="15">
+        <v>2</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G152" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
+      <c r="E153" s="15">
+        <v>3</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="60">
+      <c r="A154" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E154" s="15">
+        <v>1</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H154" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
+      <c r="D155" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E155" s="15">
+        <v>2</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
+      <c r="D156" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E156" s="15">
+        <v>3</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
+      <c r="D157" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E157" s="15">
+        <v>4</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="60">
+      <c r="A158" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E158" s="15">
+        <v>1</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="H158" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="30" customHeight="1">
+      <c r="D159" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E159" s="15">
+        <v>2</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K159" s="10"/>
     </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="30">
+      <c r="D160" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E160" s="15">
+        <v>3</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>355</v>
+      </c>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E161" s="15">
+        <v>4</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="45">
+      <c r="D162" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E162" s="15">
+        <v>5</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
+      <c r="D163" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E163" s="15">
+        <v>6</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="60">
+      <c r="A164" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E164" s="15">
+        <v>1</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H164" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
+      <c r="D165" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E165" s="15">
+        <v>2</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="11:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
+      <c r="D166" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166" s="15">
+        <v>3</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>362</v>
+      </c>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="15" customHeight="1">
+      <c r="E167" s="15">
+        <v>4</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>366</v>
+      </c>
       <c r="K167" s="10"/>
     </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="48" customHeight="1">
+      <c r="E168" s="15">
+        <v>5</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>365</v>
+      </c>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="60">
+      <c r="A169" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E169" s="15">
+        <v>1</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H169" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
+      <c r="E170" s="15">
+        <v>2</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="60">
+      <c r="A171" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E171" s="15">
+        <v>1</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H171" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="30" customHeight="1">
+      <c r="D172" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E172" s="15">
+        <v>1</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
+      <c r="D173" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E173" s="15">
+        <v>2</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>382</v>
+      </c>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
+      <c r="D174" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="E174" s="15">
+        <v>3</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="45">
+      <c r="A175" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E175" s="15">
+        <v>1</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="H175" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K175" s="10"/>
     </row>
-    <row r="176" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="30">
+      <c r="E176" s="15">
+        <v>2</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>410</v>
+      </c>
       <c r="K176" s="10"/>
     </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="60">
+      <c r="A177" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E177" s="15">
+        <v>1</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H177" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K177" s="10"/>
     </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="30" customHeight="1">
+      <c r="D178" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E178" s="15">
+        <v>2</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="K178" s="10"/>
     </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="30" customHeight="1">
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E179" s="15">
+        <v>3</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>399</v>
+      </c>
       <c r="K179" s="10"/>
     </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
+      <c r="D180" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E180" s="15">
+        <v>4</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K180" s="10"/>
     </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
+      <c r="D181" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E181" s="15">
+        <v>5</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="K181" s="10"/>
     </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="30">
+      <c r="A182" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="H182" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="K182" s="10"/>
     </row>
-    <row r="183" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="45">
+      <c r="E183" s="15">
+        <v>1</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K183" s="10"/>
     </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30">
+      <c r="E184" s="15">
+        <v>2</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K184" s="10"/>
     </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="30">
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
+      <c r="E185" s="15">
+        <v>3</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="K185" s="10"/>
     </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="E186" s="15">
+        <v>4</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>409</v>
+      </c>
       <c r="K186" s="10"/>
     </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="30">
+      <c r="E187" s="15">
+        <v>5</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>408</v>
+      </c>
       <c r="K187" s="10"/>
     </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="32.25" customHeight="1">
+      <c r="E188" s="15">
+        <v>6</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="K188" s="10"/>
     </row>
-    <row r="189" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="45">
+      <c r="A189" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E189" s="15">
+        <v>1</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K189" s="10"/>
     </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="30">
+      <c r="E190" s="15">
+        <v>2</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K190" s="10"/>
     </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="105">
+      <c r="E191" s="15">
+        <v>3</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>424</v>
+      </c>
       <c r="K191" s="10"/>
     </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
+      <c r="E192" s="15">
+        <v>4</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>422</v>
+      </c>
       <c r="K192" s="10"/>
     </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="45">
+      <c r="A193" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K193" s="10"/>
     </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="36.75" customHeight="1">
+      <c r="F194" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K194" s="10"/>
     </row>
-    <row r="195" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="75">
+      <c r="F195" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>428</v>
+      </c>
       <c r="K195" s="10"/>
     </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="45">
+      <c r="A196" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B196" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C196" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K196" s="10"/>
     </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="30">
+      <c r="F197" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K197" s="10"/>
     </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="30">
+      <c r="F198" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="G198" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="K198" s="10"/>
     </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
+      <c r="F199" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>439</v>
+      </c>
       <c r="K199" s="10"/>
     </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="30" customHeight="1">
+      <c r="D200" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="K200" s="10"/>
     </row>
-    <row r="201" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
+      <c r="D201" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>436</v>
+      </c>
       <c r="K201" s="10"/>
     </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
+      <c r="B202" s="22"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="G202" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K202" s="10"/>
     </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>445</v>
+      </c>
       <c r="K203" s="10"/>
     </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="45">
+      <c r="A204" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K204" s="10"/>
     </row>
-    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="30">
+      <c r="F205" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K205" s="10"/>
     </row>
-    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="60">
+      <c r="F206" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="K206" s="10"/>
     </row>
-    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="K207" s="10"/>
     </row>
-    <row r="208" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="30" customHeight="1">
       <c r="K208" s="10"/>
     </row>
-    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="11:11">
       <c r="K209" s="10"/>
     </row>
-    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="11:11">
       <c r="K210" s="10"/>
     </row>
-    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="11:11">
       <c r="K211" s="10"/>
     </row>
-    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="11:11">
       <c r="K212" s="10"/>
     </row>
-    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="11:11">
       <c r="K213" s="10"/>
     </row>
-    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="11:11">
       <c r="K214" s="10"/>
     </row>
-    <row r="215" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="11:11" ht="15" customHeight="1">
       <c r="K215" s="10"/>
     </row>
-    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="11:11">
       <c r="K216" s="10"/>
     </row>
-    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="11:11">
       <c r="K217" s="10"/>
     </row>
-    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="11:11">
       <c r="K218" s="10"/>
     </row>
-    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="11:11">
       <c r="K219" s="10"/>
     </row>
-    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="11:11">
       <c r="K220" s="10"/>
     </row>
-    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="11:11">
       <c r="K221" s="10"/>
     </row>
-    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="11:11" ht="15" customHeight="1">
       <c r="K222" s="10"/>
     </row>
-    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="11:11">
       <c r="K223" s="10"/>
     </row>
-    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="11:11">
       <c r="K224" s="10"/>
     </row>
-    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="11:11">
       <c r="K225" s="10"/>
     </row>
-    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="11:11">
       <c r="K226" s="10"/>
     </row>
-    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="11:11">
       <c r="K227" s="10"/>
     </row>
-    <row r="228" spans="11:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="11:11">
       <c r="K228" s="10"/>
     </row>
-    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="11:11">
       <c r="K229" s="10"/>
     </row>
-    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="11:11">
       <c r="K230" s="10"/>
     </row>
-    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="11:11">
       <c r="K231" s="10"/>
     </row>
-    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="11:11">
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="11:11">
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="11:11">
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="11:11" ht="30.75" customHeight="1">
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="11:11">
       <c r="K236" s="10"/>
     </row>
-    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="11:11">
       <c r="K237" s="10"/>
     </row>
-    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="11:11">
       <c r="K238" s="10"/>
     </row>
-    <row r="239" spans="11:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="11:11">
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="11:11">
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="11:11" ht="30" customHeight="1">
       <c r="K241" s="10"/>
     </row>
-    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="11:11">
       <c r="K242" s="10"/>
     </row>
-    <row r="243" spans="11:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="11:11">
       <c r="K243" s="10"/>
     </row>
-    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="11:11">
       <c r="K244" s="10"/>
     </row>
-    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="11:11">
       <c r="K245" s="10"/>
     </row>
-    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="11:11" ht="45" customHeight="1">
       <c r="K246" s="10"/>
     </row>
-    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="11:11">
       <c r="K247" s="10"/>
     </row>
-    <row r="248" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="11:11">
       <c r="K248" s="10"/>
     </row>
-    <row r="249" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="11:11">
       <c r="K249" s="10"/>
     </row>
-    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="11:11" ht="45" customHeight="1">
       <c r="K250" s="10"/>
     </row>
-    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="11:11">
       <c r="K251" s="10"/>
     </row>
-    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="11:11">
       <c r="K252" s="10"/>
     </row>
-    <row r="253" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="11:11">
       <c r="K253" s="10"/>
     </row>
-    <row r="254" spans="11:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="11:11">
       <c r="K254" s="10"/>
     </row>
-    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="11:11" ht="15" customHeight="1">
       <c r="K255" s="10"/>
     </row>
-    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="11:11" ht="30" customHeight="1">
       <c r="K256" s="10"/>
     </row>
-    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="11:11">
       <c r="K257" s="10"/>
     </row>
-    <row r="258" spans="11:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="11:11">
       <c r="K258" s="10"/>
     </row>
-    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="11:11">
       <c r="K259" s="10"/>
     </row>
-    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="11:11" ht="15" customHeight="1">
       <c r="K260" s="10"/>
     </row>
-    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="11:11" ht="30" customHeight="1">
       <c r="K261" s="10"/>
     </row>
-    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="11:11">
       <c r="K262" s="10"/>
     </row>
-    <row r="263" spans="11:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="11:11">
       <c r="K263" s="10"/>
     </row>
-    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="11:11">
       <c r="K264" s="10"/>
     </row>
-    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="11:11" ht="51.75" customHeight="1">
       <c r="K265" s="10"/>
     </row>
-    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="11:11">
       <c r="K266" s="10"/>
     </row>
-    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="11:11">
       <c r="K267" s="10"/>
     </row>
-    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="11:11">
       <c r="K268" s="10"/>
     </row>
-    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="11:11">
       <c r="K269" s="10"/>
     </row>
-    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="11:11" ht="15" customHeight="1">
       <c r="K270" s="10"/>
     </row>
-    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="11:11">
       <c r="K271" s="10"/>
     </row>
-    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="11:11">
       <c r="K272" s="10"/>
     </row>
-    <row r="273" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="11:11">
       <c r="K273" s="10"/>
     </row>
-    <row r="274" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="11:11">
       <c r="K274" s="10"/>
     </row>
-    <row r="275" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="11:11">
       <c r="K275" s="10"/>
     </row>
-    <row r="276" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="11:11">
       <c r="K276" s="10"/>
     </row>
-    <row r="277" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="11:11">
       <c r="K277" s="10"/>
     </row>
-    <row r="278" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="11:11">
       <c r="K278" s="10"/>
     </row>
-    <row r="279" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="11:11">
       <c r="K279" s="10"/>
     </row>
-    <row r="280" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="11:11" ht="45" customHeight="1">
       <c r="K280" s="10"/>
     </row>
-    <row r="281" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="11:11">
       <c r="K281" s="10"/>
     </row>
-    <row r="282" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="11:11">
       <c r="K282" s="10"/>
     </row>
-    <row r="283" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="11:11">
       <c r="K283" s="10"/>
     </row>
-    <row r="284" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="11:11">
       <c r="K284" s="10"/>
     </row>
-    <row r="285" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="11:11">
       <c r="K285" s="10"/>
     </row>
-    <row r="286" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="11:11">
       <c r="K286" s="10"/>
     </row>
-    <row r="287" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="11:11">
       <c r="K287" s="10"/>
     </row>
-    <row r="288" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J288" s="10"/>
+    <row r="288" spans="11:11">
       <c r="K288" s="10"/>
     </row>
-    <row r="289" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J289" s="10"/>
+    <row r="289" spans="10:11">
       <c r="K289" s="10"/>
     </row>
-    <row r="290" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J290" s="10"/>
+    <row r="290" spans="10:11">
       <c r="K290" s="10"/>
     </row>
-    <row r="291" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J291" s="10"/>
+    <row r="291" spans="10:11">
       <c r="K291" s="10"/>
     </row>
-    <row r="292" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J292" s="10"/>
+    <row r="292" spans="10:11">
       <c r="K292" s="10"/>
     </row>
-    <row r="293" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J293" s="10"/>
+    <row r="293" spans="10:11">
       <c r="K293" s="10"/>
     </row>
-    <row r="294" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J294" s="10"/>
+    <row r="294" spans="10:11">
       <c r="K294" s="10"/>
     </row>
-    <row r="295" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="10:11">
       <c r="J295" s="10"/>
       <c r="K295" s="10"/>
     </row>
-    <row r="296" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="10:11">
       <c r="J296" s="10"/>
       <c r="K296" s="10"/>
     </row>
-    <row r="297" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="10:11">
       <c r="J297" s="10"/>
       <c r="K297" s="10"/>
     </row>
-    <row r="298" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="10:11">
       <c r="J298" s="10"/>
       <c r="K298" s="10"/>
     </row>
-    <row r="299" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="10:11">
       <c r="J299" s="10"/>
       <c r="K299" s="10"/>
     </row>
-    <row r="300" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="10:11">
       <c r="J300" s="10"/>
       <c r="K300" s="10"/>
     </row>
-    <row r="301" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="10:11">
       <c r="J301" s="10"/>
       <c r="K301" s="10"/>
     </row>
-    <row r="302" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="10:11">
       <c r="J302" s="10"/>
       <c r="K302" s="10"/>
     </row>
-    <row r="303" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="10:11">
       <c r="J303" s="10"/>
       <c r="K303" s="10"/>
     </row>
-    <row r="304" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="10:11">
       <c r="J304" s="10"/>
       <c r="K304" s="10"/>
     </row>
-    <row r="305" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="10:11">
       <c r="J305" s="10"/>
       <c r="K305" s="10"/>
     </row>
-    <row r="306" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="10:11">
       <c r="J306" s="10"/>
       <c r="K306" s="10"/>
     </row>
-    <row r="307" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="10:11">
       <c r="J307" s="10"/>
       <c r="K307" s="10"/>
     </row>
-    <row r="308" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="10:11">
       <c r="J308" s="10"/>
       <c r="K308" s="10"/>
     </row>
-    <row r="309" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="10:11">
       <c r="J309" s="10"/>
       <c r="K309" s="10"/>
     </row>
-    <row r="310" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="10:11">
       <c r="J310" s="10"/>
       <c r="K310" s="10"/>
     </row>
-    <row r="311" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="10:11">
       <c r="J311" s="10"/>
       <c r="K311" s="10"/>
     </row>
-    <row r="312" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="10:11">
       <c r="J312" s="10"/>
       <c r="K312" s="10"/>
     </row>
-    <row r="313" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="10:11">
       <c r="J313" s="10"/>
       <c r="K313" s="10"/>
     </row>
-    <row r="314" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="10:11">
       <c r="J314" s="10"/>
       <c r="K314" s="10"/>
     </row>
-    <row r="315" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="10:11">
       <c r="J315" s="10"/>
       <c r="K315" s="10"/>
     </row>
-    <row r="316" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="10:11">
       <c r="J316" s="10"/>
       <c r="K316" s="10"/>
     </row>
-    <row r="317" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="10:11">
       <c r="J317" s="10"/>
       <c r="K317" s="10"/>
     </row>
-    <row r="318" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="10:11">
       <c r="J318" s="10"/>
       <c r="K318" s="10"/>
     </row>
-    <row r="319" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="10:11">
       <c r="J319" s="10"/>
       <c r="K319" s="10"/>
     </row>
-    <row r="320" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="10:11" ht="45" customHeight="1">
       <c r="J320" s="10"/>
       <c r="K320" s="10"/>
     </row>
-    <row r="321" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="10:11">
       <c r="J321" s="10"/>
       <c r="K321" s="10"/>
     </row>
-    <row r="322" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="10:11">
       <c r="J322" s="10"/>
       <c r="K322" s="10"/>
     </row>
-    <row r="323" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="10:11">
       <c r="J323" s="10"/>
       <c r="K323" s="10"/>
     </row>
-    <row r="324" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="10:11">
       <c r="J324" s="10"/>
       <c r="K324" s="10"/>
     </row>
-    <row r="325" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="10:11">
       <c r="J325" s="10"/>
       <c r="K325" s="10"/>
     </row>
-    <row r="326" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="10:11">
       <c r="J326" s="10"/>
       <c r="K326" s="10"/>
     </row>
-    <row r="327" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="10:11">
       <c r="J327" s="10"/>
       <c r="K327" s="10"/>
     </row>
-    <row r="328" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="10:11">
       <c r="J328" s="10"/>
       <c r="K328" s="10"/>
     </row>
-    <row r="329" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="10:11">
       <c r="J329" s="10"/>
       <c r="K329" s="10"/>
     </row>
-    <row r="330" spans="10:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="10:11">
       <c r="J330" s="10"/>
       <c r="K330" s="10"/>
     </row>
-    <row r="331" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="10:11">
       <c r="J331" s="10"/>
       <c r="K331" s="10"/>
     </row>
-    <row r="332" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="10:11">
       <c r="J332" s="10"/>
       <c r="K332" s="10"/>
     </row>
-    <row r="333" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="10:11">
       <c r="J333" s="10"/>
       <c r="K333" s="10"/>
     </row>
-    <row r="334" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="10:11">
       <c r="J334" s="10"/>
       <c r="K334" s="10"/>
     </row>
-    <row r="335" spans="10:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="10:11">
       <c r="J335" s="10"/>
       <c r="K335" s="10"/>
     </row>
-    <row r="336" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="10:11">
       <c r="J336" s="10"/>
       <c r="K336" s="10"/>
     </row>
-    <row r="337" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="10:11" ht="27" customHeight="1">
       <c r="J337" s="10"/>
       <c r="K337" s="10"/>
     </row>
-    <row r="338" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="10:11">
       <c r="J338" s="10"/>
       <c r="K338" s="10"/>
     </row>
-    <row r="339" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="10:11">
       <c r="J339" s="10"/>
       <c r="K339" s="10"/>
     </row>
-    <row r="340" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="10:11">
       <c r="J340" s="10"/>
       <c r="K340" s="10"/>
     </row>
-    <row r="341" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="10:11">
       <c r="J341" s="10"/>
       <c r="K341" s="10"/>
     </row>
-    <row r="342" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="10:11" ht="30.75" customHeight="1">
       <c r="J342" s="10"/>
       <c r="K342" s="10"/>
     </row>
-    <row r="343" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="10:11">
       <c r="J343" s="10"/>
       <c r="K343" s="10"/>
     </row>
-    <row r="344" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="10:11">
       <c r="J344" s="10"/>
       <c r="K344" s="10"/>
     </row>
-    <row r="345" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="10:11">
       <c r="J345" s="10"/>
       <c r="K345" s="10"/>
     </row>
-    <row r="346" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="10:11">
       <c r="J346" s="10"/>
       <c r="K346" s="10"/>
     </row>
-    <row r="347" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="10:11">
       <c r="J347" s="10"/>
       <c r="K347" s="10"/>
     </row>
-    <row r="348" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="10:11">
       <c r="J348" s="10"/>
       <c r="K348" s="10"/>
     </row>
-    <row r="349" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="10:11">
       <c r="J349" s="10"/>
       <c r="K349" s="10"/>
     </row>
-    <row r="350" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="10:11">
       <c r="J350" s="10"/>
       <c r="K350" s="10"/>
     </row>
-    <row r="351" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="10:11">
       <c r="J351" s="10"/>
       <c r="K351" s="10"/>
     </row>
-    <row r="352" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="10:11">
       <c r="J352" s="10"/>
       <c r="K352" s="10"/>
     </row>
-    <row r="353" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="10:11">
       <c r="J353" s="10"/>
       <c r="K353" s="10"/>
     </row>
-    <row r="354" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="10:11">
       <c r="J354" s="10"/>
       <c r="K354" s="10"/>
     </row>
-    <row r="355" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="10:11">
       <c r="J355" s="10"/>
       <c r="K355" s="10"/>
     </row>
-    <row r="356" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="10:11">
       <c r="J356" s="10"/>
       <c r="K356" s="10"/>
     </row>
-    <row r="357" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="10:11">
       <c r="J357" s="10"/>
       <c r="K357" s="10"/>
     </row>
-    <row r="358" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="10:11">
       <c r="J358" s="10"/>
       <c r="K358" s="10"/>
     </row>
-    <row r="359" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="10:11">
       <c r="J359" s="10"/>
       <c r="K359" s="10"/>
     </row>
-    <row r="360" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="10:11">
       <c r="J360" s="10"/>
       <c r="K360" s="10"/>
     </row>
-    <row r="361" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="10:11">
       <c r="J361" s="10"/>
       <c r="K361" s="10"/>
     </row>
-    <row r="362" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="10:11">
       <c r="J362" s="10"/>
       <c r="K362" s="10"/>
     </row>
-    <row r="363" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="10:11">
       <c r="J363" s="10"/>
       <c r="K363" s="10"/>
     </row>
-    <row r="364" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="10:11">
       <c r="J364" s="10"/>
       <c r="K364" s="10"/>
     </row>
-    <row r="365" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="10:11">
       <c r="J365" s="10"/>
       <c r="K365" s="10"/>
     </row>
-    <row r="366" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="10:11" ht="45" customHeight="1">
       <c r="J366" s="10"/>
       <c r="K366" s="10"/>
     </row>
-    <row r="367" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="10:11">
       <c r="J367" s="10"/>
       <c r="K367" s="10"/>
     </row>
-    <row r="368" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="10:11">
       <c r="J368" s="10"/>
       <c r="K368" s="10"/>
     </row>
-    <row r="369" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="10:11">
       <c r="J369" s="10"/>
       <c r="K369" s="10"/>
     </row>
-    <row r="370" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="10:11" ht="45" customHeight="1">
       <c r="J370" s="10"/>
       <c r="K370" s="10"/>
     </row>
-    <row r="371" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="10:11">
       <c r="J371" s="10"/>
       <c r="K371" s="10"/>
     </row>
-    <row r="372" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="10:11">
       <c r="J372" s="10"/>
       <c r="K372" s="10"/>
     </row>
-    <row r="373" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="10:11">
       <c r="J373" s="10"/>
       <c r="K373" s="10"/>
     </row>
-    <row r="374" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="10:11" ht="45" customHeight="1">
       <c r="J374" s="10"/>
       <c r="K374" s="10"/>
     </row>
-    <row r="375" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="10:11">
       <c r="J375" s="10"/>
       <c r="K375" s="10"/>
     </row>
-    <row r="376" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="10:11">
       <c r="J376" s="10"/>
       <c r="K376" s="10"/>
     </row>
-    <row r="377" spans="10:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="10:11">
       <c r="J377" s="10"/>
       <c r="K377" s="10"/>
     </row>
-    <row r="378" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="10:11">
       <c r="J378" s="10"/>
       <c r="K378" s="10"/>
     </row>
-    <row r="379" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="10:11" ht="45" customHeight="1">
       <c r="J379" s="10"/>
       <c r="K379" s="10"/>
     </row>
-    <row r="380" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="10:11">
       <c r="J380" s="10"/>
       <c r="K380" s="10"/>
     </row>
-    <row r="381" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="10:11">
       <c r="J381" s="10"/>
       <c r="K381" s="10"/>
     </row>
-    <row r="382" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="10:11">
       <c r="J382" s="10"/>
       <c r="K382" s="10"/>
     </row>
-    <row r="383" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="10:11">
       <c r="J383" s="10"/>
       <c r="K383" s="10"/>
     </row>
-    <row r="384" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="10:11" ht="45" customHeight="1">
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
     </row>
-    <row r="385" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="10:11">
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
     </row>
-    <row r="386" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="10:11">
       <c r="J386" s="10"/>
       <c r="K386" s="10"/>
     </row>
-    <row r="387" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="10:11">
       <c r="J387" s="10"/>
       <c r="K387" s="10"/>
     </row>
-    <row r="388" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="10:11">
       <c r="J388" s="10"/>
       <c r="K388" s="10"/>
     </row>
-    <row r="389" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="10:11">
       <c r="J389" s="10"/>
       <c r="K389" s="10"/>
     </row>
-    <row r="390" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="10:11">
       <c r="J390" s="10"/>
       <c r="K390" s="10"/>
     </row>
-    <row r="391" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="10:11">
       <c r="J391" s="10"/>
       <c r="K391" s="10"/>
     </row>
-    <row r="392" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="10:11">
       <c r="J392" s="10"/>
       <c r="K392" s="10"/>
     </row>
-    <row r="393" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="10:11">
       <c r="J393" s="10"/>
       <c r="K393" s="10"/>
     </row>
-    <row r="394" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="10:11">
       <c r="J394" s="10"/>
       <c r="K394" s="10"/>
     </row>
-    <row r="395" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="10:11">
       <c r="J395" s="10"/>
       <c r="K395" s="10"/>
     </row>
-    <row r="396" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="10:11">
       <c r="J396" s="10"/>
       <c r="K396" s="10"/>
     </row>
-    <row r="397" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="10:11">
       <c r="J397" s="10"/>
       <c r="K397" s="10"/>
     </row>
-    <row r="398" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="10:11">
       <c r="J398" s="10"/>
       <c r="K398" s="10"/>
     </row>
-    <row r="399" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="10:11">
       <c r="J399" s="10"/>
       <c r="K399" s="10"/>
     </row>
-    <row r="400" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="10:11">
       <c r="J400" s="10"/>
       <c r="K400" s="10"/>
     </row>
-    <row r="401" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="10:11">
       <c r="J401" s="10"/>
       <c r="K401" s="10"/>
     </row>
-    <row r="402" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="10:11">
       <c r="J402" s="10"/>
       <c r="K402" s="10"/>
     </row>
-    <row r="403" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="10:11">
       <c r="J403" s="10"/>
       <c r="K403" s="10"/>
     </row>
-    <row r="404" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="10:11">
       <c r="J404" s="10"/>
       <c r="K404" s="10"/>
     </row>
-    <row r="405" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="10:11">
       <c r="J405" s="10"/>
       <c r="K405" s="10"/>
     </row>
-    <row r="406" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="10:11">
       <c r="J406" s="10"/>
       <c r="K406" s="10"/>
     </row>
-    <row r="407" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="10:11">
       <c r="J407" s="10"/>
       <c r="K407" s="10"/>
     </row>
-    <row r="408" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="10:11">
       <c r="J408" s="10"/>
       <c r="K408" s="10"/>
     </row>
-    <row r="409" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="10:11">
       <c r="J409" s="10"/>
       <c r="K409" s="10"/>
     </row>
-    <row r="410" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="10:11">
       <c r="J410" s="10"/>
       <c r="K410" s="10"/>
     </row>
-    <row r="411" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="10:11">
       <c r="J411" s="10"/>
       <c r="K411" s="10"/>
     </row>
-    <row r="412" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="10:11">
       <c r="J412" s="10"/>
       <c r="K412" s="10"/>
     </row>
-    <row r="413" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="10:11">
       <c r="J413" s="10"/>
       <c r="K413" s="10"/>
     </row>
-    <row r="414" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="10:11">
       <c r="J414" s="10"/>
       <c r="K414" s="10"/>
     </row>
-    <row r="415" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="10:11">
       <c r="J415" s="10"/>
       <c r="K415" s="10"/>
     </row>
-    <row r="416" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="10:11">
       <c r="J416" s="10"/>
       <c r="K416" s="10"/>
     </row>
-    <row r="417" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="10:11">
       <c r="J417" s="10"/>
       <c r="K417" s="10"/>
     </row>
-    <row r="418" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="10:11">
       <c r="J418" s="10"/>
       <c r="K418" s="10"/>
     </row>
-    <row r="419" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="10:11">
       <c r="J419" s="10"/>
       <c r="K419" s="10"/>
     </row>
-    <row r="420" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="10:11">
       <c r="J420" s="10"/>
       <c r="K420" s="10"/>
     </row>
-    <row r="421" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="10:11">
       <c r="J421" s="10"/>
       <c r="K421" s="10"/>
     </row>
-    <row r="422" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="10:11">
       <c r="J422" s="10"/>
       <c r="K422" s="10"/>
     </row>
-    <row r="423" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="10:11">
       <c r="J423" s="10"/>
       <c r="K423" s="10"/>
     </row>
-    <row r="424" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="10:11">
       <c r="J424" s="10"/>
       <c r="K424" s="10"/>
     </row>
-    <row r="425" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="10:11">
       <c r="J425" s="10"/>
       <c r="K425" s="10"/>
     </row>
-    <row r="426" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="10:11">
       <c r="J426" s="10"/>
       <c r="K426" s="10"/>
     </row>
-    <row r="427" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="10:11">
       <c r="J427" s="10"/>
       <c r="K427" s="10"/>
     </row>
-    <row r="428" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="10:11">
       <c r="J428" s="10"/>
       <c r="K428" s="10"/>
     </row>
-    <row r="429" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="10:11">
       <c r="J429" s="10"/>
       <c r="K429" s="10"/>
     </row>
-    <row r="430" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="10:11">
       <c r="J430" s="10"/>
       <c r="K430" s="10"/>
     </row>
-    <row r="431" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="10:11">
       <c r="J431" s="10"/>
       <c r="K431" s="10"/>
     </row>
-    <row r="432" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="10:11">
       <c r="J432" s="10"/>
       <c r="K432" s="10"/>
     </row>
-    <row r="433" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="10:11">
       <c r="J433" s="10"/>
       <c r="K433" s="10"/>
     </row>
-    <row r="434" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="10:11">
       <c r="J434" s="10"/>
       <c r="K434" s="10"/>
     </row>
-    <row r="435" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="10:11">
       <c r="J435" s="10"/>
       <c r="K435" s="10"/>
     </row>
-    <row r="436" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="10:11">
       <c r="J436" s="10"/>
       <c r="K436" s="10"/>
     </row>
-    <row r="437" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="10:11">
       <c r="J437" s="10"/>
       <c r="K437" s="10"/>
     </row>
-    <row r="438" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="10:11">
       <c r="J438" s="10"/>
       <c r="K438" s="10"/>
     </row>
-    <row r="439" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="10:11">
       <c r="J439" s="10"/>
       <c r="K439" s="10"/>
     </row>
-    <row r="440" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="10:11">
       <c r="J440" s="10"/>
       <c r="K440" s="10"/>
     </row>
-    <row r="441" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="10:11">
       <c r="J441" s="10"/>
       <c r="K441" s="10"/>
     </row>
-    <row r="442" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="10:11">
       <c r="J442" s="10"/>
       <c r="K442" s="10"/>
     </row>
-    <row r="443" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="10:11">
       <c r="J443" s="10"/>
       <c r="K443" s="10"/>
     </row>
-    <row r="444" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="10:11">
       <c r="J444" s="10"/>
       <c r="K444" s="10"/>
     </row>
-    <row r="445" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="10:11">
       <c r="J445" s="10"/>
       <c r="K445" s="10"/>
     </row>
-    <row r="446" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="10:11">
       <c r="J446" s="10"/>
       <c r="K446" s="10"/>
     </row>
-    <row r="447" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="10:11">
       <c r="J447" s="10"/>
       <c r="K447" s="10"/>
     </row>
-    <row r="448" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="10:11">
       <c r="J448" s="10"/>
       <c r="K448" s="10"/>
     </row>
-    <row r="449" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="10:11">
       <c r="J449" s="10"/>
       <c r="K449" s="10"/>
     </row>
-    <row r="450" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="10:11">
       <c r="J450" s="10"/>
       <c r="K450" s="10"/>
     </row>
-    <row r="451" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="10:11">
       <c r="J451" s="10"/>
       <c r="K451" s="10"/>
     </row>
-    <row r="452" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="10:11">
       <c r="J452" s="10"/>
       <c r="K452" s="10"/>
     </row>
-    <row r="453" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="10:11">
       <c r="J453" s="10"/>
       <c r="K453" s="10"/>
     </row>
-    <row r="454" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="10:11">
       <c r="J454" s="10"/>
       <c r="K454" s="10"/>
     </row>
-    <row r="455" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="10:11">
       <c r="J455" s="10"/>
       <c r="K455" s="10"/>
     </row>
-    <row r="456" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="10:11">
       <c r="J456" s="10"/>
       <c r="K456" s="10"/>
     </row>
-    <row r="457" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="10:11">
       <c r="J457" s="10"/>
       <c r="K457" s="10"/>
     </row>
-    <row r="458" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="10:11">
       <c r="J458" s="10"/>
       <c r="K458" s="10"/>
     </row>
-    <row r="459" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="10:11">
       <c r="J459" s="10"/>
       <c r="K459" s="10"/>
     </row>
-    <row r="460" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="10:11">
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
     </row>
-    <row r="461" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="10:11">
       <c r="J461" s="10"/>
       <c r="K461" s="10"/>
     </row>
-    <row r="462" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="10:11">
       <c r="J462" s="10"/>
       <c r="K462" s="10"/>
     </row>
-    <row r="463" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="10:11">
       <c r="J463" s="10"/>
       <c r="K463" s="10"/>
     </row>
-    <row r="464" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="10:11">
       <c r="J464" s="10"/>
       <c r="K464" s="10"/>
     </row>
-    <row r="465" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="10:11">
       <c r="J465" s="10"/>
       <c r="K465" s="10"/>
     </row>
-    <row r="466" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="10:11">
       <c r="J466" s="10"/>
       <c r="K466" s="10"/>
     </row>
-    <row r="467" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="10:11">
       <c r="J467" s="10"/>
       <c r="K467" s="10"/>
     </row>
-    <row r="468" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="10:11">
       <c r="J468" s="10"/>
       <c r="K468" s="10"/>
     </row>
-    <row r="469" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="10:11">
       <c r="J469" s="10"/>
       <c r="K469" s="10"/>
     </row>
-    <row r="470" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="10:11">
       <c r="J470" s="10"/>
       <c r="K470" s="10"/>
     </row>
-    <row r="471" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="10:11">
       <c r="J471" s="10"/>
       <c r="K471" s="10"/>
     </row>
-    <row r="472" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="10:11">
       <c r="J472" s="10"/>
       <c r="K472" s="10"/>
     </row>
-    <row r="473" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="10:11">
       <c r="J473" s="10"/>
       <c r="K473" s="10"/>
     </row>
-    <row r="474" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="10:11">
       <c r="J474" s="10"/>
       <c r="K474" s="10"/>
     </row>
-    <row r="475" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="10:11">
       <c r="J475" s="10"/>
       <c r="K475" s="10"/>
     </row>
-    <row r="476" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="10:11">
       <c r="J476" s="10"/>
       <c r="K476" s="10"/>
     </row>
-    <row r="477" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="10:11">
       <c r="J477" s="10"/>
       <c r="K477" s="10"/>
     </row>
-    <row r="478" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="10:11">
       <c r="J478" s="10"/>
       <c r="K478" s="10"/>
     </row>
-    <row r="479" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="10:11">
       <c r="J479" s="10"/>
       <c r="K479" s="10"/>
     </row>
-    <row r="480" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="10:11">
       <c r="J480" s="10"/>
       <c r="K480" s="10"/>
     </row>
-    <row r="481" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="10:11">
       <c r="J481" s="10"/>
       <c r="K481" s="10"/>
     </row>
-    <row r="482" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="10:11">
       <c r="J482" s="10"/>
       <c r="K482" s="10"/>
     </row>
-    <row r="483" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="10:11">
       <c r="J483" s="10"/>
       <c r="K483" s="10"/>
     </row>
-    <row r="484" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="10:11">
       <c r="J484" s="10"/>
       <c r="K484" s="10"/>
     </row>
-    <row r="485" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="10:11">
+      <c r="J485" s="10"/>
       <c r="K485" s="10"/>
     </row>
-    <row r="486" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="10:11">
+      <c r="J486" s="10"/>
       <c r="K486" s="10"/>
     </row>
-    <row r="487" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="10:11">
+      <c r="J487" s="10"/>
       <c r="K487" s="10"/>
     </row>
-    <row r="488" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="10:11">
+      <c r="J488" s="10"/>
       <c r="K488" s="10"/>
     </row>
-    <row r="489" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="10:11">
+      <c r="J489" s="10"/>
       <c r="K489" s="10"/>
     </row>
-    <row r="490" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="10:11">
+      <c r="J490" s="10"/>
       <c r="K490" s="10"/>
     </row>
-    <row r="491" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="10:11">
+      <c r="J491" s="10"/>
       <c r="K491" s="10"/>
     </row>
-    <row r="492" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="10:11">
       <c r="K492" s="10"/>
     </row>
-    <row r="493" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="10:11">
       <c r="K493" s="10"/>
     </row>
-    <row r="494" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="10:11">
       <c r="K494" s="10"/>
     </row>
-    <row r="495" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="10:11">
       <c r="K495" s="10"/>
     </row>
-    <row r="496" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="10:11">
       <c r="K496" s="10"/>
     </row>
-    <row r="497" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="11:11">
       <c r="K497" s="10"/>
     </row>
-    <row r="498" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="11:11">
       <c r="K498" s="10"/>
     </row>
-    <row r="499" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="11:11">
       <c r="K499" s="10"/>
     </row>
-    <row r="500" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="11:11">
       <c r="K500" s="10"/>
     </row>
-    <row r="501" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="11:11">
       <c r="K501" s="10"/>
     </row>
-    <row r="502" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="11:11">
       <c r="K502" s="10"/>
     </row>
-    <row r="503" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="11:11">
       <c r="K503" s="10"/>
     </row>
-    <row r="504" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="11:11">
       <c r="K504" s="10"/>
     </row>
-    <row r="505" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="11:11">
       <c r="K505" s="10"/>
     </row>
-    <row r="506" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="11:11">
       <c r="K506" s="10"/>
     </row>
-    <row r="507" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="11:11">
       <c r="K507" s="10"/>
     </row>
-    <row r="508" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="11:11">
       <c r="K508" s="10"/>
     </row>
-    <row r="509" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="11:11">
       <c r="K509" s="10"/>
     </row>
-    <row r="510" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="11:11">
       <c r="K510" s="10"/>
     </row>
-    <row r="511" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="11:11">
       <c r="K511" s="10"/>
     </row>
-    <row r="512" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="11:11">
       <c r="K512" s="10"/>
     </row>
-    <row r="513" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="11:11">
       <c r="K513" s="10"/>
     </row>
-    <row r="514" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="11:11">
       <c r="K514" s="10"/>
     </row>
-    <row r="515" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="11:11">
       <c r="K515" s="10"/>
     </row>
-    <row r="516" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="11:11">
       <c r="K516" s="10"/>
     </row>
-    <row r="517" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="11:11">
       <c r="K517" s="10"/>
     </row>
-    <row r="518" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="11:11">
       <c r="K518" s="10"/>
     </row>
-    <row r="519" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="11:11">
       <c r="K519" s="10"/>
     </row>
-    <row r="520" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="11:11">
       <c r="K520" s="10"/>
     </row>
-    <row r="521" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="11:11">
       <c r="K521" s="10"/>
     </row>
-    <row r="522" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="11:11">
       <c r="K522" s="10"/>
     </row>
-    <row r="523" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="11:11">
       <c r="K523" s="10"/>
     </row>
-    <row r="524" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="11:11">
       <c r="K524" s="10"/>
     </row>
-    <row r="525" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="11:11">
       <c r="K525" s="10"/>
     </row>
-    <row r="526" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="11:11">
       <c r="K526" s="10"/>
     </row>
-    <row r="527" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="11:11">
       <c r="K527" s="10"/>
     </row>
-    <row r="528" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="11:11">
       <c r="K528" s="10"/>
     </row>
-    <row r="529" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="11:11">
       <c r="K529" s="10"/>
+    </row>
+    <row r="530" spans="11:11">
+      <c r="K530" s="10"/>
+    </row>
+    <row r="531" spans="11:11">
+      <c r="K531" s="10"/>
+    </row>
+    <row r="532" spans="11:11">
+      <c r="K532" s="10"/>
+    </row>
+    <row r="533" spans="11:11">
+      <c r="K533" s="10"/>
+    </row>
+    <row r="534" spans="11:11">
+      <c r="K534" s="10"/>
+    </row>
+    <row r="535" spans="11:11">
+      <c r="K535" s="10"/>
+    </row>
+    <row r="536" spans="11:11">
+      <c r="K536" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D56:D70"/>
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="D11:D24"/>
     <mergeCell ref="D25:D29"/>
     <mergeCell ref="D30:D48"/>
     <mergeCell ref="D49:D55"/>
-    <mergeCell ref="D56:D70"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J288:J484" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J295:J491">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C72:C140 C142:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C72:C140 C142:C1048576">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B1048576">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K529" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K536">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J287" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J294">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="http://mediwarecloud.com/mediwareqc/EMR/DoctorHome.aspx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H50" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H31" r:id="rId5" display="http://mediwarecloud.com/" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H84" r:id="rId6" xr:uid="{5C9D9920-02CD-4ED6-852D-98DA7E4B69DA}"/>
-    <hyperlink ref="H78" r:id="rId7" xr:uid="{04D4C102-1E1D-45ED-9CCC-79E2E5F6BD3C}"/>
-    <hyperlink ref="H75" r:id="rId8" display="http://mediwarecloud.com/" xr:uid="{56D6716C-7B7A-4782-89C4-C660CEB59F74}"/>
-    <hyperlink ref="H88" r:id="rId9" xr:uid="{BC433D88-A08F-404D-95B9-C7AFF96486F3}"/>
-    <hyperlink ref="H98" r:id="rId10" xr:uid="{FA80D08B-2DBD-4AB6-A679-5EE1EDFA21D1}"/>
-    <hyperlink ref="H106" r:id="rId11" xr:uid="{3B2713A2-FC87-41FA-9753-00B9AE6AEC5A}"/>
-    <hyperlink ref="H115" r:id="rId12" xr:uid="{8E46E6B8-5AAB-4A8C-ABAD-AAAADD951888}"/>
-    <hyperlink ref="H119" r:id="rId13" xr:uid="{17C8D613-2C20-4750-9C34-690753F6961A}"/>
-    <hyperlink ref="H121" r:id="rId14" xr:uid="{BA060B16-115C-4F56-A871-CE294CA10F82}"/>
-    <hyperlink ref="H123" r:id="rId15" xr:uid="{ADF41A06-B231-4008-AF1C-C91C06B78788}"/>
-    <hyperlink ref="H125" r:id="rId16" xr:uid="{FB348561-FD89-4F76-9E28-F7E9F022B1B5}"/>
-    <hyperlink ref="H127" r:id="rId17" xr:uid="{DD9B1960-9546-47DD-A041-514D5737190B}"/>
-    <hyperlink ref="H132" r:id="rId18" xr:uid="{D27CAEF2-5C3F-469E-8456-7CB06C3E2DE3}"/>
+    <hyperlink ref="H3" r:id="rId1" display="http://mediwarecloud.com/mediwareqc/EMR/DoctorHome.aspx"/>
+    <hyperlink ref="G56" r:id="rId2"/>
+    <hyperlink ref="H50" r:id="rId3"/>
+    <hyperlink ref="H26" r:id="rId4"/>
+    <hyperlink ref="H31" r:id="rId5" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H84" r:id="rId6"/>
+    <hyperlink ref="H78" r:id="rId7"/>
+    <hyperlink ref="H75" r:id="rId8" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H88" r:id="rId9"/>
+    <hyperlink ref="H98" r:id="rId10"/>
+    <hyperlink ref="H106" r:id="rId11"/>
+    <hyperlink ref="H115" r:id="rId12"/>
+    <hyperlink ref="H119" r:id="rId13"/>
+    <hyperlink ref="H121" r:id="rId14"/>
+    <hyperlink ref="H123" r:id="rId15"/>
+    <hyperlink ref="H125" r:id="rId16"/>
+    <hyperlink ref="H127" r:id="rId17"/>
+    <hyperlink ref="H132" r:id="rId18"/>
+    <hyperlink ref="H137" r:id="rId19" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H147" r:id="rId20" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H149" r:id="rId21" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H151" r:id="rId22" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H154" r:id="rId23" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H158" r:id="rId24" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H164" r:id="rId25" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H169" r:id="rId26" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H171" r:id="rId27" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H175" r:id="rId28" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H177" r:id="rId29" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H182" r:id="rId30" display="http://mediwarecloud.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Test Case/Prapancha/Test Case- EMR OP.xlsx
+++ b/Test Case/Prapancha/Test Case- EMR OP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="483">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1592,10 +1592,153 @@
     <t>In Patient OP Consultation popup ,Select Antenatal Notes</t>
   </si>
   <si>
+    <t>MED_EMR OP_TC_038</t>
+  </si>
+  <si>
     <t>It should display:
 -Antenatal Notes
+-Antenatal Course
 -Previous Pregnancies
 -Antenatal Summary</t>
+  </si>
+  <si>
+    <t>Verify Gynic Templates</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Click on Gynic Templates</t>
+  </si>
+  <si>
+    <t>It should display:
+-Urodynamics
+-Cord prolapse
+-OBG-Medical Report
+-Gynacology Record
+-Evaluation-Pregnancy
+-Obstetrics Ultrasonography-Nt Scan
+-Ultra sound OB/GYN
+-Antenatal Visit Reco
+-Delivery Room Bookin
+-Operating RoomBook
+-H&amp;P Assessment OB-G</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_039</t>
+  </si>
+  <si>
+    <t>Verify Physiotherapy  Templates</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Click on Physiotherapy Templates</t>
+  </si>
+  <si>
+    <t>It should display:
+-Medical Report
+-Humpty Dumpty fall risk Assessment
+-Physiotherapy Referal Request
+-Fall-Risk Assessment-Adult
+-Physiotherapy Assessment</t>
+  </si>
+  <si>
+    <t>Verify Nutrition Assessment</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Click on Nutrition Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It Should display:
+-Clinical Nutrition
+-Clinical Nutrition Assessment
+-Clinical Nutrition Re-Assessment
+-Nutritionist Follow up Notes
+</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_040</t>
+  </si>
+  <si>
+    <t>Verify Templates</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Click on Templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It Should display:
+-Triage Assessment
+-Pediatrics Assessment
+-IO-P Record
+-Discharge Order
+-Inter Disiplinary
+-Patient and Family Education
+-Nurse Assessment
+-Progress Note
+-Clinical Nutrition
+-Clinical Nutrition Assessment
+-ER PHYSICIAN ASSESSMENT FORM -II
+</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_041</t>
+  </si>
+  <si>
+    <t>Verify General Head</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Click on General Head</t>
+  </si>
+  <si>
+    <t>It should display:
+-Reference History
+-Paediatric Information
+-Er Assessment
+-Infectious disease
+-Patient Assessment
+-Patient Education Docs
+-Patient valuable form</t>
+  </si>
+  <si>
+    <t>Verify Radiology Result view</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_042</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_043</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Click on Radiology Result</t>
+  </si>
+  <si>
+    <t>Verify page contents</t>
+  </si>
+  <si>
+    <t>Page should display contents</t>
+  </si>
+  <si>
+    <t>Radiology Result page should be opened</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_044</t>
+  </si>
+  <si>
+    <t>Verify Investigation Package</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Click on Investigation package</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Add an item</t>
+  </si>
+  <si>
+    <t>Click on Add an item option and verify wether item can be added</t>
+  </si>
+  <si>
+    <t>Item should get added</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1793,13 +1936,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2107,7 +2253,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2115,11 +2261,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R536"/>
+  <dimension ref="A1:R537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2194,7 +2340,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7">
@@ -2214,7 +2360,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>18</v>
@@ -2228,7 +2374,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="23"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -2264,7 +2410,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -2294,7 +2440,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="30">
-      <c r="D5" s="23"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -2314,7 +2460,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="210">
-      <c r="D6" s="23"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -2327,7 +2473,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="225">
-      <c r="D7" s="23"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -2340,7 +2486,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="D8" s="23"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -2353,7 +2499,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:18" ht="30">
-      <c r="D9" s="23"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -2366,7 +2512,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="270">
-      <c r="D10" s="23"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="15">
         <v>9</v>
       </c>
@@ -2388,7 +2534,7 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="27" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="7">
@@ -2400,7 +2546,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="25"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="7">
         <v>2</v>
       </c>
@@ -2413,7 +2559,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1">
-      <c r="D13" s="25"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="7">
         <v>3</v>
       </c>
@@ -2426,7 +2572,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="30">
-      <c r="D14" s="25"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="7">
         <v>4</v>
       </c>
@@ -2439,7 +2585,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="30">
-      <c r="D15" s="25"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="7">
         <v>5</v>
       </c>
@@ -2452,7 +2598,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="94.5">
-      <c r="D16" s="25"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="7">
         <v>6</v>
       </c>
@@ -2465,7 +2611,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="45">
-      <c r="D17" s="25"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="7">
         <v>7</v>
       </c>
@@ -2478,7 +2624,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="D18" s="25"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="7">
         <v>8</v>
       </c>
@@ -2491,7 +2637,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="30">
-      <c r="D19" s="25"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="7">
         <v>9</v>
       </c>
@@ -2504,7 +2650,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="30">
-      <c r="D20" s="25"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="7">
         <v>10</v>
       </c>
@@ -2517,7 +2663,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="30">
-      <c r="D21" s="25"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="7">
         <v>11</v>
       </c>
@@ -2530,7 +2676,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="30">
-      <c r="D22" s="25"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="7">
         <v>12</v>
       </c>
@@ -2543,7 +2689,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
-      <c r="D23" s="25"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="7">
         <v>13</v>
       </c>
@@ -2556,7 +2702,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="150">
-      <c r="D24" s="25"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="7">
         <v>14</v>
       </c>
@@ -2578,7 +2724,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="7">
@@ -2590,7 +2736,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="30">
-      <c r="D26" s="23"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="7">
         <v>2</v>
       </c>
@@ -2606,7 +2752,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="30">
-      <c r="D27" s="23"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="7">
         <v>3</v>
       </c>
@@ -2619,7 +2765,7 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1">
-      <c r="D28" s="23"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="7">
         <v>4</v>
       </c>
@@ -2632,7 +2778,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="135">
-      <c r="D29" s="23"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="7">
         <v>5</v>
       </c>
@@ -2654,7 +2800,7 @@
       <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="25" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="15">
@@ -2666,7 +2812,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="30">
-      <c r="D31" s="23"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="15">
         <v>2</v>
       </c>
@@ -2682,7 +2828,7 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="30">
-      <c r="D32" s="23"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="15">
         <v>3</v>
       </c>
@@ -2695,7 +2841,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="4:11" ht="60" customHeight="1">
-      <c r="D33" s="23"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="15">
         <v>4</v>
       </c>
@@ -2708,7 +2854,7 @@
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="4:11" ht="135">
-      <c r="D34" s="23"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="15">
         <v>5</v>
       </c>
@@ -2721,7 +2867,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="4:11" ht="30">
-      <c r="D35" s="23"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="15">
         <v>6</v>
       </c>
@@ -2734,7 +2880,7 @@
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="4:11" ht="30">
-      <c r="D36" s="23"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="15">
         <v>7</v>
       </c>
@@ -2747,7 +2893,7 @@
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="4:11" ht="30">
-      <c r="D37" s="23"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="15">
         <v>8</v>
       </c>
@@ -2760,7 +2906,7 @@
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="4:11" ht="30">
-      <c r="D38" s="23"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="15">
         <v>9</v>
       </c>
@@ -2773,7 +2919,7 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="4:11" ht="135">
-      <c r="D39" s="23"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="15">
         <v>10</v>
       </c>
@@ -2786,7 +2932,7 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="4:11" ht="45" customHeight="1">
-      <c r="D40" s="23"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="15">
         <v>11</v>
       </c>
@@ -2799,7 +2945,7 @@
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="23"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="15">
         <v>12</v>
       </c>
@@ -2812,7 +2958,7 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="23"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="15">
         <v>13</v>
       </c>
@@ -2825,7 +2971,7 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="4:11">
-      <c r="D43" s="23"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="15">
         <v>14</v>
       </c>
@@ -2838,7 +2984,7 @@
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="23"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="15">
         <v>15</v>
       </c>
@@ -2851,7 +2997,7 @@
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="4:11" ht="30">
-      <c r="D45" s="23"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="15">
         <v>16</v>
       </c>
@@ -2864,7 +3010,7 @@
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="4:11" ht="45" customHeight="1">
-      <c r="D46" s="23"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="15">
         <v>17</v>
       </c>
@@ -2877,7 +3023,7 @@
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="4:11" ht="30">
-      <c r="D47" s="23"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="15">
         <v>18</v>
       </c>
@@ -2890,7 +3036,7 @@
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="23"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="15">
         <v>19</v>
       </c>
@@ -2912,7 +3058,7 @@
       <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="27" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="7">
@@ -2924,7 +3070,7 @@
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="30">
-      <c r="D50" s="25"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="7">
         <v>2</v>
       </c>
@@ -2940,7 +3086,7 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="30">
-      <c r="D51" s="25"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="7">
         <v>3</v>
       </c>
@@ -2953,7 +3099,7 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="180">
-      <c r="D52" s="25"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="7">
         <v>4</v>
       </c>
@@ -2966,7 +3112,7 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="60">
-      <c r="D53" s="25"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="7">
         <v>5</v>
       </c>
@@ -2979,7 +3125,7 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1">
-      <c r="D54" s="25"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="7">
         <v>6</v>
       </c>
@@ -2992,7 +3138,7 @@
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11" ht="45">
-      <c r="D55" s="25"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="7">
         <v>7</v>
       </c>
@@ -3014,7 +3160,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="25" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="7">
@@ -3029,7 +3175,7 @@
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="D57" s="23"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="7">
         <v>2</v>
       </c>
@@ -3042,7 +3188,7 @@
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11" ht="120">
-      <c r="D58" s="23"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="7">
         <v>3</v>
       </c>
@@ -3055,7 +3201,7 @@
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1">
-      <c r="D59" s="23"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="7">
         <v>4</v>
       </c>
@@ -3068,7 +3214,7 @@
       <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11" ht="30">
-      <c r="D60" s="23"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="7">
         <v>5</v>
       </c>
@@ -3081,7 +3227,7 @@
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="D61" s="23"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="7">
         <v>6</v>
       </c>
@@ -3094,7 +3240,7 @@
       <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" ht="90">
-      <c r="D62" s="23"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="7">
         <v>7</v>
       </c>
@@ -3107,7 +3253,7 @@
       <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11" ht="45" customHeight="1">
-      <c r="D63" s="23"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="7">
         <v>8</v>
       </c>
@@ -3120,7 +3266,7 @@
       <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" ht="30">
-      <c r="D64" s="23"/>
+      <c r="D64" s="25"/>
       <c r="E64" s="7">
         <v>9</v>
       </c>
@@ -3133,7 +3279,7 @@
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" ht="30">
-      <c r="D65" s="23"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="7">
         <v>10</v>
       </c>
@@ -3146,7 +3292,7 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="120">
-      <c r="D66" s="23"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="7">
         <v>11</v>
       </c>
@@ -3159,7 +3305,7 @@
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="99.75" customHeight="1">
-      <c r="D67" s="23"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="7">
         <v>12</v>
       </c>
@@ -3172,7 +3318,7 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="105">
-      <c r="D68" s="23"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="7">
         <v>13</v>
       </c>
@@ -3185,7 +3331,7 @@
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11" ht="60">
-      <c r="D69" s="23"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="7">
         <v>14</v>
       </c>
@@ -3198,7 +3344,7 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="90">
-      <c r="D70" s="23"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="7">
         <v>15</v>
       </c>
@@ -4288,7 +4434,7 @@
       <c r="G137" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H137" s="26" t="s">
+      <c r="H137" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K137" s="10"/>
@@ -4444,7 +4590,7 @@
       <c r="G147" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="H147" s="26" t="s">
+      <c r="H147" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K147" s="10"/>
@@ -4483,7 +4629,7 @@
       <c r="G149" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="H149" s="26" t="s">
+      <c r="H149" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K149" s="10"/>
@@ -4525,7 +4671,7 @@
       <c r="G151" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="H151" s="26" t="s">
+      <c r="H151" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K151" s="10"/>
@@ -4576,7 +4722,7 @@
       <c r="G154" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="H154" s="26" t="s">
+      <c r="H154" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K154" s="10"/>
@@ -4648,7 +4794,7 @@
       <c r="G158" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="H158" s="26" t="s">
+      <c r="H158" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K158" s="10"/>
@@ -4752,7 +4898,7 @@
       <c r="G164" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="H164" s="26" t="s">
+      <c r="H164" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K164" s="10"/>
@@ -4833,7 +4979,7 @@
       <c r="G169" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="H169" s="26" t="s">
+      <c r="H169" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K169" s="10"/>
@@ -4872,7 +5018,7 @@
       <c r="G171" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="H171" s="26" t="s">
+      <c r="H171" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K171" s="10"/>
@@ -4944,7 +5090,7 @@
       <c r="G175" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="H175" s="26" t="s">
+      <c r="H175" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K175" s="10"/>
@@ -4983,7 +5129,7 @@
       <c r="G177" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="H177" s="26" t="s">
+      <c r="H177" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K177" s="10"/>
@@ -5066,7 +5212,7 @@
       <c r="F182" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="H182" s="26" t="s">
+      <c r="H182" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K182" s="10"/>
@@ -5169,6 +5315,9 @@
       <c r="G189" s="9" t="s">
         <v>411</v>
       </c>
+      <c r="H189" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K189" s="10"/>
     </row>
     <row r="190" spans="1:11" ht="30">
@@ -5220,15 +5369,24 @@
       <c r="D193" s="9" t="s">
         <v>425</v>
       </c>
+      <c r="E193" s="15">
+        <v>1</v>
+      </c>
       <c r="F193" s="9" t="s">
         <v>401</v>
       </c>
       <c r="G193" s="9" t="s">
         <v>411</v>
       </c>
+      <c r="H193" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K193" s="10"/>
     </row>
     <row r="194" spans="1:11" ht="36.75" customHeight="1">
+      <c r="E194" s="15">
+        <v>2</v>
+      </c>
       <c r="F194" s="9" t="s">
         <v>426</v>
       </c>
@@ -5238,6 +5396,9 @@
       <c r="K194" s="10"/>
     </row>
     <row r="195" spans="1:11" ht="75">
+      <c r="E195" s="15">
+        <v>3</v>
+      </c>
       <c r="F195" s="9" t="s">
         <v>427</v>
       </c>
@@ -5259,15 +5420,24 @@
       <c r="D196" s="9" t="s">
         <v>430</v>
       </c>
+      <c r="E196" s="15">
+        <v>1</v>
+      </c>
       <c r="F196" s="9" t="s">
         <v>401</v>
       </c>
       <c r="G196" s="9" t="s">
         <v>411</v>
       </c>
+      <c r="H196" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K196" s="10"/>
     </row>
     <row r="197" spans="1:11" ht="30">
+      <c r="E197" s="15">
+        <v>2</v>
+      </c>
       <c r="F197" s="9" t="s">
         <v>426</v>
       </c>
@@ -5277,6 +5447,9 @@
       <c r="K197" s="10"/>
     </row>
     <row r="198" spans="1:11" ht="30">
+      <c r="E198" s="15">
+        <v>3</v>
+      </c>
       <c r="F198" s="9" t="s">
         <v>431</v>
       </c>
@@ -5286,6 +5459,9 @@
       <c r="K198" s="10"/>
     </row>
     <row r="199" spans="1:11">
+      <c r="E199" s="15">
+        <v>4</v>
+      </c>
       <c r="F199" s="9" t="s">
         <v>432</v>
       </c>
@@ -5298,6 +5474,9 @@
       <c r="D200" s="15" t="s">
         <v>433</v>
       </c>
+      <c r="E200" s="15">
+        <v>5</v>
+      </c>
       <c r="F200" s="9" t="s">
         <v>437</v>
       </c>
@@ -5309,6 +5488,9 @@
     <row r="201" spans="1:11">
       <c r="D201" s="15" t="s">
         <v>434</v>
+      </c>
+      <c r="E201" s="15">
+        <v>6</v>
       </c>
       <c r="F201" s="9" t="s">
         <v>435</v>
@@ -5324,6 +5506,9 @@
       <c r="D202" s="15" t="s">
         <v>335</v>
       </c>
+      <c r="E202" s="15">
+        <v>7</v>
+      </c>
       <c r="F202" s="9" t="s">
         <v>442</v>
       </c>
@@ -5338,6 +5523,9 @@
       <c r="D203" s="15" t="s">
         <v>443</v>
       </c>
+      <c r="E203" s="15">
+        <v>8</v>
+      </c>
       <c r="F203" s="9" t="s">
         <v>444</v>
       </c>
@@ -5359,15 +5547,24 @@
       <c r="D204" s="9" t="s">
         <v>446</v>
       </c>
+      <c r="E204" s="15">
+        <v>1</v>
+      </c>
       <c r="F204" s="9" t="s">
         <v>401</v>
       </c>
       <c r="G204" s="9" t="s">
         <v>411</v>
       </c>
+      <c r="H204" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K204" s="10"/>
     </row>
     <row r="205" spans="1:11" ht="30">
+      <c r="E205" s="15">
+        <v>2</v>
+      </c>
       <c r="F205" s="9" t="s">
         <v>426</v>
       </c>
@@ -5376,121 +5573,464 @@
       </c>
       <c r="K205" s="10"/>
     </row>
-    <row r="206" spans="1:11" ht="60">
+    <row r="206" spans="1:11" ht="75">
+      <c r="E206" s="15">
+        <v>3</v>
+      </c>
       <c r="F206" s="9" t="s">
         <v>447</v>
       </c>
       <c r="G206" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K206" s="10"/>
+    </row>
+    <row r="207" spans="1:11" ht="45">
+      <c r="A207" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="K206" s="10"/>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="B207" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="E207" s="15">
+        <v>1</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H207" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K207" s="10"/>
     </row>
     <row r="208" spans="1:11" ht="30" customHeight="1">
+      <c r="E208" s="15">
+        <v>2</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K208" s="10"/>
     </row>
-    <row r="209" spans="11:11">
+    <row r="209" spans="1:11" ht="180">
+      <c r="E209" s="15">
+        <v>3</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="K209" s="10"/>
     </row>
-    <row r="210" spans="11:11">
+    <row r="210" spans="1:11" ht="67.5" customHeight="1">
+      <c r="A210" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E210" s="15">
+        <v>1</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G210" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H210" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K210" s="10"/>
     </row>
-    <row r="211" spans="11:11">
+    <row r="211" spans="1:11" ht="30">
+      <c r="E211" s="15">
+        <v>2</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K211" s="10"/>
     </row>
-    <row r="212" spans="11:11">
+    <row r="212" spans="1:11" ht="90">
+      <c r="E212" s="15">
+        <v>3</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="K212" s="10"/>
     </row>
-    <row r="213" spans="11:11">
+    <row r="213" spans="1:11" ht="45">
+      <c r="A213" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E213" s="15">
+        <v>1</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K213" s="10"/>
     </row>
-    <row r="214" spans="11:11">
+    <row r="214" spans="1:11" ht="30">
+      <c r="E214" s="15">
+        <v>2</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K214" s="10"/>
     </row>
-    <row r="215" spans="11:11" ht="15" customHeight="1">
+    <row r="215" spans="1:11" ht="102.75" customHeight="1">
+      <c r="E215" s="15">
+        <v>3</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>459</v>
+      </c>
       <c r="K215" s="10"/>
     </row>
-    <row r="216" spans="11:11">
+    <row r="216" spans="1:11" ht="45">
+      <c r="A216" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="E216" s="15">
+        <v>1</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H216" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K216" s="10"/>
     </row>
-    <row r="217" spans="11:11">
+    <row r="217" spans="1:11" ht="30">
+      <c r="E217" s="15">
+        <v>2</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K217" s="10"/>
     </row>
-    <row r="218" spans="11:11">
+    <row r="218" spans="1:11" ht="192" customHeight="1">
+      <c r="E218" s="15">
+        <v>3</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>463</v>
+      </c>
       <c r="K218" s="10"/>
     </row>
-    <row r="219" spans="11:11">
+    <row r="219" spans="1:11" ht="45">
+      <c r="A219" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B219" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C219" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E219" s="15">
+        <v>1</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G219" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H219" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K219" s="10"/>
     </row>
-    <row r="220" spans="11:11">
+    <row r="220" spans="1:11" ht="30">
+      <c r="E220" s="15">
+        <v>2</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G220" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K220" s="10"/>
     </row>
-    <row r="221" spans="11:11">
+    <row r="221" spans="1:11" ht="120">
+      <c r="E221" s="15">
+        <v>3</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="G221" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="K221" s="10"/>
     </row>
-    <row r="222" spans="11:11" ht="15" customHeight="1">
+    <row r="222" spans="1:11" ht="65.25" customHeight="1">
+      <c r="A222" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E222" s="15">
+        <v>1</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G222" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H222" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K222" s="10"/>
     </row>
-    <row r="223" spans="11:11">
+    <row r="223" spans="1:11" ht="30">
+      <c r="E223" s="15">
+        <v>2</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G223" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K223" s="10"/>
     </row>
-    <row r="224" spans="11:11">
+    <row r="224" spans="1:11" ht="30">
+      <c r="E224" s="15">
+        <v>3</v>
+      </c>
+      <c r="F224" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="G224" s="9" t="s">
+        <v>474</v>
+      </c>
       <c r="K224" s="10"/>
     </row>
-    <row r="225" spans="11:11">
+    <row r="225" spans="1:11">
+      <c r="E225" s="15">
+        <v>4</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>473</v>
+      </c>
       <c r="K225" s="10"/>
     </row>
-    <row r="226" spans="11:11">
+    <row r="226" spans="1:11" ht="45">
+      <c r="A226" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C226" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="E226" s="15">
+        <v>1</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H226" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K226" s="10"/>
     </row>
-    <row r="227" spans="11:11">
+    <row r="227" spans="1:11" ht="30">
+      <c r="E227" s="15">
+        <v>2</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K227" s="10"/>
     </row>
-    <row r="228" spans="11:11">
+    <row r="228" spans="1:11" ht="30">
+      <c r="E228" s="15">
+        <v>3</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>477</v>
+      </c>
       <c r="K228" s="10"/>
     </row>
-    <row r="229" spans="11:11">
+    <row r="229" spans="1:11" ht="30">
+      <c r="D229" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E229" s="15">
+        <v>4</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>409</v>
+      </c>
       <c r="K229" s="10"/>
     </row>
-    <row r="230" spans="11:11">
+    <row r="230" spans="1:11">
+      <c r="D230" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="E230" s="15">
+        <v>5</v>
+      </c>
+      <c r="F230" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G230" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="K230" s="10"/>
     </row>
-    <row r="231" spans="11:11">
+    <row r="231" spans="1:11" ht="30">
+      <c r="B231" s="23"/>
+      <c r="C231" s="23"/>
+      <c r="D231" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="E231" s="15">
+        <v>6</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>482</v>
+      </c>
       <c r="K231" s="10"/>
     </row>
-    <row r="232" spans="11:11">
+    <row r="232" spans="1:11">
+      <c r="B232" s="23"/>
+      <c r="C232" s="23"/>
+      <c r="H232" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="11:11">
+    <row r="233" spans="1:11">
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="11:11">
+    <row r="234" spans="1:11">
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="11:11" ht="30.75" customHeight="1">
+    <row r="235" spans="1:11">
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="11:11">
+    <row r="236" spans="1:11" ht="30.75" customHeight="1">
       <c r="K236" s="10"/>
     </row>
-    <row r="237" spans="11:11">
+    <row r="237" spans="1:11">
       <c r="K237" s="10"/>
     </row>
-    <row r="238" spans="11:11">
+    <row r="238" spans="1:11">
       <c r="K238" s="10"/>
     </row>
-    <row r="239" spans="11:11">
+    <row r="239" spans="1:11">
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="11:11">
+    <row r="240" spans="1:11">
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="11:11" ht="30" customHeight="1">
+    <row r="241" spans="11:11">
       <c r="K241" s="10"/>
     </row>
-    <row r="242" spans="11:11">
+    <row r="242" spans="11:11" ht="30" customHeight="1">
       <c r="K242" s="10"/>
     </row>
     <row r="243" spans="11:11">
@@ -5502,10 +6042,10 @@
     <row r="245" spans="11:11">
       <c r="K245" s="10"/>
     </row>
-    <row r="246" spans="11:11" ht="45" customHeight="1">
+    <row r="246" spans="11:11">
       <c r="K246" s="10"/>
     </row>
-    <row r="247" spans="11:11">
+    <row r="247" spans="11:11" ht="45" customHeight="1">
       <c r="K247" s="10"/>
     </row>
     <row r="248" spans="11:11">
@@ -5514,10 +6054,10 @@
     <row r="249" spans="11:11">
       <c r="K249" s="10"/>
     </row>
-    <row r="250" spans="11:11" ht="45" customHeight="1">
+    <row r="250" spans="11:11">
       <c r="K250" s="10"/>
     </row>
-    <row r="251" spans="11:11">
+    <row r="251" spans="11:11" ht="45" customHeight="1">
       <c r="K251" s="10"/>
     </row>
     <row r="252" spans="11:11">
@@ -5529,13 +6069,13 @@
     <row r="254" spans="11:11">
       <c r="K254" s="10"/>
     </row>
-    <row r="255" spans="11:11" ht="15" customHeight="1">
+    <row r="255" spans="11:11">
       <c r="K255" s="10"/>
     </row>
-    <row r="256" spans="11:11" ht="30" customHeight="1">
+    <row r="256" spans="11:11" ht="15" customHeight="1">
       <c r="K256" s="10"/>
     </row>
-    <row r="257" spans="11:11">
+    <row r="257" spans="11:11" ht="30" customHeight="1">
       <c r="K257" s="10"/>
     </row>
     <row r="258" spans="11:11">
@@ -5544,13 +6084,13 @@
     <row r="259" spans="11:11">
       <c r="K259" s="10"/>
     </row>
-    <row r="260" spans="11:11" ht="15" customHeight="1">
+    <row r="260" spans="11:11">
       <c r="K260" s="10"/>
     </row>
-    <row r="261" spans="11:11" ht="30" customHeight="1">
+    <row r="261" spans="11:11" ht="15" customHeight="1">
       <c r="K261" s="10"/>
     </row>
-    <row r="262" spans="11:11">
+    <row r="262" spans="11:11" ht="30" customHeight="1">
       <c r="K262" s="10"/>
     </row>
     <row r="263" spans="11:11">
@@ -5559,10 +6099,10 @@
     <row r="264" spans="11:11">
       <c r="K264" s="10"/>
     </row>
-    <row r="265" spans="11:11" ht="51.75" customHeight="1">
+    <row r="265" spans="11:11">
       <c r="K265" s="10"/>
     </row>
-    <row r="266" spans="11:11">
+    <row r="266" spans="11:11" ht="51.75" customHeight="1">
       <c r="K266" s="10"/>
     </row>
     <row r="267" spans="11:11">
@@ -5574,10 +6114,10 @@
     <row r="269" spans="11:11">
       <c r="K269" s="10"/>
     </row>
-    <row r="270" spans="11:11" ht="15" customHeight="1">
+    <row r="270" spans="11:11">
       <c r="K270" s="10"/>
     </row>
-    <row r="271" spans="11:11">
+    <row r="271" spans="11:11" ht="15" customHeight="1">
       <c r="K271" s="10"/>
     </row>
     <row r="272" spans="11:11">
@@ -5604,10 +6144,10 @@
     <row r="279" spans="11:11">
       <c r="K279" s="10"/>
     </row>
-    <row r="280" spans="11:11" ht="45" customHeight="1">
+    <row r="280" spans="11:11">
       <c r="K280" s="10"/>
     </row>
-    <row r="281" spans="11:11">
+    <row r="281" spans="11:11" ht="45" customHeight="1">
       <c r="K281" s="10"/>
     </row>
     <row r="282" spans="11:11">
@@ -5650,7 +6190,6 @@
       <c r="K294" s="10"/>
     </row>
     <row r="295" spans="10:11">
-      <c r="J295" s="10"/>
       <c r="K295" s="10"/>
     </row>
     <row r="296" spans="10:11">
@@ -5749,11 +6288,11 @@
       <c r="J319" s="10"/>
       <c r="K319" s="10"/>
     </row>
-    <row r="320" spans="10:11" ht="45" customHeight="1">
+    <row r="320" spans="10:11">
       <c r="J320" s="10"/>
       <c r="K320" s="10"/>
     </row>
-    <row r="321" spans="10:11">
+    <row r="321" spans="10:11" ht="45" customHeight="1">
       <c r="J321" s="10"/>
       <c r="K321" s="10"/>
     </row>
@@ -5817,11 +6356,11 @@
       <c r="J336" s="10"/>
       <c r="K336" s="10"/>
     </row>
-    <row r="337" spans="10:11" ht="27" customHeight="1">
+    <row r="337" spans="10:11">
       <c r="J337" s="10"/>
       <c r="K337" s="10"/>
     </row>
-    <row r="338" spans="10:11">
+    <row r="338" spans="10:11" ht="27" customHeight="1">
       <c r="J338" s="10"/>
       <c r="K338" s="10"/>
     </row>
@@ -5837,11 +6376,11 @@
       <c r="J341" s="10"/>
       <c r="K341" s="10"/>
     </row>
-    <row r="342" spans="10:11" ht="30.75" customHeight="1">
+    <row r="342" spans="10:11">
       <c r="J342" s="10"/>
       <c r="K342" s="10"/>
     </row>
-    <row r="343" spans="10:11">
+    <row r="343" spans="10:11" ht="30.75" customHeight="1">
       <c r="J343" s="10"/>
       <c r="K343" s="10"/>
     </row>
@@ -5933,11 +6472,11 @@
       <c r="J365" s="10"/>
       <c r="K365" s="10"/>
     </row>
-    <row r="366" spans="10:11" ht="45" customHeight="1">
+    <row r="366" spans="10:11">
       <c r="J366" s="10"/>
       <c r="K366" s="10"/>
     </row>
-    <row r="367" spans="10:11">
+    <row r="367" spans="10:11" ht="45" customHeight="1">
       <c r="J367" s="10"/>
       <c r="K367" s="10"/>
     </row>
@@ -5949,11 +6488,11 @@
       <c r="J369" s="10"/>
       <c r="K369" s="10"/>
     </row>
-    <row r="370" spans="10:11" ht="45" customHeight="1">
+    <row r="370" spans="10:11">
       <c r="J370" s="10"/>
       <c r="K370" s="10"/>
     </row>
-    <row r="371" spans="10:11">
+    <row r="371" spans="10:11" ht="45" customHeight="1">
       <c r="J371" s="10"/>
       <c r="K371" s="10"/>
     </row>
@@ -5965,11 +6504,11 @@
       <c r="J373" s="10"/>
       <c r="K373" s="10"/>
     </row>
-    <row r="374" spans="10:11" ht="45" customHeight="1">
+    <row r="374" spans="10:11">
       <c r="J374" s="10"/>
       <c r="K374" s="10"/>
     </row>
-    <row r="375" spans="10:11">
+    <row r="375" spans="10:11" ht="45" customHeight="1">
       <c r="J375" s="10"/>
       <c r="K375" s="10"/>
     </row>
@@ -5985,11 +6524,11 @@
       <c r="J378" s="10"/>
       <c r="K378" s="10"/>
     </row>
-    <row r="379" spans="10:11" ht="45" customHeight="1">
+    <row r="379" spans="10:11">
       <c r="J379" s="10"/>
       <c r="K379" s="10"/>
     </row>
-    <row r="380" spans="10:11">
+    <row r="380" spans="10:11" ht="45" customHeight="1">
       <c r="J380" s="10"/>
       <c r="K380" s="10"/>
     </row>
@@ -6005,11 +6544,11 @@
       <c r="J383" s="10"/>
       <c r="K383" s="10"/>
     </row>
-    <row r="384" spans="10:11" ht="45" customHeight="1">
+    <row r="384" spans="10:11">
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
     </row>
-    <row r="385" spans="10:11">
+    <row r="385" spans="10:11" ht="45" customHeight="1">
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
     </row>
@@ -6438,6 +6977,7 @@
       <c r="K491" s="10"/>
     </row>
     <row r="492" spans="10:11">
+      <c r="J492" s="10"/>
       <c r="K492" s="10"/>
     </row>
     <row r="493" spans="10:11">
@@ -6571,6 +7111,9 @@
     </row>
     <row r="536" spans="11:11">
       <c r="K536" s="10"/>
+    </row>
+    <row r="537" spans="11:11">
+      <c r="K537" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6582,7 +7125,7 @@
     <mergeCell ref="D49:D55"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J295:J491">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J296:J492">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C72:C140 C142:C1048576">
@@ -6591,10 +7134,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B1048576">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K537">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J294">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J295">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6629,8 +7172,19 @@
     <hyperlink ref="H175" r:id="rId28" display="http://mediwarecloud.com/"/>
     <hyperlink ref="H177" r:id="rId29" display="http://mediwarecloud.com/"/>
     <hyperlink ref="H182" r:id="rId30" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H189" r:id="rId31" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H193" r:id="rId32" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H196" r:id="rId33" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H204" r:id="rId34" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H207" r:id="rId35" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H210" r:id="rId36" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H216" r:id="rId37" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H219" r:id="rId38" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H222" r:id="rId39" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H226" r:id="rId40" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H232" r:id="rId41" display="http://mediwarecloud.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/Test Case/Prapancha/Test Case- EMR OP.xlsx
+++ b/Test Case/Prapancha/Test Case- EMR OP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="673">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1739,6 +1739,581 @@
   </si>
   <si>
     <t>Item should get added</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_045</t>
+  </si>
+  <si>
+    <t>Verify Treatment Summary of Out patient</t>
+  </si>
+  <si>
+    <t>In Patient OP Consultation popup ,Click on Treatment Summary and verify the contents</t>
+  </si>
+  <si>
+    <t>The details entered during pre-consulted state should be reflected in Consulted treatment summary report</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_046</t>
+  </si>
+  <si>
+    <t>Click on Consulted  status of a patient in Todays Consulted patient list</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_047</t>
+  </si>
+  <si>
+    <t>Verify Nurses Assessment under  Treatment Summary of Out patient</t>
+  </si>
+  <si>
+    <t>Correct details entered while preconsulted status should reflect in Nurses Assessment of Consulted status</t>
+  </si>
+  <si>
+    <t>Verify status of a patient gets convereted to Consulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Patient OP Consultation popup ,Click on Nurses Assessment &lt;&lt; Treatment Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify the contents can be printed On selecting print option</t>
+  </si>
+  <si>
+    <t>It should be printed</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be under preconsulted/Being seen status</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be under consulted status</t>
+  </si>
+  <si>
+    <t>Click on Being seen status of a patient in Todays waiting patient list</t>
+  </si>
+  <si>
+    <t>Enter mandatory fields and click save option for all mandatory submenus highlighted in page</t>
+  </si>
+  <si>
+    <t>Verify the  Consulted status gets displayed at Todays consulted out-patients list</t>
+  </si>
+  <si>
+    <t>Status should changed from Being seen to Consulted</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify complaints &amp; Examination under Doctor Notes can be saved </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to the EMR &gt; Out-patients tab&gt;Click on any patient  status (Being Seen/Consulted)under Todays waiting/Consulted out patients
+</t>
+  </si>
+  <si>
+    <t>Complaints &amp; Examination page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_049</t>
+  </si>
+  <si>
+    <t>Select Complaints &amp; Examination under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>Verify data can be saved on clickcing Save option</t>
+  </si>
+  <si>
+    <t>Review of Systems page should be displayed</t>
+  </si>
+  <si>
+    <t>Select Review of Systems under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_050</t>
+  </si>
+  <si>
+    <t>Adendum Notes page should be displayed</t>
+  </si>
+  <si>
+    <t>Select Adendum Notes under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_051</t>
+  </si>
+  <si>
+    <t>Select Review of System under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>Review of system page should be displayed</t>
+  </si>
+  <si>
+    <t>Click on New option and enter data in fields</t>
+  </si>
+  <si>
+    <t>Click save option</t>
+  </si>
+  <si>
+    <t>Data should be saved and new data should get created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click close option </t>
+  </si>
+  <si>
+    <t>Data should get printed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_052</t>
+  </si>
+  <si>
+    <t>Verify Physical Examination under Doctor Notes</t>
+  </si>
+  <si>
+    <t>Verify Review of system under Doctor Notes</t>
+  </si>
+  <si>
+    <t>Verify Review of Systems under Doctor notes</t>
+  </si>
+  <si>
+    <t>Verify Adendum Notes under Doctor Notes</t>
+  </si>
+  <si>
+    <t>Verify data can be saved on clicking Save option</t>
+  </si>
+  <si>
+    <t>Data should get entered</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_053</t>
+  </si>
+  <si>
+    <t>Verify Vital Signs under Doctor Notes</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_054</t>
+  </si>
+  <si>
+    <t>Verify Allergies under Doctor Notes</t>
+  </si>
+  <si>
+    <t>Select Allergies under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>Select Physical Examination under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>Select Vital signs under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_055</t>
+  </si>
+  <si>
+    <t>Verify Diagnosis under Doctor Notes</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_056</t>
+  </si>
+  <si>
+    <t>Select Diagnosis under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>Verify Investigation Order under Doctor Notes</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_057</t>
+  </si>
+  <si>
+    <t>Select Investigation Order under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>Investigation Template</t>
+  </si>
+  <si>
+    <t>Enter search keyword in search option and verify its display</t>
+  </si>
+  <si>
+    <t>Click on Investigation Template</t>
+  </si>
+  <si>
+    <t>It should display different templates</t>
+  </si>
+  <si>
+    <t>Verify prescriptions under Doctor Notes</t>
+  </si>
+  <si>
+    <t>Select prescriptions Order under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Click on External Medicine Master and verify data can be saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Medicine Master save </t>
+  </si>
+  <si>
+    <t>Cancel External Medicine Master popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View External Medicine Master </t>
+  </si>
+  <si>
+    <t>Click on Template and verify data gets listed on entering description and  click retreived option</t>
+  </si>
+  <si>
+    <t>Template should be retrieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on view option </t>
+  </si>
+  <si>
+    <t>It should be viewed</t>
+  </si>
+  <si>
+    <t>Click cancel option</t>
+  </si>
+  <si>
+    <t>popup should be cancelled</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_058</t>
+  </si>
+  <si>
+    <t>Verify Stat Medication</t>
+  </si>
+  <si>
+    <t>Select Stat Medication under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_059</t>
+  </si>
+  <si>
+    <t>Verify Notes &amp; Treatment plan</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_060</t>
+  </si>
+  <si>
+    <t>Select Notes &amp; Treatment under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>Verify Tele Advice Notes</t>
+  </si>
+  <si>
+    <t>Select Tele Advice Notes under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_061</t>
+  </si>
+  <si>
+    <t>Verify data can be printed on clicking print option</t>
+  </si>
+  <si>
+    <t>Verify physician progress notes</t>
+  </si>
+  <si>
+    <t>Verify new data can be added on clicking New option</t>
+  </si>
+  <si>
+    <t>Enter mandatory fields and click save option</t>
+  </si>
+  <si>
+    <t>New data should get added</t>
+  </si>
+  <si>
+    <t>Date should be printed</t>
+  </si>
+  <si>
+    <t>Select physicianprogress notes under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_062</t>
+  </si>
+  <si>
+    <t>Verify file attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition: Patient should be in Being seen/consulted status
+Navigate till Patient OP Consultation popup page
+</t>
+  </si>
+  <si>
+    <t>Select  file attachment under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attach file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refresh option </t>
+  </si>
+  <si>
+    <t>Scan &amp; Attach</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_063</t>
+  </si>
+  <si>
+    <t>Try to attach a file of type xlsx,xls,docx,doc png,mp3,mp4,pdf,jpg,gif,jpeg of file size 10 mb on clicking attcah option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on scan &amp; attach option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on refresh option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on search  option </t>
+  </si>
+  <si>
+    <t>searched option should be displayed</t>
+  </si>
+  <si>
+    <t>Uploaded file should be freshed</t>
+  </si>
+  <si>
+    <t>File should be successfully scanned and attached</t>
+  </si>
+  <si>
+    <t>Delete file</t>
+  </si>
+  <si>
+    <t>Print file</t>
+  </si>
+  <si>
+    <t>Click on delete option</t>
+  </si>
+  <si>
+    <t>Click on print option</t>
+  </si>
+  <si>
+    <t>File should be printed</t>
+  </si>
+  <si>
+    <t>File should be deleted</t>
+  </si>
+  <si>
+    <t>Verify Certificates</t>
+  </si>
+  <si>
+    <t>Select Certificates under Doctor Notes&lt;&lt;Patient OP Consultation and enter data in fileds using different font size,style and Format</t>
+  </si>
+  <si>
+    <t>Manage certificate template</t>
+  </si>
+  <si>
+    <t>Click on Manage certificate template</t>
+  </si>
+  <si>
+    <t>Select value from dropdown and click save option</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select data from select dropdown and date
+from date picker </t>
+  </si>
+  <si>
+    <t>Dropdown should display selected value and date should be selected</t>
+  </si>
+  <si>
+    <t>Verify Growth chart</t>
+  </si>
+  <si>
+    <t>Select option for data and date</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be in Being seen/consulted status
+Navigate till Patient OP Consultation popup page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Growth chart  under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>Verify the chart display for different menus listed in page</t>
+  </si>
+  <si>
+    <t>Chart should be displayed correctly</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_065</t>
+  </si>
+  <si>
+    <t>Click on print option and verify result</t>
+  </si>
+  <si>
+    <t>Chart should be printed</t>
+  </si>
+  <si>
+    <t>Growth chart page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify History of Complaints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select History of complaints under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>History of complaints page should be displayed</t>
+  </si>
+  <si>
+    <t>OP Consultation popup page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_066</t>
+  </si>
+  <si>
+    <t>Verify data can be saved on clicking Save option after entering data in mandatory fields</t>
+  </si>
+  <si>
+    <t>Verify past Medical History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Past Medical History under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>Past Medical History  page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_067</t>
+  </si>
+  <si>
+    <t>Verify Past Surgical History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Past Surgical  History under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>Past surgical History page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_068</t>
+  </si>
+  <si>
+    <t>Verify personal History</t>
+  </si>
+  <si>
+    <t>Personal History page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Personal History under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_069</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_070</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_071</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_072</t>
+  </si>
+  <si>
+    <t>Verify Family History</t>
+  </si>
+  <si>
+    <t>Family History page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Family History under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>Verify Social History</t>
+  </si>
+  <si>
+    <t>Manage favourites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Social  History under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>Social History page should be displayed</t>
+  </si>
+  <si>
+    <t>Click on search item</t>
+  </si>
+  <si>
+    <t>Click on  Add All</t>
+  </si>
+  <si>
+    <t>Click on Remove All</t>
+  </si>
+  <si>
+    <t>searched data should be displayed</t>
+  </si>
+  <si>
+    <t>All data displayed should get added</t>
+  </si>
+  <si>
+    <t>All data should be removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Manage favourites option and add a favourite data and click done </t>
+  </si>
+  <si>
+    <t>Data should get added</t>
+  </si>
+  <si>
+    <t>Verify LPG for Men</t>
+  </si>
+  <si>
+    <t>Verify data can be saved on clicking Submit option after entering data in mandatory fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Option </t>
+  </si>
+  <si>
+    <t>Save as Draft</t>
+  </si>
+  <si>
+    <t>Click on New option and enter data in mandatory fields and click submit option</t>
+  </si>
+  <si>
+    <t>Data should be saved as draft</t>
+  </si>
+  <si>
+    <t>Data should be added</t>
+  </si>
+  <si>
+    <t>Click on Save as Draft option</t>
+  </si>
+  <si>
+    <t>Verify LPG for Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select  LPG for Men under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LPG for Men page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LPG for Women under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LPG for Women  page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_073</t>
+  </si>
+  <si>
+    <t>Verify Laser Form for Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Laser Form for Men  page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Laser Form for Men under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_074</t>
+  </si>
+  <si>
+    <t>Verify Laser Form for Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Laser Form for women under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Laser Form for Women  page should be displayed</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +2440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1937,6 +2512,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2253,7 +2831,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2261,11 +2839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R537"/>
+  <dimension ref="A1:R553"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G378" sqref="G378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2340,7 +2918,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7">
@@ -2360,7 +2938,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>18</v>
@@ -2374,7 +2952,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -2410,7 +2988,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="25"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -2440,7 +3018,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="30">
-      <c r="D5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -2460,7 +3038,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="210">
-      <c r="D6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -2473,7 +3051,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="225">
-      <c r="D7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -2486,7 +3064,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="D8" s="25"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -2499,7 +3077,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:18" ht="30">
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -2512,7 +3090,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="270">
-      <c r="D10" s="25"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="15">
         <v>9</v>
       </c>
@@ -2534,7 +3112,7 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="7">
@@ -2546,7 +3124,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="27"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="7">
         <v>2</v>
       </c>
@@ -2559,7 +3137,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1">
-      <c r="D13" s="27"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="7">
         <v>3</v>
       </c>
@@ -2572,7 +3150,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="30">
-      <c r="D14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="7">
         <v>4</v>
       </c>
@@ -2585,7 +3163,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="30">
-      <c r="D15" s="27"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="7">
         <v>5</v>
       </c>
@@ -2598,7 +3176,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="94.5">
-      <c r="D16" s="27"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="7">
         <v>6</v>
       </c>
@@ -2611,7 +3189,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="45">
-      <c r="D17" s="27"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="7">
         <v>7</v>
       </c>
@@ -2624,7 +3202,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="D18" s="27"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="7">
         <v>8</v>
       </c>
@@ -2637,7 +3215,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="30">
-      <c r="D19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="7">
         <v>9</v>
       </c>
@@ -2650,7 +3228,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="30">
-      <c r="D20" s="27"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="7">
         <v>10</v>
       </c>
@@ -2663,7 +3241,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="30">
-      <c r="D21" s="27"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="7">
         <v>11</v>
       </c>
@@ -2676,7 +3254,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="30">
-      <c r="D22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="7">
         <v>12</v>
       </c>
@@ -2689,7 +3267,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
-      <c r="D23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="7">
         <v>13</v>
       </c>
@@ -2702,7 +3280,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="150">
-      <c r="D24" s="27"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="7">
         <v>14</v>
       </c>
@@ -2724,7 +3302,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="7">
@@ -2736,7 +3314,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="30">
-      <c r="D26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="7">
         <v>2</v>
       </c>
@@ -2752,7 +3330,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="30">
-      <c r="D27" s="25"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="7">
         <v>3</v>
       </c>
@@ -2765,7 +3343,7 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1">
-      <c r="D28" s="25"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="7">
         <v>4</v>
       </c>
@@ -2778,7 +3356,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="135">
-      <c r="D29" s="25"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="7">
         <v>5</v>
       </c>
@@ -2800,7 +3378,7 @@
       <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="15">
@@ -2812,7 +3390,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="30">
-      <c r="D31" s="25"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="15">
         <v>2</v>
       </c>
@@ -2828,7 +3406,7 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="30">
-      <c r="D32" s="25"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="15">
         <v>3</v>
       </c>
@@ -2841,7 +3419,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="4:11" ht="60" customHeight="1">
-      <c r="D33" s="25"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="15">
         <v>4</v>
       </c>
@@ -2854,7 +3432,7 @@
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="4:11" ht="135">
-      <c r="D34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="15">
         <v>5</v>
       </c>
@@ -2867,7 +3445,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="4:11" ht="30">
-      <c r="D35" s="25"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="15">
         <v>6</v>
       </c>
@@ -2880,7 +3458,7 @@
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="4:11" ht="30">
-      <c r="D36" s="25"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="15">
         <v>7</v>
       </c>
@@ -2893,7 +3471,7 @@
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="4:11" ht="30">
-      <c r="D37" s="25"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="15">
         <v>8</v>
       </c>
@@ -2906,7 +3484,7 @@
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="4:11" ht="30">
-      <c r="D38" s="25"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="15">
         <v>9</v>
       </c>
@@ -2919,7 +3497,7 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="4:11" ht="135">
-      <c r="D39" s="25"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="15">
         <v>10</v>
       </c>
@@ -2932,7 +3510,7 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="4:11" ht="45" customHeight="1">
-      <c r="D40" s="25"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="15">
         <v>11</v>
       </c>
@@ -2945,7 +3523,7 @@
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="25"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="15">
         <v>12</v>
       </c>
@@ -2958,7 +3536,7 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="15">
         <v>13</v>
       </c>
@@ -2971,7 +3549,7 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="4:11">
-      <c r="D43" s="25"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="15">
         <v>14</v>
       </c>
@@ -2984,7 +3562,7 @@
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="25"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="15">
         <v>15</v>
       </c>
@@ -2997,7 +3575,7 @@
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="4:11" ht="30">
-      <c r="D45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="15">
         <v>16</v>
       </c>
@@ -3010,7 +3588,7 @@
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="4:11" ht="45" customHeight="1">
-      <c r="D46" s="25"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="15">
         <v>17</v>
       </c>
@@ -3023,7 +3601,7 @@
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="4:11" ht="30">
-      <c r="D47" s="25"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="15">
         <v>18</v>
       </c>
@@ -3036,7 +3614,7 @@
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="25"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="15">
         <v>19</v>
       </c>
@@ -3058,7 +3636,7 @@
       <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="7">
@@ -3070,7 +3648,7 @@
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="30">
-      <c r="D50" s="27"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="7">
         <v>2</v>
       </c>
@@ -3086,7 +3664,7 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="30">
-      <c r="D51" s="27"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="7">
         <v>3</v>
       </c>
@@ -3099,7 +3677,7 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="180">
-      <c r="D52" s="27"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="7">
         <v>4</v>
       </c>
@@ -3112,7 +3690,7 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="60">
-      <c r="D53" s="27"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="7">
         <v>5</v>
       </c>
@@ -3125,7 +3703,7 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1">
-      <c r="D54" s="27"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="7">
         <v>6</v>
       </c>
@@ -3138,7 +3716,7 @@
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11" ht="45">
-      <c r="D55" s="27"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="7">
         <v>7</v>
       </c>
@@ -3160,7 +3738,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="26" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="7">
@@ -3175,7 +3753,7 @@
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="D57" s="25"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="7">
         <v>2</v>
       </c>
@@ -3188,7 +3766,7 @@
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11" ht="120">
-      <c r="D58" s="25"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="7">
         <v>3</v>
       </c>
@@ -3201,7 +3779,7 @@
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1">
-      <c r="D59" s="25"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="7">
         <v>4</v>
       </c>
@@ -3214,7 +3792,7 @@
       <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11" ht="30">
-      <c r="D60" s="25"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="7">
         <v>5</v>
       </c>
@@ -3227,7 +3805,7 @@
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="D61" s="25"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="7">
         <v>6</v>
       </c>
@@ -3240,7 +3818,7 @@
       <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" ht="90">
-      <c r="D62" s="25"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="7">
         <v>7</v>
       </c>
@@ -3253,7 +3831,7 @@
       <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11" ht="45" customHeight="1">
-      <c r="D63" s="25"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="7">
         <v>8</v>
       </c>
@@ -3266,7 +3844,7 @@
       <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" ht="30">
-      <c r="D64" s="25"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="7">
         <v>9</v>
       </c>
@@ -3279,7 +3857,7 @@
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" ht="30">
-      <c r="D65" s="25"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="7">
         <v>10</v>
       </c>
@@ -3292,7 +3870,7 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="120">
-      <c r="D66" s="25"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="7">
         <v>11</v>
       </c>
@@ -3305,7 +3883,7 @@
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="99.75" customHeight="1">
-      <c r="D67" s="25"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="7">
         <v>12</v>
       </c>
@@ -3318,7 +3896,7 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="105">
-      <c r="D68" s="25"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="7">
         <v>13</v>
       </c>
@@ -3331,7 +3909,7 @@
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11" ht="60">
-      <c r="D69" s="25"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="7">
         <v>14</v>
       </c>
@@ -3344,7 +3922,7 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="90">
-      <c r="D70" s="25"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="7">
         <v>15</v>
       </c>
@@ -3424,7 +4002,7 @@
       <c r="E75" s="7">
         <v>1</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="9" t="s">
         <v>181</v>
       </c>
       <c r="H75" s="16" t="s">
@@ -3438,7 +4016,7 @@
       <c r="E76" s="7">
         <v>2</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="9" t="s">
         <v>155</v>
       </c>
       <c r="G76" s="7" t="s">
@@ -5904,7 +6482,7 @@
       <c r="A226" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="B226" s="23" t="s">
+      <c r="B226" s="25" t="s">
         <v>185</v>
       </c>
       <c r="C226" s="23" t="s">
@@ -5995,560 +6573,2389 @@
       </c>
       <c r="K231" s="10"/>
     </row>
-    <row r="232" spans="1:11">
-      <c r="B232" s="23"/>
-      <c r="C232" s="23"/>
+    <row r="232" spans="1:11" ht="30">
+      <c r="A232" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B232" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C232" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>497</v>
+      </c>
       <c r="H232" s="24" t="s">
         <v>68</v>
       </c>
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" ht="45">
+      <c r="E233" s="15">
+        <v>1</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" ht="30">
+      <c r="E234" s="15">
+        <v>2</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="G234" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" ht="30">
+      <c r="E235" s="15">
+        <v>3</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="1:11" ht="30.75" customHeight="1">
+    <row r="236" spans="1:11" ht="60" customHeight="1">
+      <c r="A236" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B236" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C236" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H236" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K236" s="10"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" ht="45">
+      <c r="E237" s="15">
+        <v>1</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K237" s="10"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" ht="30">
+      <c r="E238" s="15">
+        <v>2</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K238" s="10"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" ht="30">
+      <c r="E239" s="15">
+        <v>3</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>491</v>
+      </c>
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" ht="30">
+      <c r="D240" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E240" s="15">
+        <v>4</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="G240" s="9" t="s">
+        <v>495</v>
+      </c>
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="11:11">
+    <row r="241" spans="1:11" ht="45">
+      <c r="A241" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B241" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C241" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="H241" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K241" s="10"/>
     </row>
-    <row r="242" spans="11:11" ht="30" customHeight="1">
+    <row r="242" spans="1:11" ht="63" customHeight="1">
+      <c r="E242" s="15">
+        <v>1</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K242" s="10"/>
     </row>
-    <row r="243" spans="11:11">
+    <row r="243" spans="1:11" ht="30">
+      <c r="E243" s="15">
+        <v>2</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K243" s="10"/>
     </row>
-    <row r="244" spans="11:11">
+    <row r="244" spans="1:11" ht="45">
+      <c r="E244" s="15">
+        <v>3</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="G244" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K244" s="10"/>
     </row>
-    <row r="245" spans="11:11">
+    <row r="245" spans="1:11" ht="30">
+      <c r="E245" s="15">
+        <v>4</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>501</v>
+      </c>
       <c r="K245" s="10"/>
     </row>
-    <row r="246" spans="11:11">
+    <row r="246" spans="1:11" ht="105">
+      <c r="A246" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B246" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C246" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E246" s="15">
+        <v>1</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G246" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H246" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K246" s="10"/>
     </row>
-    <row r="247" spans="11:11" ht="45" customHeight="1">
+    <row r="247" spans="1:11" ht="78.75" customHeight="1">
+      <c r="E247" s="15">
+        <v>2</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K247" s="10"/>
     </row>
-    <row r="248" spans="11:11">
+    <row r="248" spans="1:11" ht="45">
+      <c r="E248" s="15">
+        <v>3</v>
+      </c>
+      <c r="F248" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="G248" s="9" t="s">
+        <v>505</v>
+      </c>
       <c r="K248" s="10"/>
     </row>
-    <row r="249" spans="11:11">
+    <row r="249" spans="1:11" ht="30">
+      <c r="E249" s="15">
+        <v>4</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K249" s="10"/>
     </row>
-    <row r="250" spans="11:11">
+    <row r="250" spans="1:11" ht="105">
+      <c r="A250" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C250" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E250" s="15">
+        <v>1</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G250" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H250" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K250" s="10"/>
     </row>
-    <row r="251" spans="11:11" ht="45" customHeight="1">
+    <row r="251" spans="1:11" ht="87" customHeight="1">
+      <c r="E251" s="15">
+        <v>2</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G251" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K251" s="10"/>
     </row>
-    <row r="252" spans="11:11">
+    <row r="252" spans="1:11" ht="45">
+      <c r="E252" s="15">
+        <v>3</v>
+      </c>
+      <c r="F252" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G252" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="K252" s="10"/>
     </row>
-    <row r="253" spans="11:11">
+    <row r="253" spans="1:11" ht="30">
+      <c r="E253" s="15">
+        <v>4</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G253" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K253" s="10"/>
     </row>
-    <row r="254" spans="11:11">
+    <row r="254" spans="1:11" ht="105">
+      <c r="A254" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B254" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C254" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E254" s="15">
+        <v>1</v>
+      </c>
+      <c r="F254" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G254" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="K254" s="10"/>
     </row>
-    <row r="255" spans="11:11">
+    <row r="255" spans="1:11" ht="60">
+      <c r="E255" s="15">
+        <v>2</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G255" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K255" s="10"/>
     </row>
-    <row r="256" spans="11:11" ht="15" customHeight="1">
+    <row r="256" spans="1:11" ht="57" customHeight="1">
+      <c r="E256" s="15">
+        <v>3</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="G256" s="9" t="s">
+        <v>512</v>
+      </c>
       <c r="K256" s="10"/>
     </row>
-    <row r="257" spans="11:11" ht="30" customHeight="1">
+    <row r="257" spans="1:11" ht="30" customHeight="1">
+      <c r="E257" s="15">
+        <v>4</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K257" s="10"/>
     </row>
-    <row r="258" spans="11:11">
+    <row r="258" spans="1:11" ht="105">
+      <c r="A258" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C258" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E258" s="15">
+        <v>1</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G258" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H258" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K258" s="10"/>
     </row>
-    <row r="259" spans="11:11">
+    <row r="259" spans="1:11" ht="73.5" customHeight="1">
+      <c r="E259" s="15">
+        <v>2</v>
+      </c>
+      <c r="F259" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K259" s="10"/>
     </row>
-    <row r="260" spans="11:11">
+    <row r="260" spans="1:11" ht="45">
+      <c r="E260" s="15">
+        <v>3</v>
+      </c>
+      <c r="F260" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="G260" s="9" t="s">
+        <v>516</v>
+      </c>
       <c r="K260" s="10"/>
     </row>
-    <row r="261" spans="11:11" ht="15" customHeight="1">
+    <row r="261" spans="1:11" ht="39" customHeight="1">
+      <c r="E261" s="15">
+        <v>4</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K261" s="10"/>
     </row>
-    <row r="262" spans="11:11" ht="30" customHeight="1">
+    <row r="262" spans="1:11" ht="30" customHeight="1">
+      <c r="D262" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E262" s="15">
+        <v>5</v>
+      </c>
+      <c r="F262" s="9" t="s">
+        <v>517</v>
+      </c>
       <c r="K262" s="10"/>
     </row>
-    <row r="263" spans="11:11">
+    <row r="263" spans="1:11" ht="49.5" customHeight="1">
+      <c r="E263" s="15">
+        <v>6</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>519</v>
+      </c>
       <c r="K263" s="10"/>
     </row>
-    <row r="264" spans="11:11">
+    <row r="264" spans="1:11">
+      <c r="D264" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E264" s="15">
+        <v>7</v>
+      </c>
+      <c r="F264" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G264" s="9" t="s">
+        <v>521</v>
+      </c>
       <c r="K264" s="10"/>
     </row>
-    <row r="265" spans="11:11">
+    <row r="265" spans="1:11">
+      <c r="D265" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E265" s="15">
+        <v>8</v>
+      </c>
+      <c r="F265" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="K265" s="10"/>
     </row>
-    <row r="266" spans="11:11" ht="51.75" customHeight="1">
+    <row r="266" spans="1:11" ht="122.25" customHeight="1">
+      <c r="A266" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C266" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="E266" s="15">
+        <v>1</v>
+      </c>
+      <c r="F266" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G266" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H266" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K266" s="10"/>
     </row>
-    <row r="267" spans="11:11">
+    <row r="267" spans="1:11" ht="60">
+      <c r="E267" s="15">
+        <v>2</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K267" s="10"/>
     </row>
-    <row r="268" spans="11:11">
+    <row r="268" spans="1:11" ht="45">
+      <c r="E268" s="15">
+        <v>3</v>
+      </c>
+      <c r="F268" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="K268" s="10"/>
     </row>
-    <row r="269" spans="11:11">
+    <row r="269" spans="1:11" ht="30">
+      <c r="E269" s="15">
+        <v>4</v>
+      </c>
+      <c r="F269" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K269" s="10"/>
     </row>
-    <row r="270" spans="11:11">
+    <row r="270" spans="1:11" ht="105">
+      <c r="A270" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B270" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C270" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E270" s="15">
+        <v>1</v>
+      </c>
+      <c r="F270" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G270" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H270" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K270" s="10"/>
     </row>
-    <row r="271" spans="11:11" ht="15" customHeight="1">
+    <row r="271" spans="1:11" ht="85.5" customHeight="1">
+      <c r="E271" s="15">
+        <v>2</v>
+      </c>
+      <c r="F271" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K271" s="10"/>
     </row>
-    <row r="272" spans="11:11">
+    <row r="272" spans="1:11" ht="30">
+      <c r="E272" s="15">
+        <v>3</v>
+      </c>
+      <c r="F272" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="G272" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="K272" s="10"/>
     </row>
-    <row r="273" spans="11:11">
+    <row r="273" spans="1:11" ht="30">
+      <c r="E273" s="15">
+        <v>4</v>
+      </c>
+      <c r="F273" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G273" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K273" s="10"/>
     </row>
-    <row r="274" spans="11:11">
+    <row r="274" spans="1:11" ht="105">
+      <c r="A274" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B274" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C274" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E274" s="15">
+        <v>1</v>
+      </c>
+      <c r="F274" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G274" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H274" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K274" s="10"/>
     </row>
-    <row r="275" spans="11:11">
+    <row r="275" spans="1:11" ht="60">
+      <c r="E275" s="15">
+        <v>2</v>
+      </c>
+      <c r="F275" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G275" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K275" s="10"/>
     </row>
-    <row r="276" spans="11:11">
+    <row r="276" spans="1:11" ht="59.25" customHeight="1">
+      <c r="E276" s="15">
+        <v>3</v>
+      </c>
+      <c r="F276" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="G276" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="K276" s="10"/>
     </row>
-    <row r="277" spans="11:11">
+    <row r="277" spans="1:11" ht="30">
+      <c r="E277" s="15">
+        <v>4</v>
+      </c>
+      <c r="F277" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G277" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K277" s="10"/>
     </row>
-    <row r="278" spans="11:11">
+    <row r="278" spans="1:11" ht="105">
+      <c r="A278" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B278" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C278" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="E278" s="15">
+        <v>1</v>
+      </c>
+      <c r="F278" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G278" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H278" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K278" s="10"/>
     </row>
-    <row r="279" spans="11:11">
+    <row r="279" spans="1:11" ht="60">
+      <c r="E279" s="15">
+        <v>2</v>
+      </c>
+      <c r="F279" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G279" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K279" s="10"/>
     </row>
-    <row r="280" spans="11:11">
+    <row r="280" spans="1:11" ht="66.75" customHeight="1">
+      <c r="E280" s="15">
+        <v>3</v>
+      </c>
+      <c r="F280" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="G280" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="K280" s="10"/>
     </row>
-    <row r="281" spans="11:11" ht="45" customHeight="1">
+    <row r="281" spans="1:11" ht="45" customHeight="1">
+      <c r="E281" s="15">
+        <v>4</v>
+      </c>
+      <c r="F281" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K281" s="10"/>
     </row>
-    <row r="282" spans="11:11">
+    <row r="282" spans="1:11" ht="105">
+      <c r="A282" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C282" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="E282" s="15">
+        <v>1</v>
+      </c>
+      <c r="F282" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G282" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H282" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K282" s="10"/>
     </row>
-    <row r="283" spans="11:11">
+    <row r="283" spans="1:11" ht="60">
+      <c r="E283" s="15">
+        <v>2</v>
+      </c>
+      <c r="F283" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G283" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K283" s="10"/>
     </row>
-    <row r="284" spans="11:11">
+    <row r="284" spans="1:11" ht="45">
+      <c r="E284" s="15">
+        <v>3</v>
+      </c>
+      <c r="F284" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="G284" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="K284" s="10"/>
     </row>
-    <row r="285" spans="11:11">
+    <row r="285" spans="1:11" ht="30">
+      <c r="E285" s="15">
+        <v>4</v>
+      </c>
+      <c r="F285" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G285" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K285" s="10"/>
     </row>
-    <row r="286" spans="11:11">
+    <row r="286" spans="1:11">
+      <c r="B286" s="25"/>
+      <c r="C286" s="25"/>
+      <c r="D286" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E286" s="15">
+        <v>5</v>
+      </c>
+      <c r="F286" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="G286" s="9" t="s">
+        <v>546</v>
+      </c>
       <c r="K286" s="10"/>
     </row>
-    <row r="287" spans="11:11">
+    <row r="287" spans="1:11" ht="30">
+      <c r="B287" s="25"/>
+      <c r="C287" s="25"/>
+      <c r="D287" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="E287" s="15">
+        <v>6</v>
+      </c>
+      <c r="F287" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="G287" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="K287" s="10"/>
     </row>
-    <row r="288" spans="11:11">
+    <row r="288" spans="1:11" ht="105">
+      <c r="A288" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B288" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C288" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="E288" s="15">
+        <v>1</v>
+      </c>
+      <c r="F288" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G288" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H288" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K288" s="10"/>
     </row>
-    <row r="289" spans="10:11">
+    <row r="289" spans="1:11" ht="60">
+      <c r="E289" s="15">
+        <v>2</v>
+      </c>
+      <c r="F289" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K289" s="10"/>
     </row>
-    <row r="290" spans="10:11">
+    <row r="290" spans="1:11" ht="45">
+      <c r="E290" s="15">
+        <v>3</v>
+      </c>
+      <c r="F290" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="K290" s="10"/>
     </row>
-    <row r="291" spans="10:11">
+    <row r="291" spans="1:11" ht="30">
+      <c r="E291" s="15">
+        <v>4</v>
+      </c>
+      <c r="F291" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K291" s="10"/>
     </row>
-    <row r="292" spans="10:11">
+    <row r="292" spans="1:11" ht="38.25" customHeight="1">
+      <c r="D292" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E292" s="15">
+        <v>5</v>
+      </c>
+      <c r="F292" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K292" s="10"/>
     </row>
-    <row r="293" spans="10:11">
+    <row r="293" spans="1:11" ht="38.25" customHeight="1">
+      <c r="B293" s="25"/>
+      <c r="C293" s="25"/>
+      <c r="D293" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="E293" s="15">
+        <v>6</v>
+      </c>
+      <c r="F293" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="G293" s="9" t="s">
+        <v>557</v>
+      </c>
       <c r="K293" s="10"/>
     </row>
-    <row r="294" spans="10:11">
+    <row r="294" spans="1:11" ht="38.25" customHeight="1">
+      <c r="B294" s="25"/>
+      <c r="C294" s="25"/>
+      <c r="D294" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="E294" s="15">
+        <v>7</v>
+      </c>
+      <c r="F294" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="G294" s="9" t="s">
+        <v>559</v>
+      </c>
       <c r="K294" s="10"/>
     </row>
-    <row r="295" spans="10:11">
+    <row r="295" spans="1:11" ht="45" customHeight="1">
+      <c r="D295" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="E295" s="15">
+        <v>8</v>
+      </c>
+      <c r="F295" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="G295" s="9" t="s">
+        <v>555</v>
+      </c>
       <c r="K295" s="10"/>
     </row>
-    <row r="296" spans="10:11">
-      <c r="J296" s="10"/>
+    <row r="296" spans="1:11" ht="105">
+      <c r="A296" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B296" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C296" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E296" s="15">
+        <v>1</v>
+      </c>
+      <c r="F296" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G296" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H296" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K296" s="10"/>
     </row>
-    <row r="297" spans="10:11">
-      <c r="J297" s="10"/>
+    <row r="297" spans="1:11" ht="60">
+      <c r="E297" s="15">
+        <v>2</v>
+      </c>
+      <c r="F297" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G297" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="K297" s="10"/>
     </row>
-    <row r="298" spans="10:11">
-      <c r="J298" s="10"/>
+    <row r="298" spans="1:11" ht="45">
+      <c r="E298" s="15">
+        <v>3</v>
+      </c>
+      <c r="F298" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="G298" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="K298" s="10"/>
     </row>
-    <row r="299" spans="10:11">
-      <c r="J299" s="10"/>
+    <row r="299" spans="1:11" ht="30">
+      <c r="E299" s="15">
+        <v>4</v>
+      </c>
+      <c r="F299" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G299" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K299" s="10"/>
     </row>
-    <row r="300" spans="10:11">
+    <row r="300" spans="1:11" ht="105">
+      <c r="A300" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C300" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="E300" s="15">
+        <v>1</v>
+      </c>
+      <c r="F300" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G300" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H300" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J300" s="10"/>
       <c r="K300" s="10"/>
     </row>
-    <row r="301" spans="10:11">
+    <row r="301" spans="1:11" ht="60">
+      <c r="E301" s="15">
+        <v>2</v>
+      </c>
+      <c r="F301" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G301" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="J301" s="10"/>
       <c r="K301" s="10"/>
     </row>
-    <row r="302" spans="10:11">
+    <row r="302" spans="1:11" ht="45">
+      <c r="E302" s="15">
+        <v>3</v>
+      </c>
+      <c r="F302" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="G302" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="J302" s="10"/>
       <c r="K302" s="10"/>
     </row>
-    <row r="303" spans="10:11">
+    <row r="303" spans="1:11" ht="30">
+      <c r="E303" s="15">
+        <v>4</v>
+      </c>
+      <c r="F303" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G303" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J303" s="10"/>
       <c r="K303" s="10"/>
     </row>
-    <row r="304" spans="10:11">
+    <row r="304" spans="1:11" ht="105">
+      <c r="A304" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C304" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="E304" s="15">
+        <v>1</v>
+      </c>
+      <c r="F304" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G304" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H304" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J304" s="10"/>
       <c r="K304" s="10"/>
     </row>
-    <row r="305" spans="10:11">
+    <row r="305" spans="1:11" ht="60">
+      <c r="E305" s="15">
+        <v>2</v>
+      </c>
+      <c r="F305" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G305" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="J305" s="10"/>
       <c r="K305" s="10"/>
     </row>
-    <row r="306" spans="10:11">
+    <row r="306" spans="1:11" ht="45">
+      <c r="E306" s="15">
+        <v>3</v>
+      </c>
+      <c r="F306" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="G306" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="J306" s="10"/>
       <c r="K306" s="10"/>
     </row>
-    <row r="307" spans="10:11">
+    <row r="307" spans="1:11" ht="30">
+      <c r="E307" s="15">
+        <v>4</v>
+      </c>
+      <c r="F307" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G307" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J307" s="10"/>
       <c r="K307" s="10"/>
     </row>
-    <row r="308" spans="10:11">
+    <row r="308" spans="1:11" ht="30">
+      <c r="B308" s="25"/>
+      <c r="C308" s="25"/>
+      <c r="D308" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E308" s="15">
+        <v>5</v>
+      </c>
+      <c r="F308" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="G308" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J308" s="10"/>
       <c r="K308" s="10"/>
     </row>
-    <row r="309" spans="10:11">
+    <row r="309" spans="1:11" ht="105">
+      <c r="A309" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B309" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C309" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="E309" s="15">
+        <v>1</v>
+      </c>
+      <c r="F309" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G309" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H309" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J309" s="10"/>
       <c r="K309" s="10"/>
     </row>
-    <row r="310" spans="10:11">
+    <row r="310" spans="1:11" ht="60">
+      <c r="E310" s="15">
+        <v>2</v>
+      </c>
+      <c r="F310" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G310" s="9" t="s">
+        <v>404</v>
+      </c>
       <c r="J310" s="10"/>
       <c r="K310" s="10"/>
     </row>
-    <row r="311" spans="10:11">
+    <row r="311" spans="1:11" ht="45">
+      <c r="E311" s="15">
+        <v>3</v>
+      </c>
+      <c r="F311" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="G311" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="J311" s="10"/>
       <c r="K311" s="10"/>
     </row>
-    <row r="312" spans="10:11">
+    <row r="312" spans="1:11" ht="30">
+      <c r="E312" s="15">
+        <v>4</v>
+      </c>
+      <c r="F312" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G312" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J312" s="10"/>
       <c r="K312" s="10"/>
     </row>
-    <row r="313" spans="10:11">
+    <row r="313" spans="1:11" ht="30">
+      <c r="D313" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E313" s="15">
+        <v>5</v>
+      </c>
+      <c r="F313" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>575</v>
+      </c>
       <c r="J313" s="10"/>
       <c r="K313" s="10"/>
     </row>
-    <row r="314" spans="10:11">
+    <row r="314" spans="1:11" ht="30">
+      <c r="D314" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E314" s="15">
+        <v>6</v>
+      </c>
+      <c r="F314" s="9" t="s">
+        <v>572</v>
+      </c>
       <c r="J314" s="10"/>
       <c r="K314" s="10"/>
     </row>
-    <row r="315" spans="10:11">
+    <row r="315" spans="1:11" ht="34.5" customHeight="1">
+      <c r="E315" s="15">
+        <v>7</v>
+      </c>
+      <c r="F315" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="G315" s="9" t="s">
+        <v>574</v>
+      </c>
       <c r="J315" s="10"/>
       <c r="K315" s="10"/>
     </row>
-    <row r="316" spans="10:11">
+    <row r="316" spans="1:11" ht="75">
+      <c r="A316" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B316" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C316" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D316" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="E316" s="15">
+        <v>1</v>
+      </c>
+      <c r="F316" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="H316" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J316" s="10"/>
       <c r="K316" s="10"/>
     </row>
-    <row r="317" spans="10:11">
+    <row r="317" spans="1:11" ht="45">
+      <c r="E317" s="15">
+        <v>2</v>
+      </c>
+      <c r="F317" s="9" t="s">
+        <v>580</v>
+      </c>
       <c r="J317" s="10"/>
       <c r="K317" s="10"/>
     </row>
-    <row r="318" spans="10:11">
+    <row r="318" spans="1:11" ht="45">
+      <c r="D318" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="E318" s="15">
+        <v>3</v>
+      </c>
+      <c r="F318" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="G318" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="J318" s="10"/>
       <c r="K318" s="10"/>
     </row>
-    <row r="319" spans="10:11">
+    <row r="319" spans="1:11">
+      <c r="B319" s="25"/>
+      <c r="C319" s="25"/>
+      <c r="D319" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="E319" s="15">
+        <v>4</v>
+      </c>
+      <c r="F319" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="G319" s="9" t="s">
+        <v>597</v>
+      </c>
       <c r="J319" s="10"/>
       <c r="K319" s="10"/>
     </row>
-    <row r="320" spans="10:11">
+    <row r="320" spans="1:11">
+      <c r="B320" s="25"/>
+      <c r="C320" s="25"/>
+      <c r="D320" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="E320" s="15">
+        <v>5</v>
+      </c>
+      <c r="F320" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G320" s="9" t="s">
+        <v>596</v>
+      </c>
       <c r="J320" s="10"/>
       <c r="K320" s="10"/>
     </row>
-    <row r="321" spans="10:11" ht="45" customHeight="1">
+    <row r="321" spans="1:11">
+      <c r="B321" s="25"/>
+      <c r="C321" s="25"/>
+      <c r="D321" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="E321" s="15">
+        <v>6</v>
+      </c>
+      <c r="F321" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="G321" s="9" t="s">
+        <v>591</v>
+      </c>
       <c r="J321" s="10"/>
       <c r="K321" s="10"/>
     </row>
-    <row r="322" spans="10:11">
+    <row r="322" spans="1:11">
+      <c r="D322" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="E322" s="15">
+        <v>7</v>
+      </c>
+      <c r="F322" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="G322" s="9" t="s">
+        <v>590</v>
+      </c>
       <c r="J322" s="10"/>
       <c r="K322" s="10"/>
     </row>
-    <row r="323" spans="10:11">
+    <row r="323" spans="1:11">
+      <c r="D323" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E323" s="15">
+        <v>8</v>
+      </c>
+      <c r="F323" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="G323" s="9" t="s">
+        <v>589</v>
+      </c>
       <c r="J323" s="10"/>
       <c r="K323" s="10"/>
     </row>
-    <row r="324" spans="10:11">
+    <row r="324" spans="1:11" ht="75">
+      <c r="A324" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B324" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C324" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="E324" s="15">
+        <v>1</v>
+      </c>
+      <c r="F324" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="G324" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H324" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J324" s="10"/>
       <c r="K324" s="10"/>
     </row>
-    <row r="325" spans="10:11">
+    <row r="325" spans="1:11" ht="60">
+      <c r="E325" s="15">
+        <v>2</v>
+      </c>
+      <c r="F325" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="G325" s="9" t="s">
+        <v>528</v>
+      </c>
       <c r="J325" s="10"/>
       <c r="K325" s="10"/>
     </row>
-    <row r="326" spans="10:11">
+    <row r="326" spans="1:11">
+      <c r="E326" s="15">
+        <v>3</v>
+      </c>
+      <c r="F326" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G326" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J326" s="10"/>
       <c r="K326" s="10"/>
     </row>
-    <row r="327" spans="10:11">
+    <row r="327" spans="1:11" ht="30">
+      <c r="D327" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="E327" s="15">
+        <v>4</v>
+      </c>
+      <c r="F327" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="G327" s="9" t="s">
+        <v>605</v>
+      </c>
       <c r="J327" s="10"/>
       <c r="K327" s="10"/>
     </row>
-    <row r="328" spans="10:11">
+    <row r="328" spans="1:11" ht="30">
+      <c r="D328" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="E328" s="15">
+        <v>5</v>
+      </c>
+      <c r="F328" s="9" t="s">
+        <v>601</v>
+      </c>
       <c r="J328" s="10"/>
       <c r="K328" s="10"/>
     </row>
-    <row r="329" spans="10:11">
+    <row r="329" spans="1:11" ht="45" customHeight="1">
+      <c r="D329" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E329" s="15">
+        <v>6</v>
+      </c>
+      <c r="F329" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="G329" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="J329" s="10"/>
       <c r="K329" s="10"/>
     </row>
-    <row r="330" spans="10:11">
+    <row r="330" spans="1:11" ht="60">
+      <c r="A330" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B330" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C330" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D330" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E330" s="15">
+        <v>1</v>
+      </c>
+      <c r="F330" s="9" t="s">
+        <v>608</v>
+      </c>
       <c r="J330" s="10"/>
       <c r="K330" s="10"/>
     </row>
-    <row r="331" spans="10:11">
+    <row r="331" spans="1:11" ht="30">
+      <c r="E331" s="15">
+        <v>2</v>
+      </c>
+      <c r="F331" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="G331" s="9" t="s">
+        <v>615</v>
+      </c>
       <c r="J331" s="10"/>
       <c r="K331" s="10"/>
     </row>
-    <row r="332" spans="10:11">
+    <row r="332" spans="1:11" ht="30">
+      <c r="E332" s="15">
+        <v>3</v>
+      </c>
+      <c r="F332" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="G332" s="9" t="s">
+        <v>611</v>
+      </c>
       <c r="J332" s="10"/>
       <c r="K332" s="10"/>
     </row>
-    <row r="333" spans="10:11">
+    <row r="333" spans="1:11">
+      <c r="B333" s="25"/>
+      <c r="C333" s="25"/>
+      <c r="D333" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E333" s="15">
+        <v>4</v>
+      </c>
+      <c r="F333" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G333" s="9" t="s">
+        <v>614</v>
+      </c>
       <c r="J333" s="10"/>
       <c r="K333" s="10"/>
     </row>
-    <row r="334" spans="10:11">
+    <row r="334" spans="1:11" ht="60">
+      <c r="A334" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B334" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C334" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D334" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="E334" s="15">
+        <v>1</v>
+      </c>
+      <c r="F334" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G334" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J334" s="10"/>
       <c r="K334" s="10"/>
     </row>
-    <row r="335" spans="10:11">
+    <row r="335" spans="1:11" ht="30">
+      <c r="E335" s="15">
+        <v>2</v>
+      </c>
+      <c r="F335" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="G335" s="9" t="s">
+        <v>618</v>
+      </c>
       <c r="J335" s="10"/>
       <c r="K335" s="10"/>
     </row>
-    <row r="336" spans="10:11">
+    <row r="336" spans="1:11" ht="68.25" customHeight="1">
+      <c r="E336" s="15">
+        <v>3</v>
+      </c>
+      <c r="F336" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="G336" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J336" s="10"/>
       <c r="K336" s="10"/>
     </row>
-    <row r="337" spans="10:11">
+    <row r="337" spans="1:11" ht="77.25" customHeight="1">
+      <c r="A337" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B337" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C337" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E337" s="15">
+        <v>1</v>
+      </c>
+      <c r="F337" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G337" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J337" s="10"/>
       <c r="K337" s="10"/>
     </row>
-    <row r="338" spans="10:11" ht="27" customHeight="1">
+    <row r="338" spans="1:11" ht="30">
+      <c r="E338" s="15">
+        <v>2</v>
+      </c>
+      <c r="F338" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="G338" s="9" t="s">
+        <v>624</v>
+      </c>
       <c r="J338" s="10"/>
       <c r="K338" s="10"/>
     </row>
-    <row r="339" spans="10:11">
+    <row r="339" spans="1:11" ht="53.25" customHeight="1">
+      <c r="E339" s="15">
+        <v>3</v>
+      </c>
+      <c r="F339" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="G339" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J339" s="10"/>
       <c r="K339" s="10"/>
     </row>
-    <row r="340" spans="10:11">
+    <row r="340" spans="1:11" ht="62.25" customHeight="1">
+      <c r="A340" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B340" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C340" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="E340" s="15">
+        <v>1</v>
+      </c>
+      <c r="F340" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G340" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J340" s="10"/>
       <c r="K340" s="10"/>
     </row>
-    <row r="341" spans="10:11">
+    <row r="341" spans="1:11" ht="30">
+      <c r="E341" s="15">
+        <v>2</v>
+      </c>
+      <c r="F341" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="G341" s="9" t="s">
+        <v>628</v>
+      </c>
       <c r="J341" s="10"/>
       <c r="K341" s="10"/>
     </row>
-    <row r="342" spans="10:11">
+    <row r="342" spans="1:11" ht="45.75" customHeight="1">
+      <c r="E342" s="15">
+        <v>3</v>
+      </c>
+      <c r="F342" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="G342" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J342" s="10"/>
       <c r="K342" s="10"/>
     </row>
-    <row r="343" spans="10:11" ht="30.75" customHeight="1">
+    <row r="343" spans="1:11" ht="60">
+      <c r="A343" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B343" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C343" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D343" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="E343" s="15">
+        <v>1</v>
+      </c>
+      <c r="F343" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G343" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J343" s="10"/>
       <c r="K343" s="10"/>
     </row>
-    <row r="344" spans="10:11">
+    <row r="344" spans="1:11" ht="30">
+      <c r="E344" s="15">
+        <v>2</v>
+      </c>
+      <c r="F344" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="G344" s="9" t="s">
+        <v>631</v>
+      </c>
       <c r="J344" s="10"/>
       <c r="K344" s="10"/>
     </row>
-    <row r="345" spans="10:11">
+    <row r="345" spans="1:11" ht="59.25" customHeight="1">
+      <c r="E345" s="15">
+        <v>3</v>
+      </c>
+      <c r="F345" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="G345" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J345" s="10"/>
       <c r="K345" s="10"/>
     </row>
-    <row r="346" spans="10:11">
+    <row r="346" spans="1:11" ht="60">
+      <c r="A346" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B346" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C346" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D346" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="E346" s="15">
+        <v>1</v>
+      </c>
+      <c r="F346" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G346" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J346" s="10"/>
       <c r="K346" s="10"/>
     </row>
-    <row r="347" spans="10:11">
+    <row r="347" spans="1:11" ht="42" customHeight="1">
+      <c r="E347" s="15">
+        <v>2</v>
+      </c>
+      <c r="F347" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="G347" s="9" t="s">
+        <v>638</v>
+      </c>
       <c r="J347" s="10"/>
       <c r="K347" s="10"/>
     </row>
-    <row r="348" spans="10:11">
+    <row r="348" spans="1:11" ht="45" customHeight="1">
+      <c r="E348" s="15">
+        <v>3</v>
+      </c>
+      <c r="F348" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="G348" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J348" s="10"/>
       <c r="K348" s="10"/>
     </row>
-    <row r="349" spans="10:11">
+    <row r="349" spans="1:11" ht="60">
+      <c r="A349" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B349" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C349" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D349" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="E349" s="15">
+        <v>1</v>
+      </c>
+      <c r="F349" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G349" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J349" s="10"/>
       <c r="K349" s="10"/>
     </row>
-    <row r="350" spans="10:11">
+    <row r="350" spans="1:11" ht="60.75" customHeight="1">
+      <c r="E350" s="15">
+        <v>2</v>
+      </c>
+      <c r="F350" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G350" s="9" t="s">
+        <v>643</v>
+      </c>
       <c r="J350" s="10"/>
       <c r="K350" s="10"/>
     </row>
-    <row r="351" spans="10:11">
+    <row r="351" spans="1:11" ht="51.75" customHeight="1">
+      <c r="E351" s="15">
+        <v>3</v>
+      </c>
+      <c r="F351" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="G351" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J351" s="10"/>
       <c r="K351" s="10"/>
     </row>
-    <row r="352" spans="10:11">
+    <row r="352" spans="1:11" ht="30">
+      <c r="B352" s="25"/>
+      <c r="C352" s="25"/>
+      <c r="D352" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="E352" s="15">
+        <v>4</v>
+      </c>
+      <c r="F352" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="G352" s="9" t="s">
+        <v>651</v>
+      </c>
       <c r="J352" s="10"/>
       <c r="K352" s="10"/>
     </row>
-    <row r="353" spans="10:11">
+    <row r="353" spans="1:11">
+      <c r="B353" s="25"/>
+      <c r="C353" s="25"/>
+      <c r="E353" s="15">
+        <v>5</v>
+      </c>
+      <c r="F353" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="G353" s="9" t="s">
+        <v>647</v>
+      </c>
       <c r="J353" s="10"/>
       <c r="K353" s="10"/>
     </row>
-    <row r="354" spans="10:11">
+    <row r="354" spans="1:11">
+      <c r="B354" s="25"/>
+      <c r="C354" s="25"/>
+      <c r="E354" s="15">
+        <v>6</v>
+      </c>
+      <c r="F354" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="G354" s="9" t="s">
+        <v>648</v>
+      </c>
       <c r="J354" s="10"/>
       <c r="K354" s="10"/>
     </row>
-    <row r="355" spans="10:11">
+    <row r="355" spans="1:11">
+      <c r="B355" s="25"/>
+      <c r="C355" s="25"/>
+      <c r="E355" s="15">
+        <v>7</v>
+      </c>
+      <c r="F355" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="G355" s="9" t="s">
+        <v>649</v>
+      </c>
       <c r="J355" s="10"/>
       <c r="K355" s="10"/>
     </row>
-    <row r="356" spans="10:11">
+    <row r="356" spans="1:11" ht="63.75" customHeight="1">
+      <c r="A356" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B356" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C356" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="E356" s="15">
+        <v>1</v>
+      </c>
+      <c r="F356" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G356" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J356" s="10"/>
       <c r="K356" s="10"/>
     </row>
-    <row r="357" spans="10:11">
+    <row r="357" spans="1:11" ht="30">
+      <c r="E357" s="15">
+        <v>2</v>
+      </c>
+      <c r="F357" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="G357" s="9" t="s">
+        <v>662</v>
+      </c>
       <c r="J357" s="10"/>
       <c r="K357" s="10"/>
     </row>
-    <row r="358" spans="10:11">
+    <row r="358" spans="1:11" ht="48" customHeight="1">
+      <c r="E358" s="15">
+        <v>3</v>
+      </c>
+      <c r="F358" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G358" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J358" s="10"/>
       <c r="K358" s="10"/>
     </row>
-    <row r="359" spans="10:11">
+    <row r="359" spans="1:11" ht="48" customHeight="1">
+      <c r="B359" s="25"/>
+      <c r="C359" s="25"/>
+      <c r="D359" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E359" s="15">
+        <v>4</v>
+      </c>
+      <c r="F359" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G359" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J359" s="10"/>
       <c r="K359" s="10"/>
     </row>
-    <row r="360" spans="10:11">
+    <row r="360" spans="1:11" ht="48" customHeight="1">
+      <c r="B360" s="25"/>
+      <c r="C360" s="25"/>
+      <c r="D360" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E360" s="15">
+        <v>5</v>
+      </c>
+      <c r="F360" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G360" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J360" s="10"/>
       <c r="K360" s="10"/>
     </row>
-    <row r="361" spans="10:11">
+    <row r="361" spans="1:11" ht="48" customHeight="1">
+      <c r="B361" s="25"/>
+      <c r="C361" s="25"/>
+      <c r="D361" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E361" s="15">
+        <v>6</v>
+      </c>
+      <c r="F361" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="G361" s="9" t="s">
+        <v>657</v>
+      </c>
       <c r="J361" s="10"/>
       <c r="K361" s="10"/>
     </row>
-    <row r="362" spans="10:11">
+    <row r="362" spans="1:11" ht="60">
+      <c r="A362" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B362" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C362" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D362" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="E362" s="15">
+        <v>1</v>
+      </c>
+      <c r="F362" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G362" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J362" s="10"/>
       <c r="K362" s="10"/>
     </row>
-    <row r="363" spans="10:11">
+    <row r="363" spans="1:11" ht="30">
+      <c r="E363" s="15">
+        <v>2</v>
+      </c>
+      <c r="F363" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="G363" s="9" t="s">
+        <v>664</v>
+      </c>
       <c r="J363" s="10"/>
       <c r="K363" s="10"/>
     </row>
-    <row r="364" spans="10:11">
+    <row r="364" spans="1:11" ht="45.75" customHeight="1">
+      <c r="E364" s="15">
+        <v>3</v>
+      </c>
+      <c r="F364" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G364" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J364" s="10"/>
       <c r="K364" s="10"/>
     </row>
-    <row r="365" spans="10:11">
+    <row r="365" spans="1:11">
+      <c r="D365" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E365" s="15">
+        <v>4</v>
+      </c>
+      <c r="F365" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G365" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J365" s="10"/>
       <c r="K365" s="10"/>
     </row>
-    <row r="366" spans="10:11">
+    <row r="366" spans="1:11" ht="30">
+      <c r="D366" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E366" s="15">
+        <v>5</v>
+      </c>
+      <c r="F366" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G366" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J366" s="10"/>
       <c r="K366" s="10"/>
     </row>
-    <row r="367" spans="10:11" ht="45" customHeight="1">
+    <row r="367" spans="1:11">
+      <c r="D367" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E367" s="15">
+        <v>6</v>
+      </c>
+      <c r="F367" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="G367" s="9" t="s">
+        <v>657</v>
+      </c>
       <c r="J367" s="10"/>
       <c r="K367" s="10"/>
     </row>
-    <row r="368" spans="10:11">
+    <row r="368" spans="1:11" ht="60">
+      <c r="A368" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B368" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C368" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D368" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="E368" s="15">
+        <v>1</v>
+      </c>
+      <c r="F368" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G368" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J368" s="10"/>
       <c r="K368" s="10"/>
     </row>
-    <row r="369" spans="10:11">
+    <row r="369" spans="1:11" ht="30">
+      <c r="E369" s="15">
+        <v>2</v>
+      </c>
+      <c r="F369" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="G369" s="9" t="s">
+        <v>667</v>
+      </c>
       <c r="J369" s="10"/>
       <c r="K369" s="10"/>
     </row>
-    <row r="370" spans="10:11">
+    <row r="370" spans="1:11" ht="53.25" customHeight="1">
+      <c r="E370" s="15">
+        <v>3</v>
+      </c>
+      <c r="F370" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G370" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J370" s="10"/>
       <c r="K370" s="10"/>
     </row>
-    <row r="371" spans="10:11" ht="45" customHeight="1">
+    <row r="371" spans="1:11">
+      <c r="D371" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E371" s="15">
+        <v>4</v>
+      </c>
+      <c r="F371" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G371" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J371" s="10"/>
       <c r="K371" s="10"/>
     </row>
-    <row r="372" spans="10:11">
+    <row r="372" spans="1:11" ht="30">
+      <c r="D372" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E372" s="15">
+        <v>5</v>
+      </c>
+      <c r="F372" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G372" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J372" s="10"/>
       <c r="K372" s="10"/>
     </row>
-    <row r="373" spans="10:11">
+    <row r="373" spans="1:11">
+      <c r="D373" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E373" s="15">
+        <v>6</v>
+      </c>
+      <c r="F373" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="G373" s="9" t="s">
+        <v>657</v>
+      </c>
       <c r="J373" s="10"/>
       <c r="K373" s="10"/>
     </row>
-    <row r="374" spans="10:11">
+    <row r="374" spans="1:11" ht="60">
+      <c r="A374" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B374" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C374" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E374" s="15">
+        <v>1</v>
+      </c>
+      <c r="F374" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G374" s="9" t="s">
+        <v>619</v>
+      </c>
       <c r="J374" s="10"/>
       <c r="K374" s="10"/>
     </row>
-    <row r="375" spans="10:11" ht="45" customHeight="1">
+    <row r="375" spans="1:11" ht="30">
+      <c r="E375" s="15">
+        <v>2</v>
+      </c>
+      <c r="F375" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="G375" s="9" t="s">
+        <v>672</v>
+      </c>
       <c r="J375" s="10"/>
       <c r="K375" s="10"/>
     </row>
-    <row r="376" spans="10:11">
+    <row r="376" spans="1:11" ht="44.25" customHeight="1">
+      <c r="E376" s="15">
+        <v>3</v>
+      </c>
+      <c r="F376" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G376" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J376" s="10"/>
       <c r="K376" s="10"/>
     </row>
-    <row r="377" spans="10:11">
+    <row r="377" spans="1:11">
+      <c r="D377" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E377" s="15">
+        <v>4</v>
+      </c>
+      <c r="F377" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G377" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J377" s="10"/>
       <c r="K377" s="10"/>
     </row>
-    <row r="378" spans="10:11">
+    <row r="378" spans="1:11" ht="30">
+      <c r="D378" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E378" s="15">
+        <v>5</v>
+      </c>
+      <c r="F378" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G378" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J378" s="10"/>
       <c r="K378" s="10"/>
     </row>
-    <row r="379" spans="10:11">
+    <row r="379" spans="1:11">
       <c r="J379" s="10"/>
       <c r="K379" s="10"/>
     </row>
-    <row r="380" spans="10:11" ht="45" customHeight="1">
+    <row r="380" spans="1:11">
       <c r="J380" s="10"/>
       <c r="K380" s="10"/>
     </row>
-    <row r="381" spans="10:11">
+    <row r="381" spans="1:11">
       <c r="J381" s="10"/>
       <c r="K381" s="10"/>
     </row>
-    <row r="382" spans="10:11">
+    <row r="382" spans="1:11">
       <c r="J382" s="10"/>
       <c r="K382" s="10"/>
     </row>
-    <row r="383" spans="10:11">
+    <row r="383" spans="1:11" ht="45" customHeight="1">
       <c r="J383" s="10"/>
       <c r="K383" s="10"/>
     </row>
-    <row r="384" spans="10:11">
+    <row r="384" spans="1:11">
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
     </row>
-    <row r="385" spans="10:11" ht="45" customHeight="1">
+    <row r="385" spans="10:11">
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
     </row>
@@ -6556,7 +8963,7 @@
       <c r="J386" s="10"/>
       <c r="K386" s="10"/>
     </row>
-    <row r="387" spans="10:11">
+    <row r="387" spans="10:11" ht="45" customHeight="1">
       <c r="J387" s="10"/>
       <c r="K387" s="10"/>
     </row>
@@ -6572,7 +8979,7 @@
       <c r="J390" s="10"/>
       <c r="K390" s="10"/>
     </row>
-    <row r="391" spans="10:11">
+    <row r="391" spans="10:11" ht="45" customHeight="1">
       <c r="J391" s="10"/>
       <c r="K391" s="10"/>
     </row>
@@ -6592,7 +8999,7 @@
       <c r="J395" s="10"/>
       <c r="K395" s="10"/>
     </row>
-    <row r="396" spans="10:11">
+    <row r="396" spans="10:11" ht="45" customHeight="1">
       <c r="J396" s="10"/>
       <c r="K396" s="10"/>
     </row>
@@ -6612,7 +9019,7 @@
       <c r="J400" s="10"/>
       <c r="K400" s="10"/>
     </row>
-    <row r="401" spans="10:11">
+    <row r="401" spans="10:11" ht="45" customHeight="1">
       <c r="J401" s="10"/>
       <c r="K401" s="10"/>
     </row>
@@ -6981,63 +9388,79 @@
       <c r="K492" s="10"/>
     </row>
     <row r="493" spans="10:11">
+      <c r="J493" s="10"/>
       <c r="K493" s="10"/>
     </row>
     <row r="494" spans="10:11">
+      <c r="J494" s="10"/>
       <c r="K494" s="10"/>
     </row>
     <row r="495" spans="10:11">
+      <c r="J495" s="10"/>
       <c r="K495" s="10"/>
     </row>
     <row r="496" spans="10:11">
+      <c r="J496" s="10"/>
       <c r="K496" s="10"/>
     </row>
-    <row r="497" spans="11:11">
+    <row r="497" spans="10:11">
+      <c r="J497" s="10"/>
       <c r="K497" s="10"/>
     </row>
-    <row r="498" spans="11:11">
+    <row r="498" spans="10:11">
+      <c r="J498" s="10"/>
       <c r="K498" s="10"/>
     </row>
-    <row r="499" spans="11:11">
+    <row r="499" spans="10:11">
+      <c r="J499" s="10"/>
       <c r="K499" s="10"/>
     </row>
-    <row r="500" spans="11:11">
+    <row r="500" spans="10:11">
+      <c r="J500" s="10"/>
       <c r="K500" s="10"/>
     </row>
-    <row r="501" spans="11:11">
+    <row r="501" spans="10:11">
+      <c r="J501" s="10"/>
       <c r="K501" s="10"/>
     </row>
-    <row r="502" spans="11:11">
+    <row r="502" spans="10:11">
+      <c r="J502" s="10"/>
       <c r="K502" s="10"/>
     </row>
-    <row r="503" spans="11:11">
+    <row r="503" spans="10:11">
+      <c r="J503" s="10"/>
       <c r="K503" s="10"/>
     </row>
-    <row r="504" spans="11:11">
+    <row r="504" spans="10:11">
+      <c r="J504" s="10"/>
       <c r="K504" s="10"/>
     </row>
-    <row r="505" spans="11:11">
+    <row r="505" spans="10:11">
+      <c r="J505" s="10"/>
       <c r="K505" s="10"/>
     </row>
-    <row r="506" spans="11:11">
+    <row r="506" spans="10:11">
+      <c r="J506" s="10"/>
       <c r="K506" s="10"/>
     </row>
-    <row r="507" spans="11:11">
+    <row r="507" spans="10:11">
+      <c r="J507" s="10"/>
       <c r="K507" s="10"/>
     </row>
-    <row r="508" spans="11:11">
+    <row r="508" spans="10:11">
+      <c r="J508" s="10"/>
       <c r="K508" s="10"/>
     </row>
-    <row r="509" spans="11:11">
+    <row r="509" spans="10:11">
       <c r="K509" s="10"/>
     </row>
-    <row r="510" spans="11:11">
+    <row r="510" spans="10:11">
       <c r="K510" s="10"/>
     </row>
-    <row r="511" spans="11:11">
+    <row r="511" spans="10:11">
       <c r="K511" s="10"/>
     </row>
-    <row r="512" spans="11:11">
+    <row r="512" spans="10:11">
       <c r="K512" s="10"/>
     </row>
     <row r="513" spans="11:11">
@@ -7114,6 +9537,54 @@
     </row>
     <row r="537" spans="11:11">
       <c r="K537" s="10"/>
+    </row>
+    <row r="538" spans="11:11">
+      <c r="K538" s="10"/>
+    </row>
+    <row r="539" spans="11:11">
+      <c r="K539" s="10"/>
+    </row>
+    <row r="540" spans="11:11">
+      <c r="K540" s="10"/>
+    </row>
+    <row r="541" spans="11:11">
+      <c r="K541" s="10"/>
+    </row>
+    <row r="542" spans="11:11">
+      <c r="K542" s="10"/>
+    </row>
+    <row r="543" spans="11:11">
+      <c r="K543" s="10"/>
+    </row>
+    <row r="544" spans="11:11">
+      <c r="K544" s="10"/>
+    </row>
+    <row r="545" spans="11:11">
+      <c r="K545" s="10"/>
+    </row>
+    <row r="546" spans="11:11">
+      <c r="K546" s="10"/>
+    </row>
+    <row r="547" spans="11:11">
+      <c r="K547" s="10"/>
+    </row>
+    <row r="548" spans="11:11">
+      <c r="K548" s="10"/>
+    </row>
+    <row r="549" spans="11:11">
+      <c r="K549" s="10"/>
+    </row>
+    <row r="550" spans="11:11">
+      <c r="K550" s="10"/>
+    </row>
+    <row r="551" spans="11:11">
+      <c r="K551" s="10"/>
+    </row>
+    <row r="552" spans="11:11">
+      <c r="K552" s="10"/>
+    </row>
+    <row r="553" spans="11:11">
+      <c r="K553" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7125,7 +9596,7 @@
     <mergeCell ref="D49:D55"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J296:J492">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J300:J508">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C72:C140 C142:C1048576">
@@ -7134,10 +9605,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B1048576">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K537">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K553">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J295">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J299">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7183,8 +9654,25 @@
     <hyperlink ref="H222" r:id="rId39" display="http://mediwarecloud.com/"/>
     <hyperlink ref="H226" r:id="rId40" display="http://mediwarecloud.com/"/>
     <hyperlink ref="H232" r:id="rId41" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H236" r:id="rId42" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H241" r:id="rId43" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H246" r:id="rId44" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H250" r:id="rId45" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H258" r:id="rId46" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H266" r:id="rId47" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H270" r:id="rId48" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H274" r:id="rId49" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H278" r:id="rId50" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H282" r:id="rId51" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H288" r:id="rId52" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H296" r:id="rId53" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H300" r:id="rId54" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H304" r:id="rId55" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H309" r:id="rId56" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H316" r:id="rId57" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H324" r:id="rId58" display="http://mediwarecloud.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
--- a/Test Case/Prapancha/Test Case- EMR OP.xlsx
+++ b/Test Case/Prapancha/Test Case- EMR OP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="745">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2286,9 +2286,6 @@
     <t xml:space="preserve">  LPG for Men page should be displayed</t>
   </si>
   <si>
-    <t xml:space="preserve"> LPG for Women under Doctor Notes&lt;&lt;Patient OP Consultation </t>
-  </si>
-  <si>
     <t xml:space="preserve">  LPG for Women  page should be displayed</t>
   </si>
   <si>
@@ -2301,19 +2298,238 @@
     <t xml:space="preserve">  Laser Form for Men  page should be displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">  Laser Form for Men under Doctor Notes&lt;&lt;Patient OP Consultation </t>
-  </si>
-  <si>
     <t>MED_EMR OP_TC_074</t>
   </si>
   <si>
     <t>Verify Laser Form for Women</t>
   </si>
   <si>
-    <t xml:space="preserve">  Laser Form for women under Doctor Notes&lt;&lt;Patient OP Consultation </t>
-  </si>
-  <si>
     <t xml:space="preserve">  Laser Form for Women  page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_075</t>
+  </si>
+  <si>
+    <t>Verify Dietician History Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select  Laser Form for women under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select  Dietician History under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select Laser Form for Men under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select LPG for Women under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>Dietician History  page should be displayed</t>
+  </si>
+  <si>
+    <t>Click on save as draft option</t>
+  </si>
+  <si>
+    <t>Data should be drafted</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_076</t>
+  </si>
+  <si>
+    <t>Verify Beautician Progress Note</t>
+  </si>
+  <si>
+    <t>Submit option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select  Beautician progress Notes under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beautician progress Notes page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_077</t>
+  </si>
+  <si>
+    <t>Verify Follow up Form</t>
+  </si>
+  <si>
+    <t>Follow up Form page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select  Follow up form under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_078</t>
+  </si>
+  <si>
+    <t>Verify psycology</t>
+  </si>
+  <si>
+    <t>Psycology page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select  Psycology  under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_079</t>
+  </si>
+  <si>
+    <t>Verify Physical Examination</t>
+  </si>
+  <si>
+    <t>Verify Physical Examination1</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_080</t>
+  </si>
+  <si>
+    <t>Physical Examination1 page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify Botox Figure</t>
+  </si>
+  <si>
+    <t>Botox Figure page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_081</t>
+  </si>
+  <si>
+    <t>Verify subsequent visit progress Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Botox Figure under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select   Physical Examination1  under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select   subsequent visit progress Note under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_082</t>
+  </si>
+  <si>
+    <t>Verify Psychiatric Template</t>
+  </si>
+  <si>
+    <t>New Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Psychiatric Template page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Subsequent visit progress Note page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select   Psychiatric Template under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>Verify Laser Form for Women (test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select   Laser Form for Women under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>Laser Form for Women (test) page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_084</t>
+  </si>
+  <si>
+    <t>Verify Ultra sound Gyn</t>
+  </si>
+  <si>
+    <t>Ultra sound Gyn page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select   Ultra sound Gyn under Doctor Notes&lt;&lt;Patient OP Consultation </t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_085</t>
+  </si>
+  <si>
+    <t>Open the url of Mediware and navigate to Clinical Management &gt;&gt; EMR in Application Selector&gt;&gt;Out-Patient</t>
+  </si>
+  <si>
+    <t>Verify Diagnosis under ER Examinations</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;ER Examinations&gt;&gt;Diagnosis</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_086</t>
+  </si>
+  <si>
+    <t>Previous  option</t>
+  </si>
+  <si>
+    <t>Next Option</t>
+  </si>
+  <si>
+    <t>Click on Next option and verify page navigation</t>
+  </si>
+  <si>
+    <t>Next page  should be displayed</t>
+  </si>
+  <si>
+    <t>Click on previous option</t>
+  </si>
+  <si>
+    <t>Previous page should be displayed</t>
+  </si>
+  <si>
+    <t>Save and continue  option</t>
+  </si>
+  <si>
+    <t>Data should be saved and next page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify  Investigation Order under ER Examinations</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;ER Examinations&gt;&gt;Investigation Order</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_087</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;ER Examinations&gt;&gt;Physical Examination</t>
+  </si>
+  <si>
+    <t>Click on New option and enter data in fields and click save option</t>
+  </si>
+  <si>
+    <t>Page should be printed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_088</t>
+  </si>
+  <si>
+    <t>Verify investigation status under Reports</t>
+  </si>
+  <si>
+    <t>http://mediwarecloud.com/</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Reports&gt;&gt;Investigation status</t>
+  </si>
+  <si>
+    <t>Investigation status page should be displayed</t>
+  </si>
+  <si>
+    <t>Enter data in fields and click serach option and verify data display</t>
+  </si>
+  <si>
+    <t>Click clear option and verify result</t>
+  </si>
+  <si>
+    <t>Displayed data should be cleared</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2512,6 +2728,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2831,7 +3050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2839,11 +3058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R553"/>
+  <dimension ref="A1:R552"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G378" sqref="G378"/>
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2918,7 +3137,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7">
@@ -2938,7 +3157,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>18</v>
@@ -2952,7 +3171,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -2988,7 +3207,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -3018,7 +3237,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="30">
-      <c r="D5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -3038,7 +3257,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="210">
-      <c r="D6" s="26"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -3051,7 +3270,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="225">
-      <c r="D7" s="26"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -3064,7 +3283,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="D8" s="26"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -3077,7 +3296,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:18" ht="30">
-      <c r="D9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -3090,7 +3309,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="270">
-      <c r="D10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="15">
         <v>9</v>
       </c>
@@ -3112,7 +3331,7 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="29" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="7">
@@ -3124,7 +3343,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="28"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="7">
         <v>2</v>
       </c>
@@ -3137,7 +3356,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1">
-      <c r="D13" s="28"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="7">
         <v>3</v>
       </c>
@@ -3150,7 +3369,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="30">
-      <c r="D14" s="28"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="7">
         <v>4</v>
       </c>
@@ -3163,7 +3382,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="30">
-      <c r="D15" s="28"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="7">
         <v>5</v>
       </c>
@@ -3176,7 +3395,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="94.5">
-      <c r="D16" s="28"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="7">
         <v>6</v>
       </c>
@@ -3189,7 +3408,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="45">
-      <c r="D17" s="28"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="7">
         <v>7</v>
       </c>
@@ -3202,7 +3421,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="D18" s="28"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="7">
         <v>8</v>
       </c>
@@ -3215,7 +3434,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="30">
-      <c r="D19" s="28"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="7">
         <v>9</v>
       </c>
@@ -3228,7 +3447,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="30">
-      <c r="D20" s="28"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="7">
         <v>10</v>
       </c>
@@ -3241,7 +3460,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="30">
-      <c r="D21" s="28"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="7">
         <v>11</v>
       </c>
@@ -3254,7 +3473,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="30">
-      <c r="D22" s="28"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="7">
         <v>12</v>
       </c>
@@ -3267,7 +3486,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
-      <c r="D23" s="28"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="7">
         <v>13</v>
       </c>
@@ -3280,7 +3499,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="150">
-      <c r="D24" s="28"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="7">
         <v>14</v>
       </c>
@@ -3302,7 +3521,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="7">
@@ -3314,7 +3533,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="30">
-      <c r="D26" s="26"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="7">
         <v>2</v>
       </c>
@@ -3330,7 +3549,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="30">
-      <c r="D27" s="26"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="7">
         <v>3</v>
       </c>
@@ -3343,7 +3562,7 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1">
-      <c r="D28" s="26"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="7">
         <v>4</v>
       </c>
@@ -3356,7 +3575,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="135">
-      <c r="D29" s="26"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="7">
         <v>5</v>
       </c>
@@ -3378,7 +3597,7 @@
       <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="15">
@@ -3390,7 +3609,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="30">
-      <c r="D31" s="26"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="15">
         <v>2</v>
       </c>
@@ -3406,7 +3625,7 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="30">
-      <c r="D32" s="26"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="15">
         <v>3</v>
       </c>
@@ -3419,7 +3638,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="4:11" ht="60" customHeight="1">
-      <c r="D33" s="26"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="15">
         <v>4</v>
       </c>
@@ -3432,7 +3651,7 @@
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="4:11" ht="135">
-      <c r="D34" s="26"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="15">
         <v>5</v>
       </c>
@@ -3445,7 +3664,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="4:11" ht="30">
-      <c r="D35" s="26"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="15">
         <v>6</v>
       </c>
@@ -3458,7 +3677,7 @@
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="4:11" ht="30">
-      <c r="D36" s="26"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="15">
         <v>7</v>
       </c>
@@ -3471,7 +3690,7 @@
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="4:11" ht="30">
-      <c r="D37" s="26"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="15">
         <v>8</v>
       </c>
@@ -3484,7 +3703,7 @@
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="4:11" ht="30">
-      <c r="D38" s="26"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="15">
         <v>9</v>
       </c>
@@ -3497,7 +3716,7 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="4:11" ht="135">
-      <c r="D39" s="26"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="15">
         <v>10</v>
       </c>
@@ -3510,7 +3729,7 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="4:11" ht="45" customHeight="1">
-      <c r="D40" s="26"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="15">
         <v>11</v>
       </c>
@@ -3523,7 +3742,7 @@
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="26"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="15">
         <v>12</v>
       </c>
@@ -3536,7 +3755,7 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="26"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="15">
         <v>13</v>
       </c>
@@ -3549,7 +3768,7 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="4:11">
-      <c r="D43" s="26"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="15">
         <v>14</v>
       </c>
@@ -3562,7 +3781,7 @@
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="26"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="15">
         <v>15</v>
       </c>
@@ -3575,7 +3794,7 @@
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="4:11" ht="30">
-      <c r="D45" s="26"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="15">
         <v>16</v>
       </c>
@@ -3588,7 +3807,7 @@
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="4:11" ht="45" customHeight="1">
-      <c r="D46" s="26"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="15">
         <v>17</v>
       </c>
@@ -3601,7 +3820,7 @@
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="4:11" ht="30">
-      <c r="D47" s="26"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="15">
         <v>18</v>
       </c>
@@ -3614,7 +3833,7 @@
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="26"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="15">
         <v>19</v>
       </c>
@@ -3636,7 +3855,7 @@
       <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="29" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="7">
@@ -3648,7 +3867,7 @@
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="30">
-      <c r="D50" s="28"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="7">
         <v>2</v>
       </c>
@@ -3664,7 +3883,7 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="30">
-      <c r="D51" s="28"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="7">
         <v>3</v>
       </c>
@@ -3677,7 +3896,7 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="180">
-      <c r="D52" s="28"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="7">
         <v>4</v>
       </c>
@@ -3690,7 +3909,7 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="60">
-      <c r="D53" s="28"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="7">
         <v>5</v>
       </c>
@@ -3703,7 +3922,7 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1">
-      <c r="D54" s="28"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="7">
         <v>6</v>
       </c>
@@ -3716,7 +3935,7 @@
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11" ht="45">
-      <c r="D55" s="28"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="7">
         <v>7</v>
       </c>
@@ -3738,7 +3957,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="27" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="7">
@@ -3753,7 +3972,7 @@
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="D57" s="26"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="7">
         <v>2</v>
       </c>
@@ -3766,7 +3985,7 @@
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11" ht="120">
-      <c r="D58" s="26"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="7">
         <v>3</v>
       </c>
@@ -3779,7 +3998,7 @@
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1">
-      <c r="D59" s="26"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="7">
         <v>4</v>
       </c>
@@ -3792,7 +4011,7 @@
       <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11" ht="30">
-      <c r="D60" s="26"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="7">
         <v>5</v>
       </c>
@@ -3805,7 +4024,7 @@
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="D61" s="26"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="7">
         <v>6</v>
       </c>
@@ -3818,7 +4037,7 @@
       <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" ht="90">
-      <c r="D62" s="26"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="7">
         <v>7</v>
       </c>
@@ -3830,8 +4049,8 @@
       </c>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" ht="45" customHeight="1">
-      <c r="D63" s="26"/>
+    <row r="63" spans="1:11" ht="126" customHeight="1">
+      <c r="D63" s="27"/>
       <c r="E63" s="7">
         <v>8</v>
       </c>
@@ -3844,7 +4063,7 @@
       <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" ht="30">
-      <c r="D64" s="26"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="7">
         <v>9</v>
       </c>
@@ -3857,7 +4076,7 @@
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" ht="30">
-      <c r="D65" s="26"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="7">
         <v>10</v>
       </c>
@@ -3870,7 +4089,7 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="120">
-      <c r="D66" s="26"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="7">
         <v>11</v>
       </c>
@@ -3883,7 +4102,7 @@
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="99.75" customHeight="1">
-      <c r="D67" s="26"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="7">
         <v>12</v>
       </c>
@@ -3896,7 +4115,7 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="105">
-      <c r="D68" s="26"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="7">
         <v>13</v>
       </c>
@@ -3909,7 +4128,7 @@
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11" ht="60">
-      <c r="D69" s="26"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="7">
         <v>14</v>
       </c>
@@ -3922,7 +4141,7 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="90">
-      <c r="D70" s="26"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="7">
         <v>15</v>
       </c>
@@ -4109,7 +4328,7 @@
       <c r="E81" s="7">
         <v>1</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="9" t="s">
         <v>183</v>
       </c>
       <c r="G81" s="9" t="s">
@@ -8129,6 +8348,9 @@
       <c r="F330" s="9" t="s">
         <v>608</v>
       </c>
+      <c r="H330" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J330" s="10"/>
       <c r="K330" s="10"/>
     </row>
@@ -8198,6 +8420,9 @@
       <c r="G334" s="9" t="s">
         <v>619</v>
       </c>
+      <c r="H334" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J334" s="10"/>
       <c r="K334" s="10"/>
     </row>
@@ -8249,6 +8474,9 @@
       <c r="G337" s="9" t="s">
         <v>619</v>
       </c>
+      <c r="H337" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J337" s="10"/>
       <c r="K337" s="10"/>
     </row>
@@ -8300,6 +8528,9 @@
       <c r="G340" s="9" t="s">
         <v>619</v>
       </c>
+      <c r="H340" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J340" s="10"/>
       <c r="K340" s="10"/>
     </row>
@@ -8351,6 +8582,9 @@
       <c r="G343" s="9" t="s">
         <v>619</v>
       </c>
+      <c r="H343" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J343" s="10"/>
       <c r="K343" s="10"/>
     </row>
@@ -8402,6 +8636,9 @@
       <c r="G346" s="9" t="s">
         <v>619</v>
       </c>
+      <c r="H346" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J346" s="10"/>
       <c r="K346" s="10"/>
     </row>
@@ -8452,6 +8689,9 @@
       </c>
       <c r="G349" s="9" t="s">
         <v>619</v>
+      </c>
+      <c r="H349" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="J349" s="10"/>
       <c r="K349" s="10"/>
@@ -8567,6 +8807,9 @@
       <c r="G356" s="9" t="s">
         <v>619</v>
       </c>
+      <c r="H356" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J356" s="10"/>
       <c r="K356" s="10"/>
     </row>
@@ -8672,6 +8915,9 @@
       <c r="G362" s="9" t="s">
         <v>619</v>
       </c>
+      <c r="H362" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J362" s="10"/>
       <c r="K362" s="10"/>
     </row>
@@ -8680,10 +8926,10 @@
         <v>2</v>
       </c>
       <c r="F363" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="G363" s="9" t="s">
         <v>663</v>
-      </c>
-      <c r="G363" s="9" t="s">
-        <v>664</v>
       </c>
       <c r="J363" s="10"/>
       <c r="K363" s="10"/>
@@ -8751,7 +8997,7 @@
     </row>
     <row r="368" spans="1:11" ht="60">
       <c r="A368" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B368" s="25" t="s">
         <v>185</v>
@@ -8760,7 +9006,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E368" s="15">
         <v>1</v>
@@ -8770,6 +9016,9 @@
       </c>
       <c r="G368" s="9" t="s">
         <v>619</v>
+      </c>
+      <c r="H368" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="J368" s="10"/>
       <c r="K368" s="10"/>
@@ -8779,10 +9028,10 @@
         <v>2</v>
       </c>
       <c r="F369" s="9" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="G369" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J369" s="10"/>
       <c r="K369" s="10"/>
@@ -8850,7 +9099,7 @@
     </row>
     <row r="374" spans="1:11" ht="60">
       <c r="A374" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B374" s="25" t="s">
         <v>185</v>
@@ -8859,7 +9108,7 @@
         <v>14</v>
       </c>
       <c r="D374" s="9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E374" s="15">
         <v>1</v>
@@ -8869,6 +9118,9 @@
       </c>
       <c r="G374" s="9" t="s">
         <v>619</v>
+      </c>
+      <c r="H374" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="J374" s="10"/>
       <c r="K374" s="10"/>
@@ -8878,10 +9130,10 @@
         <v>2</v>
       </c>
       <c r="F375" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G375" s="9" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J375" s="10"/>
       <c r="K375" s="10"/>
@@ -8931,347 +9183,1364 @@
       <c r="J378" s="10"/>
       <c r="K378" s="10"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" ht="60">
+      <c r="A379" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B379" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C379" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="E379" s="15">
+        <v>1</v>
+      </c>
+      <c r="F379" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G379" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H379" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J379" s="10"/>
       <c r="K379" s="10"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" ht="30">
+      <c r="E380" s="15">
+        <v>2</v>
+      </c>
+      <c r="F380" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="G380" s="9" t="s">
+        <v>676</v>
+      </c>
       <c r="J380" s="10"/>
       <c r="K380" s="10"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" ht="43.5" customHeight="1">
+      <c r="D381" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E381" s="15">
+        <v>3</v>
+      </c>
+      <c r="F381" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G381" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J381" s="10"/>
       <c r="K381" s="10"/>
     </row>
     <row r="382" spans="1:11">
+      <c r="D382" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E382" s="15">
+        <v>4</v>
+      </c>
+      <c r="F382" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G382" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J382" s="10"/>
       <c r="K382" s="10"/>
     </row>
     <row r="383" spans="1:11" ht="45" customHeight="1">
+      <c r="D383" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E383" s="15">
+        <v>5</v>
+      </c>
+      <c r="F383" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G383" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J383" s="10"/>
       <c r="K383" s="10"/>
     </row>
     <row r="384" spans="1:11">
+      <c r="D384" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E384" s="15">
+        <v>6</v>
+      </c>
+      <c r="F384" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G384" s="9" t="s">
+        <v>678</v>
+      </c>
       <c r="J384" s="10"/>
       <c r="K384" s="10"/>
     </row>
-    <row r="385" spans="10:11">
+    <row r="385" spans="1:11" ht="60">
+      <c r="A385" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B385" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C385" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="E385" s="15">
+        <v>1</v>
+      </c>
+      <c r="F385" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G385" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H385" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J385" s="10"/>
       <c r="K385" s="10"/>
     </row>
-    <row r="386" spans="10:11">
+    <row r="386" spans="1:11" ht="30">
+      <c r="E386" s="15">
+        <v>2</v>
+      </c>
+      <c r="F386" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="G386" s="9" t="s">
+        <v>683</v>
+      </c>
       <c r="J386" s="10"/>
       <c r="K386" s="10"/>
     </row>
-    <row r="387" spans="10:11" ht="45" customHeight="1">
+    <row r="387" spans="1:11" ht="45" customHeight="1">
+      <c r="D387" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E387" s="15">
+        <v>3</v>
+      </c>
+      <c r="F387" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G387" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J387" s="10"/>
       <c r="K387" s="10"/>
     </row>
-    <row r="388" spans="10:11">
+    <row r="388" spans="1:11">
+      <c r="D388" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E388" s="15">
+        <v>4</v>
+      </c>
+      <c r="F388" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G388" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J388" s="10"/>
       <c r="K388" s="10"/>
     </row>
-    <row r="389" spans="10:11">
+    <row r="389" spans="1:11" ht="30">
+      <c r="D389" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E389" s="15">
+        <v>5</v>
+      </c>
+      <c r="F389" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G389" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J389" s="10"/>
       <c r="K389" s="10"/>
     </row>
-    <row r="390" spans="10:11">
+    <row r="390" spans="1:11">
+      <c r="D390" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E390" s="15">
+        <v>6</v>
+      </c>
+      <c r="F390" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G390" s="9" t="s">
+        <v>678</v>
+      </c>
       <c r="J390" s="10"/>
       <c r="K390" s="10"/>
     </row>
-    <row r="391" spans="10:11" ht="45" customHeight="1">
+    <row r="391" spans="1:11" ht="66.75" customHeight="1">
+      <c r="A391" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B391" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C391" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D391" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="E391" s="15">
+        <v>1</v>
+      </c>
+      <c r="F391" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G391" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H391" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J391" s="10"/>
       <c r="K391" s="10"/>
     </row>
-    <row r="392" spans="10:11">
+    <row r="392" spans="1:11" ht="30">
+      <c r="E392" s="15">
+        <v>2</v>
+      </c>
+      <c r="F392" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="G392" s="9" t="s">
+        <v>686</v>
+      </c>
       <c r="J392" s="10"/>
       <c r="K392" s="10"/>
     </row>
-    <row r="393" spans="10:11">
+    <row r="393" spans="1:11" ht="45" customHeight="1">
+      <c r="D393" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E393" s="15">
+        <v>3</v>
+      </c>
+      <c r="F393" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G393" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J393" s="10"/>
       <c r="K393" s="10"/>
     </row>
-    <row r="394" spans="10:11">
+    <row r="394" spans="1:11">
+      <c r="D394" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E394" s="15">
+        <v>4</v>
+      </c>
+      <c r="F394" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G394" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J394" s="10"/>
       <c r="K394" s="10"/>
     </row>
-    <row r="395" spans="10:11">
+    <row r="395" spans="1:11" ht="30">
+      <c r="D395" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E395" s="15">
+        <v>5</v>
+      </c>
+      <c r="F395" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G395" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J395" s="10"/>
       <c r="K395" s="10"/>
     </row>
-    <row r="396" spans="10:11" ht="45" customHeight="1">
+    <row r="396" spans="1:11" ht="45" customHeight="1">
+      <c r="D396" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E396" s="15">
+        <v>6</v>
+      </c>
+      <c r="F396" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G396" s="9" t="s">
+        <v>678</v>
+      </c>
       <c r="J396" s="10"/>
       <c r="K396" s="10"/>
     </row>
-    <row r="397" spans="10:11">
+    <row r="397" spans="1:11" ht="60">
+      <c r="A397" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B397" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C397" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D397" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="E397" s="15">
+        <v>1</v>
+      </c>
+      <c r="F397" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G397" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H397" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J397" s="10"/>
       <c r="K397" s="10"/>
     </row>
-    <row r="398" spans="10:11">
+    <row r="398" spans="1:11" ht="30">
+      <c r="E398" s="15">
+        <v>2</v>
+      </c>
+      <c r="F398" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="G398" s="9" t="s">
+        <v>690</v>
+      </c>
       <c r="J398" s="10"/>
       <c r="K398" s="10"/>
     </row>
-    <row r="399" spans="10:11">
+    <row r="399" spans="1:11" ht="66" customHeight="1">
+      <c r="D399" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E399" s="15">
+        <v>3</v>
+      </c>
+      <c r="F399" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G399" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J399" s="10"/>
       <c r="K399" s="10"/>
     </row>
-    <row r="400" spans="10:11">
+    <row r="400" spans="1:11">
+      <c r="D400" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E400" s="15">
+        <v>4</v>
+      </c>
+      <c r="F400" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G400" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J400" s="10"/>
       <c r="K400" s="10"/>
     </row>
-    <row r="401" spans="10:11" ht="45" customHeight="1">
+    <row r="401" spans="1:11" ht="45" customHeight="1">
+      <c r="D401" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E401" s="15">
+        <v>5</v>
+      </c>
+      <c r="F401" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G401" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J401" s="10"/>
       <c r="K401" s="10"/>
     </row>
-    <row r="402" spans="10:11">
+    <row r="402" spans="1:11">
+      <c r="D402" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E402" s="15">
+        <v>6</v>
+      </c>
+      <c r="F402" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G402" s="9" t="s">
+        <v>678</v>
+      </c>
       <c r="J402" s="10"/>
       <c r="K402" s="10"/>
     </row>
-    <row r="403" spans="10:11">
+    <row r="403" spans="1:11" ht="60">
+      <c r="A403" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B403" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C403" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="E403" s="15">
+        <v>1</v>
+      </c>
+      <c r="F403" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G403" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H403" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J403" s="10"/>
       <c r="K403" s="10"/>
     </row>
-    <row r="404" spans="10:11">
+    <row r="404" spans="1:11" ht="30">
+      <c r="E404" s="15">
+        <v>2</v>
+      </c>
+      <c r="F404" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="G404" s="9" t="s">
+        <v>696</v>
+      </c>
       <c r="J404" s="10"/>
       <c r="K404" s="10"/>
     </row>
-    <row r="405" spans="10:11">
+    <row r="405" spans="1:11" ht="56.25" customHeight="1">
+      <c r="D405" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E405" s="15">
+        <v>3</v>
+      </c>
+      <c r="F405" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G405" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J405" s="10"/>
       <c r="K405" s="10"/>
     </row>
-    <row r="406" spans="10:11">
+    <row r="406" spans="1:11">
+      <c r="D406" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E406" s="15">
+        <v>4</v>
+      </c>
+      <c r="F406" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G406" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J406" s="10"/>
       <c r="K406" s="10"/>
     </row>
-    <row r="407" spans="10:11">
+    <row r="407" spans="1:11" ht="30">
+      <c r="D407" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E407" s="15">
+        <v>5</v>
+      </c>
+      <c r="F407" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G407" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J407" s="10"/>
       <c r="K407" s="10"/>
     </row>
-    <row r="408" spans="10:11">
+    <row r="408" spans="1:11" ht="60">
+      <c r="A408" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B408" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C408" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D408" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="E408" s="15">
+        <v>1</v>
+      </c>
+      <c r="F408" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G408" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="H408" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J408" s="10"/>
       <c r="K408" s="10"/>
     </row>
-    <row r="409" spans="10:11">
+    <row r="409" spans="1:11" ht="30">
+      <c r="E409" s="15">
+        <v>2</v>
+      </c>
+      <c r="F409" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="G409" s="9" t="s">
+        <v>698</v>
+      </c>
       <c r="J409" s="10"/>
       <c r="K409" s="10"/>
     </row>
-    <row r="410" spans="10:11">
+    <row r="410" spans="1:11" ht="52.5" customHeight="1">
+      <c r="D410" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E410" s="15">
+        <v>3</v>
+      </c>
+      <c r="F410" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G410" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J410" s="10"/>
       <c r="K410" s="10"/>
     </row>
-    <row r="411" spans="10:11">
+    <row r="411" spans="1:11">
+      <c r="D411" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E411" s="15">
+        <v>4</v>
+      </c>
+      <c r="F411" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G411" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J411" s="10"/>
       <c r="K411" s="10"/>
     </row>
-    <row r="412" spans="10:11">
+    <row r="412" spans="1:11" ht="30">
+      <c r="D412" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E412" s="15">
+        <v>5</v>
+      </c>
+      <c r="F412" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G412" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J412" s="10"/>
       <c r="K412" s="10"/>
     </row>
-    <row r="413" spans="10:11">
+    <row r="413" spans="1:11" ht="60">
+      <c r="A413" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="B413" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C413" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D413" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="E413" s="15">
+        <v>1</v>
+      </c>
+      <c r="F413" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="H413" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J413" s="10"/>
       <c r="K413" s="10"/>
     </row>
-    <row r="414" spans="10:11">
+    <row r="414" spans="1:11" ht="49.5" customHeight="1">
+      <c r="E414" s="15">
+        <v>2</v>
+      </c>
+      <c r="F414" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="G414" s="9" t="s">
+        <v>708</v>
+      </c>
       <c r="J414" s="10"/>
       <c r="K414" s="10"/>
     </row>
-    <row r="415" spans="10:11">
+    <row r="415" spans="1:11" ht="45.75" customHeight="1">
+      <c r="D415" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E415" s="15">
+        <v>3</v>
+      </c>
+      <c r="F415" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G415" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J415" s="10"/>
       <c r="K415" s="10"/>
     </row>
-    <row r="416" spans="10:11">
+    <row r="416" spans="1:11">
+      <c r="D416" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E416" s="15">
+        <v>4</v>
+      </c>
+      <c r="F416" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G416" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J416" s="10"/>
       <c r="K416" s="10"/>
     </row>
-    <row r="417" spans="10:11">
+    <row r="417" spans="1:11" ht="30">
+      <c r="D417" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E417" s="15">
+        <v>5</v>
+      </c>
+      <c r="F417" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G417" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J417" s="10"/>
       <c r="K417" s="10"/>
     </row>
-    <row r="418" spans="10:11">
+    <row r="418" spans="1:11">
+      <c r="D418" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E418" s="15">
+        <v>6</v>
+      </c>
+      <c r="F418" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G418" s="9" t="s">
+        <v>678</v>
+      </c>
       <c r="J418" s="10"/>
       <c r="K418" s="10"/>
     </row>
-    <row r="419" spans="10:11">
+    <row r="419" spans="1:11" ht="60">
+      <c r="A419" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B419" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C419" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="E419" s="15">
+        <v>1</v>
+      </c>
+      <c r="F419" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="H419" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J419" s="10"/>
       <c r="K419" s="10"/>
     </row>
-    <row r="420" spans="10:11">
+    <row r="420" spans="1:11" ht="53.25" customHeight="1">
+      <c r="E420" s="15">
+        <v>2</v>
+      </c>
+      <c r="F420" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="G420" s="9" t="s">
+        <v>707</v>
+      </c>
       <c r="J420" s="10"/>
       <c r="K420" s="10"/>
     </row>
-    <row r="421" spans="10:11">
+    <row r="421" spans="1:11" ht="55.5" customHeight="1">
+      <c r="D421" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E421" s="15">
+        <v>3</v>
+      </c>
+      <c r="F421" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G421" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J421" s="10"/>
       <c r="K421" s="10"/>
     </row>
-    <row r="422" spans="10:11">
+    <row r="422" spans="1:11">
+      <c r="D422" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E422" s="15">
+        <v>4</v>
+      </c>
+      <c r="F422" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G422" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J422" s="10"/>
       <c r="K422" s="10"/>
     </row>
-    <row r="423" spans="10:11">
+    <row r="423" spans="1:11" ht="30">
+      <c r="D423" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E423" s="15">
+        <v>5</v>
+      </c>
+      <c r="F423" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G423" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J423" s="10"/>
       <c r="K423" s="10"/>
     </row>
-    <row r="424" spans="10:11">
+    <row r="424" spans="1:11">
+      <c r="D424" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E424" s="15">
+        <v>6</v>
+      </c>
+      <c r="F424" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G424" s="9" t="s">
+        <v>678</v>
+      </c>
       <c r="J424" s="10"/>
       <c r="K424" s="10"/>
     </row>
-    <row r="425" spans="10:11">
+    <row r="425" spans="1:11" ht="60">
+      <c r="A425" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B425" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C425" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E425" s="15">
+        <v>1</v>
+      </c>
+      <c r="F425" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="H425" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J425" s="10"/>
       <c r="K425" s="10"/>
     </row>
-    <row r="426" spans="10:11">
+    <row r="426" spans="1:11" ht="30">
+      <c r="E426" s="15">
+        <v>2</v>
+      </c>
+      <c r="F426" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="G426" s="9" t="s">
+        <v>713</v>
+      </c>
       <c r="J426" s="10"/>
       <c r="K426" s="10"/>
     </row>
-    <row r="427" spans="10:11">
+    <row r="427" spans="1:11" ht="52.5" customHeight="1">
+      <c r="D427" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E427" s="15">
+        <v>3</v>
+      </c>
+      <c r="F427" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G427" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J427" s="10"/>
       <c r="K427" s="10"/>
     </row>
-    <row r="428" spans="10:11">
+    <row r="428" spans="1:11">
+      <c r="D428" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E428" s="15">
+        <v>4</v>
+      </c>
+      <c r="F428" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G428" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J428" s="10"/>
       <c r="K428" s="10"/>
     </row>
-    <row r="429" spans="10:11">
+    <row r="429" spans="1:11" ht="30">
+      <c r="D429" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E429" s="15">
+        <v>5</v>
+      </c>
+      <c r="F429" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G429" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J429" s="10"/>
       <c r="K429" s="10"/>
     </row>
-    <row r="430" spans="10:11">
+    <row r="430" spans="1:11">
+      <c r="D430" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E430" s="15">
+        <v>6</v>
+      </c>
+      <c r="F430" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G430" s="9" t="s">
+        <v>678</v>
+      </c>
       <c r="J430" s="10"/>
       <c r="K430" s="10"/>
     </row>
-    <row r="431" spans="10:11">
+    <row r="431" spans="1:11" ht="60">
+      <c r="A431" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B431" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C431" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D431" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="E431" s="15">
+        <v>1</v>
+      </c>
+      <c r="F431" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="H431" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J431" s="10"/>
       <c r="K431" s="10"/>
     </row>
-    <row r="432" spans="10:11">
+    <row r="432" spans="1:11" ht="30">
+      <c r="E432" s="15">
+        <v>2</v>
+      </c>
+      <c r="F432" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="G432" s="9" t="s">
+        <v>716</v>
+      </c>
       <c r="J432" s="10"/>
       <c r="K432" s="10"/>
     </row>
-    <row r="433" spans="10:11">
+    <row r="433" spans="1:11" ht="51" customHeight="1">
+      <c r="D433" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="E433" s="15">
+        <v>3</v>
+      </c>
+      <c r="F433" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G433" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J433" s="10"/>
       <c r="K433" s="10"/>
     </row>
-    <row r="434" spans="10:11">
+    <row r="434" spans="1:11">
+      <c r="D434" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E434" s="15">
+        <v>4</v>
+      </c>
+      <c r="F434" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G434" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="J434" s="10"/>
       <c r="K434" s="10"/>
     </row>
-    <row r="435" spans="10:11">
+    <row r="435" spans="1:11" ht="30">
+      <c r="D435" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E435" s="15">
+        <v>5</v>
+      </c>
+      <c r="F435" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="G435" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J435" s="10"/>
       <c r="K435" s="10"/>
     </row>
-    <row r="436" spans="10:11">
+    <row r="436" spans="1:11">
+      <c r="D436" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E436" s="15">
+        <v>6</v>
+      </c>
+      <c r="F436" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G436" s="9" t="s">
+        <v>678</v>
+      </c>
       <c r="J436" s="10"/>
       <c r="K436" s="10"/>
     </row>
-    <row r="437" spans="10:11">
+    <row r="437" spans="1:11" ht="45">
+      <c r="A437" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B437" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C437" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D437" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="E437" s="15">
+        <v>1</v>
+      </c>
+      <c r="F437" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H437" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J437" s="10"/>
       <c r="K437" s="10"/>
     </row>
-    <row r="438" spans="10:11">
+    <row r="438" spans="1:11" ht="97.5" customHeight="1">
+      <c r="E438" s="15">
+        <v>2</v>
+      </c>
+      <c r="F438" s="9" t="s">
+        <v>721</v>
+      </c>
       <c r="J438" s="10"/>
       <c r="K438" s="10"/>
     </row>
-    <row r="439" spans="10:11">
+    <row r="439" spans="1:11" ht="60" customHeight="1">
+      <c r="D439" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E439" s="15">
+        <v>3</v>
+      </c>
+      <c r="F439" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G439" s="9" t="s">
+        <v>730</v>
+      </c>
       <c r="J439" s="10"/>
       <c r="K439" s="10"/>
     </row>
-    <row r="440" spans="10:11">
+    <row r="440" spans="1:11">
+      <c r="D440" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="E440" s="15">
+        <v>4</v>
+      </c>
+      <c r="F440" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="G440" s="9" t="s">
+        <v>728</v>
+      </c>
       <c r="J440" s="10"/>
       <c r="K440" s="10"/>
     </row>
-    <row r="441" spans="10:11">
+    <row r="441" spans="1:11" ht="30">
+      <c r="D441" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="E441" s="15">
+        <v>5</v>
+      </c>
+      <c r="F441" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="G441" s="9" t="s">
+        <v>726</v>
+      </c>
       <c r="J441" s="10"/>
       <c r="K441" s="10"/>
     </row>
-    <row r="442" spans="10:11">
+    <row r="442" spans="1:11" ht="48.75" customHeight="1">
+      <c r="A442" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B442" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C442" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D442" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="E442" s="15">
+        <v>1</v>
+      </c>
+      <c r="F442" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H442" s="24" t="s">
+        <v>739</v>
+      </c>
       <c r="J442" s="10"/>
       <c r="K442" s="10"/>
     </row>
-    <row r="443" spans="10:11">
+    <row r="443" spans="1:11" ht="70.5" customHeight="1">
+      <c r="E443" s="15">
+        <v>2</v>
+      </c>
+      <c r="F443" s="9" t="s">
+        <v>732</v>
+      </c>
       <c r="J443" s="10"/>
       <c r="K443" s="10"/>
     </row>
-    <row r="444" spans="10:11">
+    <row r="444" spans="1:11" ht="54.75" customHeight="1">
+      <c r="D444" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E444" s="15">
+        <v>3</v>
+      </c>
+      <c r="F444" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="G444" s="9" t="s">
+        <v>730</v>
+      </c>
       <c r="J444" s="10"/>
       <c r="K444" s="10"/>
     </row>
-    <row r="445" spans="10:11">
+    <row r="445" spans="1:11">
+      <c r="D445" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="E445" s="15">
+        <v>4</v>
+      </c>
+      <c r="F445" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="G445" s="9" t="s">
+        <v>728</v>
+      </c>
       <c r="J445" s="10"/>
       <c r="K445" s="10"/>
     </row>
-    <row r="446" spans="10:11">
+    <row r="446" spans="1:11" ht="30">
+      <c r="D446" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="E446" s="15">
+        <v>5</v>
+      </c>
+      <c r="F446" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="G446" s="9" t="s">
+        <v>726</v>
+      </c>
       <c r="J446" s="10"/>
       <c r="K446" s="10"/>
     </row>
-    <row r="447" spans="10:11">
+    <row r="447" spans="1:11" ht="45">
+      <c r="A447" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B447" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C447" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D447" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="E447" s="15">
+        <v>1</v>
+      </c>
+      <c r="F447" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H447" s="24" t="s">
+        <v>739</v>
+      </c>
       <c r="J447" s="10"/>
       <c r="K447" s="10"/>
     </row>
-    <row r="448" spans="10:11">
+    <row r="448" spans="1:11" ht="60">
+      <c r="E448" s="15">
+        <v>2</v>
+      </c>
+      <c r="F448" s="9" t="s">
+        <v>734</v>
+      </c>
       <c r="J448" s="10"/>
       <c r="K448" s="10"/>
     </row>
-    <row r="449" spans="10:11">
+    <row r="449" spans="1:11" ht="60" customHeight="1">
+      <c r="D449" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E449" s="15">
+        <v>3</v>
+      </c>
+      <c r="F449" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="G449" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J449" s="10"/>
       <c r="K449" s="10"/>
     </row>
-    <row r="450" spans="10:11">
+    <row r="450" spans="1:11" ht="30">
+      <c r="D450" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E450" s="15">
+        <v>4</v>
+      </c>
+      <c r="F450" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="G450" s="9" t="s">
+        <v>658</v>
+      </c>
       <c r="J450" s="10"/>
       <c r="K450" s="10"/>
     </row>
-    <row r="451" spans="10:11">
+    <row r="451" spans="1:11">
+      <c r="D451" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E451" s="15">
+        <v>5</v>
+      </c>
+      <c r="F451" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G451" s="9" t="s">
+        <v>736</v>
+      </c>
       <c r="J451" s="10"/>
       <c r="K451" s="10"/>
     </row>
-    <row r="452" spans="10:11">
+    <row r="452" spans="1:11" ht="45">
+      <c r="A452" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B452" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C452" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D452" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="E452" s="15">
+        <v>1</v>
+      </c>
+      <c r="F452" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H452" s="24" t="s">
+        <v>739</v>
+      </c>
       <c r="J452" s="10"/>
       <c r="K452" s="10"/>
     </row>
-    <row r="453" spans="10:11">
+    <row r="453" spans="1:11" ht="78" customHeight="1">
+      <c r="E453" s="15">
+        <v>2</v>
+      </c>
+      <c r="F453" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="G453" s="9" t="s">
+        <v>741</v>
+      </c>
       <c r="J453" s="10"/>
       <c r="K453" s="10"/>
     </row>
-    <row r="454" spans="10:11">
+    <row r="454" spans="1:11" ht="59.25" customHeight="1">
+      <c r="D454" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E454" s="15">
+        <v>3</v>
+      </c>
+      <c r="F454" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="G454" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="J454" s="10"/>
       <c r="K454" s="10"/>
     </row>
-    <row r="455" spans="10:11">
+    <row r="455" spans="1:11">
+      <c r="D455" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E455" s="15">
+        <v>4</v>
+      </c>
+      <c r="F455" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="G455" s="9" t="s">
+        <v>744</v>
+      </c>
       <c r="J455" s="10"/>
       <c r="K455" s="10"/>
     </row>
-    <row r="456" spans="10:11">
+    <row r="456" spans="1:11">
       <c r="J456" s="10"/>
       <c r="K456" s="10"/>
     </row>
-    <row r="457" spans="10:11">
+    <row r="457" spans="1:11">
       <c r="J457" s="10"/>
       <c r="K457" s="10"/>
     </row>
-    <row r="458" spans="10:11">
+    <row r="458" spans="1:11">
       <c r="J458" s="10"/>
       <c r="K458" s="10"/>
     </row>
-    <row r="459" spans="10:11">
+    <row r="459" spans="1:11">
       <c r="J459" s="10"/>
       <c r="K459" s="10"/>
     </row>
-    <row r="460" spans="10:11">
+    <row r="460" spans="1:11">
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
     </row>
-    <row r="461" spans="10:11">
+    <row r="461" spans="1:11">
       <c r="J461" s="10"/>
       <c r="K461" s="10"/>
     </row>
-    <row r="462" spans="10:11">
+    <row r="462" spans="1:11">
       <c r="J462" s="10"/>
       <c r="K462" s="10"/>
     </row>
-    <row r="463" spans="10:11">
+    <row r="463" spans="1:11">
       <c r="J463" s="10"/>
       <c r="K463" s="10"/>
     </row>
-    <row r="464" spans="10:11">
+    <row r="464" spans="1:11">
       <c r="J464" s="10"/>
       <c r="K464" s="10"/>
     </row>
@@ -9448,7 +10717,6 @@
       <c r="K507" s="10"/>
     </row>
     <row r="508" spans="10:11">
-      <c r="J508" s="10"/>
       <c r="K508" s="10"/>
     </row>
     <row r="509" spans="10:11">
@@ -9582,9 +10850,6 @@
     </row>
     <row r="552" spans="11:11">
       <c r="K552" s="10"/>
-    </row>
-    <row r="553" spans="11:11">
-      <c r="K553" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9596,16 +10861,16 @@
     <mergeCell ref="D49:D55"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J300:J508">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J300:J507">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C72:C140 C142:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C142:C1048576 C72:C140">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B142:B1048576 B72:B140">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K553">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K552">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J299">
@@ -9671,8 +10936,33 @@
     <hyperlink ref="H309" r:id="rId56" display="http://mediwarecloud.com/"/>
     <hyperlink ref="H316" r:id="rId57" display="http://mediwarecloud.com/"/>
     <hyperlink ref="H324" r:id="rId58" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H330" r:id="rId59" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H334" r:id="rId60" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H337" r:id="rId61" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H340" r:id="rId62" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H343" r:id="rId63" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H346" r:id="rId64" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H349" r:id="rId65" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H356" r:id="rId66" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H362" r:id="rId67" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H368" r:id="rId68" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H374" r:id="rId69" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H379" r:id="rId70" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H385" r:id="rId71" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H391" r:id="rId72" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H397" r:id="rId73" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H403" r:id="rId74" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H408" r:id="rId75" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H413" r:id="rId76" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H419" r:id="rId77" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H425" r:id="rId78" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H431" r:id="rId79" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H437" r:id="rId80" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H442" r:id="rId81"/>
+    <hyperlink ref="H447" r:id="rId82"/>
+    <hyperlink ref="H452" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
--- a/Test Case/Prapancha/Test Case- EMR OP.xlsx
+++ b/Test Case/Prapancha/Test Case- EMR OP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="832">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2530,6 +2530,269 @@
   </si>
   <si>
     <t>Displayed data should be cleared</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_089</t>
+  </si>
+  <si>
+    <t>Verify Lab Results under Reports</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Reports&gt;&gt;Lab Results</t>
+  </si>
+  <si>
+    <t>Verify data can be saved</t>
+  </si>
+  <si>
+    <t>Lab Results page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify Tabular Lab Results under Reports</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Reports&gt;&gt;Tabular Lab Results</t>
+  </si>
+  <si>
+    <t>Enter date in fields and click show option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the displayed data </t>
+  </si>
+  <si>
+    <t>Tabular Lab Results page should be displayed</t>
+  </si>
+  <si>
+    <t>Filtered data should be displayed</t>
+  </si>
+  <si>
+    <t>Data should be displayed correctly</t>
+  </si>
+  <si>
+    <t>Show option</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_090</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_091</t>
+  </si>
+  <si>
+    <t>Verify Radiology Results under Reports</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Reports&gt;&gt;Radiology Results</t>
+  </si>
+  <si>
+    <t>PACS Result View</t>
+  </si>
+  <si>
+    <t>Click on PACS result view button</t>
+  </si>
+  <si>
+    <t>View attached file</t>
+  </si>
+  <si>
+    <t>Click on View attached file</t>
+  </si>
+  <si>
+    <t>Attached files should be displayed</t>
+  </si>
+  <si>
+    <t>Radiology Results page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_092</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Reports&gt;&gt;Radiology Results
+View</t>
+  </si>
+  <si>
+    <t>Verify data displayed</t>
+  </si>
+  <si>
+    <t>Data should be displayed properly</t>
+  </si>
+  <si>
+    <t>Radiology Results
+Viewpage should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_093</t>
+  </si>
+  <si>
+    <t>Verify Reference request</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Requests&gt;&gt;Reference request</t>
+  </si>
+  <si>
+    <t>Reference request page should be displayed</t>
+  </si>
+  <si>
+    <t>Add doctor to list</t>
+  </si>
+  <si>
+    <t>Enter data in fields and click Add doctor to list</t>
+  </si>
+  <si>
+    <t>Select request type /date/Hospital</t>
+  </si>
+  <si>
+    <t>Verify reference history</t>
+  </si>
+  <si>
+    <t>Delete row</t>
+  </si>
+  <si>
+    <t>Reference History</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_094</t>
+  </si>
+  <si>
+    <t>Data should be selected from dropdown</t>
+  </si>
+  <si>
+    <t>Doctor should get added to list</t>
+  </si>
+  <si>
+    <t>Reference History table should display data correctly</t>
+  </si>
+  <si>
+    <t>Try to delete a row</t>
+  </si>
+  <si>
+    <t>Row should get deleted</t>
+  </si>
+  <si>
+    <t>Click print option</t>
+  </si>
+  <si>
+    <t>Send request &amp; continue</t>
+  </si>
+  <si>
+    <t>Previous ,Next options</t>
+  </si>
+  <si>
+    <t>Click on Previous ,Next options</t>
+  </si>
+  <si>
+    <t>page should get navigated correspondingly</t>
+  </si>
+  <si>
+    <t>Click send request &amp; continue option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request should get send </t>
+  </si>
+  <si>
+    <t>Verify Surgery Request</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Requests&gt;&gt;Surgery request</t>
+  </si>
+  <si>
+    <t>Diagnosis View</t>
+  </si>
+  <si>
+    <t>Add Allergy</t>
+  </si>
+  <si>
+    <t>Surgery calender</t>
+  </si>
+  <si>
+    <t>File attach</t>
+  </si>
+  <si>
+    <t>View previous attachment</t>
+  </si>
+  <si>
+    <t>View previous</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_095</t>
+  </si>
+  <si>
+    <t>Click on Diagnosis view option and verify details displayed</t>
+  </si>
+  <si>
+    <t>Details should be displayed correctly</t>
+  </si>
+  <si>
+    <t>Click on View previous attachment</t>
+  </si>
+  <si>
+    <t>Click on Close option</t>
+  </si>
+  <si>
+    <t>Entered data should be saved</t>
+  </si>
+  <si>
+    <t>pop up should be closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Save after entering data in mandatory fields </t>
+  </si>
+  <si>
+    <t>Click on Add allergy option and enter data in fields</t>
+  </si>
+  <si>
+    <t>Allergy should get added</t>
+  </si>
+  <si>
+    <t>Click on Surgery calender and verify previous next options gets displayed</t>
+  </si>
+  <si>
+    <t>Surgery schedule details should be displayed</t>
+  </si>
+  <si>
+    <t>Click on File attach&gt;&gt;choose file&gt;&gt;upload</t>
+  </si>
+  <si>
+    <t>File should get attached</t>
+  </si>
+  <si>
+    <t>Click on View previous option to verify previous data entered in surgical request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page should display previously entered details </t>
+  </si>
+  <si>
+    <t>Previous attchments details should be viewed</t>
+  </si>
+  <si>
+    <t>Verify surgery Request List</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Requests&gt;&gt;Surgery request List</t>
+  </si>
+  <si>
+    <t>New Surgery</t>
+  </si>
+  <si>
+    <t>Enter date in fields and  click Show option</t>
+  </si>
+  <si>
+    <t>Enter keyword in search option</t>
+  </si>
+  <si>
+    <t>Click on New surgery and verify the surgery canbe added or not</t>
+  </si>
+  <si>
+    <t>New surgery should get added</t>
+  </si>
+  <si>
+    <t>Surgery Request List should be displayed</t>
+  </si>
+  <si>
+    <t>Surgery request List page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify it gets navigated to Surgery Request</t>
+  </si>
+  <si>
+    <t>Enter data in fields and click save option</t>
   </si>
 </sst>
 </file>
@@ -2656,7 +2919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2728,6 +2991,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3050,7 +3316,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3058,11 +3324,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R552"/>
+  <dimension ref="A1:R558"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D454" sqref="D454"/>
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H490" sqref="H490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3137,7 +3403,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7">
@@ -3157,7 +3423,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>18</v>
@@ -3171,7 +3437,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -3207,7 +3473,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -3237,7 +3503,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="30">
-      <c r="D5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -3257,7 +3523,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="210">
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -3270,7 +3536,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="225">
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -3283,7 +3549,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="D8" s="27"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -3296,7 +3562,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:18" ht="30">
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -3309,7 +3575,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="270">
-      <c r="D10" s="27"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="15">
         <v>9</v>
       </c>
@@ -3331,7 +3597,7 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="7">
@@ -3343,7 +3609,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="7">
         <v>2</v>
       </c>
@@ -3356,7 +3622,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1">
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="7">
         <v>3</v>
       </c>
@@ -3369,7 +3635,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="30">
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="7">
         <v>4</v>
       </c>
@@ -3382,7 +3648,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="30">
-      <c r="D15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="7">
         <v>5</v>
       </c>
@@ -3395,7 +3661,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="94.5">
-      <c r="D16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="7">
         <v>6</v>
       </c>
@@ -3408,7 +3674,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="45">
-      <c r="D17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="7">
         <v>7</v>
       </c>
@@ -3421,7 +3687,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="D18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="7">
         <v>8</v>
       </c>
@@ -3434,7 +3700,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="30">
-      <c r="D19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="7">
         <v>9</v>
       </c>
@@ -3447,7 +3713,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="30">
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="7">
         <v>10</v>
       </c>
@@ -3460,7 +3726,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="30">
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="7">
         <v>11</v>
       </c>
@@ -3473,7 +3739,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="30">
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="7">
         <v>12</v>
       </c>
@@ -3486,7 +3752,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="7">
         <v>13</v>
       </c>
@@ -3499,7 +3765,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="150">
-      <c r="D24" s="29"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="7">
         <v>14</v>
       </c>
@@ -3521,7 +3787,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="28" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="7">
@@ -3533,7 +3799,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="30">
-      <c r="D26" s="27"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="7">
         <v>2</v>
       </c>
@@ -3549,7 +3815,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="30">
-      <c r="D27" s="27"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="7">
         <v>3</v>
       </c>
@@ -3562,7 +3828,7 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1">
-      <c r="D28" s="27"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="7">
         <v>4</v>
       </c>
@@ -3575,7 +3841,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="135">
-      <c r="D29" s="27"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="7">
         <v>5</v>
       </c>
@@ -3597,7 +3863,7 @@
       <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="28" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="15">
@@ -3609,7 +3875,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="30">
-      <c r="D31" s="27"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="15">
         <v>2</v>
       </c>
@@ -3625,7 +3891,7 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="30">
-      <c r="D32" s="27"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="15">
         <v>3</v>
       </c>
@@ -3638,7 +3904,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="4:11" ht="60" customHeight="1">
-      <c r="D33" s="27"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="15">
         <v>4</v>
       </c>
@@ -3651,7 +3917,7 @@
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="4:11" ht="135">
-      <c r="D34" s="27"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="15">
         <v>5</v>
       </c>
@@ -3664,7 +3930,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="4:11" ht="30">
-      <c r="D35" s="27"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="15">
         <v>6</v>
       </c>
@@ -3677,7 +3943,7 @@
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="4:11" ht="30">
-      <c r="D36" s="27"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="15">
         <v>7</v>
       </c>
@@ -3690,7 +3956,7 @@
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="4:11" ht="30">
-      <c r="D37" s="27"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="15">
         <v>8</v>
       </c>
@@ -3703,7 +3969,7 @@
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="4:11" ht="30">
-      <c r="D38" s="27"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="15">
         <v>9</v>
       </c>
@@ -3716,7 +3982,7 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="4:11" ht="135">
-      <c r="D39" s="27"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="15">
         <v>10</v>
       </c>
@@ -3729,7 +3995,7 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="4:11" ht="45" customHeight="1">
-      <c r="D40" s="27"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="15">
         <v>11</v>
       </c>
@@ -3742,7 +4008,7 @@
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="27"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="15">
         <v>12</v>
       </c>
@@ -3755,7 +4021,7 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="27"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="15">
         <v>13</v>
       </c>
@@ -3768,7 +4034,7 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="4:11">
-      <c r="D43" s="27"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="15">
         <v>14</v>
       </c>
@@ -3781,7 +4047,7 @@
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="27"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="15">
         <v>15</v>
       </c>
@@ -3794,7 +4060,7 @@
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="4:11" ht="30">
-      <c r="D45" s="27"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="15">
         <v>16</v>
       </c>
@@ -3807,7 +4073,7 @@
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="4:11" ht="45" customHeight="1">
-      <c r="D46" s="27"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="15">
         <v>17</v>
       </c>
@@ -3820,7 +4086,7 @@
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="4:11" ht="30">
-      <c r="D47" s="27"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="15">
         <v>18</v>
       </c>
@@ -3833,7 +4099,7 @@
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="27"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="15">
         <v>19</v>
       </c>
@@ -3855,7 +4121,7 @@
       <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="30" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="7">
@@ -3867,7 +4133,7 @@
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="30">
-      <c r="D50" s="29"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="7">
         <v>2</v>
       </c>
@@ -3883,7 +4149,7 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="30">
-      <c r="D51" s="29"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="7">
         <v>3</v>
       </c>
@@ -3896,7 +4162,7 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="180">
-      <c r="D52" s="29"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="7">
         <v>4</v>
       </c>
@@ -3909,7 +4175,7 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="60">
-      <c r="D53" s="29"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="7">
         <v>5</v>
       </c>
@@ -3922,7 +4188,7 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1">
-      <c r="D54" s="29"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="7">
         <v>6</v>
       </c>
@@ -3935,7 +4201,7 @@
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11" ht="45">
-      <c r="D55" s="29"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="7">
         <v>7</v>
       </c>
@@ -3957,7 +4223,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="28" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="7">
@@ -3972,7 +4238,7 @@
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="D57" s="27"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="7">
         <v>2</v>
       </c>
@@ -3985,7 +4251,7 @@
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11" ht="120">
-      <c r="D58" s="27"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="7">
         <v>3</v>
       </c>
@@ -3998,7 +4264,7 @@
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1">
-      <c r="D59" s="27"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="7">
         <v>4</v>
       </c>
@@ -4011,7 +4277,7 @@
       <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11" ht="30">
-      <c r="D60" s="27"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="7">
         <v>5</v>
       </c>
@@ -4024,7 +4290,7 @@
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="D61" s="27"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="7">
         <v>6</v>
       </c>
@@ -4037,7 +4303,7 @@
       <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" ht="90">
-      <c r="D62" s="27"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="7">
         <v>7</v>
       </c>
@@ -4050,7 +4316,7 @@
       <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11" ht="126" customHeight="1">
-      <c r="D63" s="27"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="7">
         <v>8</v>
       </c>
@@ -4063,7 +4329,7 @@
       <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" ht="30">
-      <c r="D64" s="27"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="7">
         <v>9</v>
       </c>
@@ -4076,7 +4342,7 @@
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" ht="30">
-      <c r="D65" s="27"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="7">
         <v>10</v>
       </c>
@@ -4089,7 +4355,7 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="120">
-      <c r="D66" s="27"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="7">
         <v>11</v>
       </c>
@@ -4102,7 +4368,7 @@
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="99.75" customHeight="1">
-      <c r="D67" s="27"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="7">
         <v>12</v>
       </c>
@@ -4115,7 +4381,7 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="105">
-      <c r="D68" s="27"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="7">
         <v>13</v>
       </c>
@@ -4128,7 +4394,7 @@
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11" ht="60">
-      <c r="D69" s="27"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="7">
         <v>14</v>
       </c>
@@ -4141,7 +4407,7 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="90">
-      <c r="D70" s="27"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="7">
         <v>15</v>
       </c>
@@ -10508,275 +10774,790 @@
       <c r="J455" s="10"/>
       <c r="K455" s="10"/>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" ht="45">
+      <c r="A456" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="B456" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C456" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D456" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="E456" s="15">
+        <v>1</v>
+      </c>
+      <c r="F456" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H456" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J456" s="10"/>
       <c r="K456" s="10"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" ht="87" customHeight="1">
+      <c r="E457" s="15">
+        <v>2</v>
+      </c>
+      <c r="F457" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="G457" s="9" t="s">
+        <v>749</v>
+      </c>
       <c r="J457" s="10"/>
       <c r="K457" s="10"/>
     </row>
     <row r="458" spans="1:11">
+      <c r="E458" s="15">
+        <v>3</v>
+      </c>
+      <c r="F458" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="G458" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J458" s="10"/>
       <c r="K458" s="10"/>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" ht="45">
+      <c r="A459" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B459" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C459" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D459" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="E459" s="15">
+        <v>1</v>
+      </c>
+      <c r="F459" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H459" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J459" s="10"/>
       <c r="K459" s="10"/>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" ht="85.5" customHeight="1">
+      <c r="E460" s="15">
+        <v>2</v>
+      </c>
+      <c r="F460" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="G460" s="9" t="s">
+        <v>754</v>
+      </c>
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
     </row>
     <row r="461" spans="1:11">
+      <c r="D461" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="E461" s="15">
+        <v>3</v>
+      </c>
+      <c r="F461" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="G461" s="9" t="s">
+        <v>755</v>
+      </c>
       <c r="J461" s="10"/>
       <c r="K461" s="10"/>
     </row>
     <row r="462" spans="1:11">
+      <c r="E462" s="15">
+        <v>4</v>
+      </c>
+      <c r="F462" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="G462" s="9" t="s">
+        <v>756</v>
+      </c>
       <c r="J462" s="10"/>
       <c r="K462" s="10"/>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" ht="45">
+      <c r="A463" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B463" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C463" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D463" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="E463" s="15">
+        <v>1</v>
+      </c>
+      <c r="F463" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H463" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J463" s="10"/>
       <c r="K463" s="10"/>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" ht="70.5" customHeight="1">
+      <c r="E464" s="15">
+        <v>2</v>
+      </c>
+      <c r="F464" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="G464" s="9" t="s">
+        <v>767</v>
+      </c>
       <c r="J464" s="10"/>
       <c r="K464" s="10"/>
     </row>
-    <row r="465" spans="10:11">
+    <row r="465" spans="1:11">
+      <c r="D465" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="E465" s="15">
+        <v>3</v>
+      </c>
+      <c r="F465" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="G465" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="J465" s="10"/>
       <c r="K465" s="10"/>
     </row>
-    <row r="466" spans="10:11">
+    <row r="466" spans="1:11">
+      <c r="D466" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="E466" s="15">
+        <v>4</v>
+      </c>
+      <c r="F466" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="G466" s="9" t="s">
+        <v>766</v>
+      </c>
       <c r="J466" s="10"/>
       <c r="K466" s="10"/>
     </row>
-    <row r="467" spans="10:11">
+    <row r="467" spans="1:11" ht="45">
+      <c r="A467" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B467" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C467" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D467" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E467" s="15">
+        <v>1</v>
+      </c>
+      <c r="F467" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H467" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J467" s="10"/>
       <c r="K467" s="10"/>
     </row>
-    <row r="468" spans="10:11">
+    <row r="468" spans="1:11" ht="89.25" customHeight="1">
+      <c r="E468" s="15">
+        <v>2</v>
+      </c>
+      <c r="F468" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="G468" s="9" t="s">
+        <v>772</v>
+      </c>
       <c r="J468" s="10"/>
       <c r="K468" s="10"/>
     </row>
-    <row r="469" spans="10:11">
+    <row r="469" spans="1:11">
+      <c r="E469" s="15">
+        <v>3</v>
+      </c>
+      <c r="F469" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="G469" s="9" t="s">
+        <v>771</v>
+      </c>
       <c r="J469" s="10"/>
       <c r="K469" s="10"/>
     </row>
-    <row r="470" spans="10:11">
+    <row r="470" spans="1:11" ht="45">
+      <c r="A470" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B470" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C470" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D470" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="E470" s="15">
+        <v>1</v>
+      </c>
+      <c r="F470" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H470" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J470" s="10"/>
       <c r="K470" s="10"/>
     </row>
-    <row r="471" spans="10:11">
+    <row r="471" spans="1:11" ht="86.25" customHeight="1">
+      <c r="E471" s="15">
+        <v>2</v>
+      </c>
+      <c r="F471" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="G471" s="9" t="s">
+        <v>776</v>
+      </c>
       <c r="J471" s="10"/>
       <c r="K471" s="10"/>
     </row>
-    <row r="472" spans="10:11">
+    <row r="472" spans="1:11" ht="86.25" customHeight="1">
+      <c r="B472" s="27"/>
+      <c r="C472" s="27"/>
+      <c r="E472" s="15">
+        <v>3</v>
+      </c>
+      <c r="F472" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="G472" s="9" t="s">
+        <v>784</v>
+      </c>
       <c r="J472" s="10"/>
       <c r="K472" s="10"/>
     </row>
-    <row r="473" spans="10:11">
+    <row r="473" spans="1:11" ht="41.25" customHeight="1">
+      <c r="D473" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="E473" s="15">
+        <v>4</v>
+      </c>
+      <c r="F473" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="G473" s="9" t="s">
+        <v>785</v>
+      </c>
       <c r="J473" s="10"/>
       <c r="K473" s="10"/>
     </row>
-    <row r="474" spans="10:11">
+    <row r="474" spans="1:11" ht="41.25" customHeight="1">
+      <c r="B474" s="27"/>
+      <c r="C474" s="27"/>
+      <c r="D474" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="E474" s="15">
+        <v>5</v>
+      </c>
+      <c r="F474" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="G474" s="9" t="s">
+        <v>795</v>
+      </c>
       <c r="J474" s="10"/>
       <c r="K474" s="10"/>
     </row>
-    <row r="475" spans="10:11">
+    <row r="475" spans="1:11" ht="41.25" customHeight="1">
+      <c r="B475" s="27"/>
+      <c r="C475" s="27"/>
+      <c r="D475" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="F475" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="G475" s="9" t="s">
+        <v>793</v>
+      </c>
       <c r="J475" s="10"/>
       <c r="K475" s="10"/>
     </row>
-    <row r="476" spans="10:11">
+    <row r="476" spans="1:11">
+      <c r="D476" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="E476" s="15">
+        <v>5</v>
+      </c>
+      <c r="F476" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="G476" s="9" t="s">
+        <v>786</v>
+      </c>
       <c r="J476" s="10"/>
       <c r="K476" s="10"/>
     </row>
-    <row r="477" spans="10:11">
+    <row r="477" spans="1:11">
+      <c r="D477" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="E477" s="15">
+        <v>6</v>
+      </c>
+      <c r="F477" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="G477" s="9" t="s">
+        <v>788</v>
+      </c>
       <c r="J477" s="10"/>
       <c r="K477" s="10"/>
     </row>
-    <row r="478" spans="10:11">
+    <row r="478" spans="1:11">
+      <c r="D478" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E478" s="15">
+        <v>7</v>
+      </c>
+      <c r="F478" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="G478" s="9" t="s">
+        <v>521</v>
+      </c>
       <c r="J478" s="10"/>
       <c r="K478" s="10"/>
     </row>
-    <row r="479" spans="10:11">
+    <row r="479" spans="1:11" ht="45">
+      <c r="A479" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="B479" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C479" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D479" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="E479" s="15">
+        <v>1</v>
+      </c>
+      <c r="F479" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H479" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J479" s="10"/>
       <c r="K479" s="10"/>
     </row>
-    <row r="480" spans="10:11">
+    <row r="480" spans="1:11" ht="79.5" customHeight="1">
+      <c r="E480" s="15">
+        <v>2</v>
+      </c>
+      <c r="F480" s="9" t="s">
+        <v>797</v>
+      </c>
       <c r="J480" s="10"/>
       <c r="K480" s="10"/>
     </row>
-    <row r="481" spans="10:11">
+    <row r="481" spans="1:11" ht="30">
+      <c r="D481" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="E481" s="15">
+        <v>3</v>
+      </c>
+      <c r="F481" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="G481" s="9" t="s">
+        <v>806</v>
+      </c>
       <c r="J481" s="10"/>
       <c r="K481" s="10"/>
     </row>
-    <row r="482" spans="10:11">
+    <row r="482" spans="1:11" ht="30">
+      <c r="D482" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="E482" s="15">
+        <v>4</v>
+      </c>
+      <c r="F482" s="9" t="s">
+        <v>812</v>
+      </c>
       <c r="J482" s="10"/>
       <c r="K482" s="10"/>
     </row>
-    <row r="483" spans="10:11">
+    <row r="483" spans="1:11">
+      <c r="B483" s="27"/>
+      <c r="C483" s="27"/>
+      <c r="E483" s="15">
+        <v>5</v>
+      </c>
+      <c r="F483" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G483" s="9" t="s">
+        <v>813</v>
+      </c>
       <c r="J483" s="10"/>
       <c r="K483" s="10"/>
     </row>
-    <row r="484" spans="10:11">
+    <row r="484" spans="1:11" ht="30">
+      <c r="D484" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="E484" s="15">
+        <v>6</v>
+      </c>
+      <c r="F484" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="G484" s="9" t="s">
+        <v>815</v>
+      </c>
       <c r="J484" s="10"/>
       <c r="K484" s="10"/>
     </row>
-    <row r="485" spans="10:11">
+    <row r="485" spans="1:11">
+      <c r="D485" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="E485" s="15">
+        <v>7</v>
+      </c>
+      <c r="F485" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="G485" s="9" t="s">
+        <v>817</v>
+      </c>
       <c r="J485" s="10"/>
       <c r="K485" s="10"/>
     </row>
-    <row r="486" spans="10:11">
+    <row r="486" spans="1:11" ht="33.75" customHeight="1">
+      <c r="D486" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="E486" s="15">
+        <v>8</v>
+      </c>
+      <c r="F486" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="G486" s="9" t="s">
+        <v>820</v>
+      </c>
       <c r="J486" s="10"/>
       <c r="K486" s="10"/>
     </row>
-    <row r="487" spans="10:11">
+    <row r="487" spans="1:11" ht="47.25" customHeight="1">
+      <c r="D487" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="E487" s="15">
+        <v>9</v>
+      </c>
+      <c r="F487" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="G487" s="9" t="s">
+        <v>819</v>
+      </c>
       <c r="J487" s="10"/>
       <c r="K487" s="10"/>
     </row>
-    <row r="488" spans="10:11">
+    <row r="488" spans="1:11" ht="30">
+      <c r="D488" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="E488" s="15">
+        <v>10</v>
+      </c>
+      <c r="F488" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="G488" s="9" t="s">
+        <v>809</v>
+      </c>
       <c r="J488" s="10"/>
       <c r="K488" s="10"/>
     </row>
-    <row r="489" spans="10:11">
+    <row r="489" spans="1:11">
+      <c r="D489" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E489" s="15">
+        <v>11</v>
+      </c>
+      <c r="F489" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G489" s="9" t="s">
+        <v>810</v>
+      </c>
       <c r="J489" s="10"/>
       <c r="K489" s="10"/>
     </row>
-    <row r="490" spans="10:11">
+    <row r="490" spans="1:11" ht="63" customHeight="1">
+      <c r="A490" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="B490" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C490" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D490" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="E490" s="15">
+        <v>1</v>
+      </c>
+      <c r="F490" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H490" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J490" s="10"/>
       <c r="K490" s="10"/>
     </row>
-    <row r="491" spans="10:11">
+    <row r="491" spans="1:11" ht="82.5" customHeight="1">
+      <c r="E491" s="15">
+        <v>2</v>
+      </c>
+      <c r="F491" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="G491" s="9" t="s">
+        <v>829</v>
+      </c>
       <c r="J491" s="10"/>
       <c r="K491" s="10"/>
     </row>
-    <row r="492" spans="10:11">
+    <row r="492" spans="1:11">
+      <c r="D492" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E492" s="15">
+        <v>3</v>
+      </c>
+      <c r="F492" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="G492" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="J492" s="10"/>
       <c r="K492" s="10"/>
     </row>
-    <row r="493" spans="10:11">
+    <row r="493" spans="1:11" ht="30">
+      <c r="D493" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="E493" s="15">
+        <v>4</v>
+      </c>
+      <c r="F493" s="9" t="s">
+        <v>826</v>
+      </c>
       <c r="J493" s="10"/>
       <c r="K493" s="10"/>
     </row>
-    <row r="494" spans="10:11">
+    <row r="494" spans="1:11">
+      <c r="B494" s="27"/>
+      <c r="C494" s="27"/>
+      <c r="E494" s="15">
+        <v>5</v>
+      </c>
+      <c r="F494" s="9" t="s">
+        <v>830</v>
+      </c>
       <c r="J494" s="10"/>
       <c r="K494" s="10"/>
     </row>
-    <row r="495" spans="10:11">
+    <row r="495" spans="1:11">
+      <c r="B495" s="27"/>
+      <c r="C495" s="27"/>
+      <c r="F495" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="G495" s="9" t="s">
+        <v>827</v>
+      </c>
       <c r="J495" s="10"/>
       <c r="K495" s="10"/>
     </row>
-    <row r="496" spans="10:11">
+    <row r="496" spans="1:11">
+      <c r="D496" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E496" s="15">
+        <v>6</v>
+      </c>
+      <c r="F496" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="G496" s="9" t="s">
+        <v>828</v>
+      </c>
       <c r="J496" s="10"/>
       <c r="K496" s="10"/>
     </row>
-    <row r="497" spans="10:11">
+    <row r="497" spans="2:11">
+      <c r="B497" s="27"/>
+      <c r="C497" s="27"/>
       <c r="J497" s="10"/>
       <c r="K497" s="10"/>
     </row>
-    <row r="498" spans="10:11">
+    <row r="498" spans="2:11">
       <c r="J498" s="10"/>
       <c r="K498" s="10"/>
     </row>
-    <row r="499" spans="10:11">
+    <row r="499" spans="2:11">
       <c r="J499" s="10"/>
       <c r="K499" s="10"/>
     </row>
-    <row r="500" spans="10:11">
+    <row r="500" spans="2:11">
       <c r="J500" s="10"/>
       <c r="K500" s="10"/>
     </row>
-    <row r="501" spans="10:11">
+    <row r="501" spans="2:11">
       <c r="J501" s="10"/>
       <c r="K501" s="10"/>
     </row>
-    <row r="502" spans="10:11">
+    <row r="502" spans="2:11">
       <c r="J502" s="10"/>
       <c r="K502" s="10"/>
     </row>
-    <row r="503" spans="10:11">
+    <row r="503" spans="2:11">
       <c r="J503" s="10"/>
       <c r="K503" s="10"/>
     </row>
-    <row r="504" spans="10:11">
+    <row r="504" spans="2:11">
       <c r="J504" s="10"/>
       <c r="K504" s="10"/>
     </row>
-    <row r="505" spans="10:11">
+    <row r="505" spans="2:11">
       <c r="J505" s="10"/>
       <c r="K505" s="10"/>
     </row>
-    <row r="506" spans="10:11">
+    <row r="506" spans="2:11">
       <c r="J506" s="10"/>
       <c r="K506" s="10"/>
     </row>
-    <row r="507" spans="10:11">
+    <row r="507" spans="2:11">
       <c r="J507" s="10"/>
       <c r="K507" s="10"/>
     </row>
-    <row r="508" spans="10:11">
+    <row r="508" spans="2:11">
+      <c r="J508" s="10"/>
       <c r="K508" s="10"/>
     </row>
-    <row r="509" spans="10:11">
+    <row r="509" spans="2:11">
+      <c r="J509" s="10"/>
       <c r="K509" s="10"/>
     </row>
-    <row r="510" spans="10:11">
+    <row r="510" spans="2:11">
+      <c r="J510" s="10"/>
       <c r="K510" s="10"/>
     </row>
-    <row r="511" spans="10:11">
+    <row r="511" spans="2:11">
+      <c r="J511" s="10"/>
       <c r="K511" s="10"/>
     </row>
-    <row r="512" spans="10:11">
+    <row r="512" spans="2:11">
+      <c r="J512" s="10"/>
       <c r="K512" s="10"/>
     </row>
-    <row r="513" spans="11:11">
+    <row r="513" spans="10:11">
+      <c r="J513" s="10"/>
       <c r="K513" s="10"/>
     </row>
-    <row r="514" spans="11:11">
+    <row r="514" spans="10:11">
       <c r="K514" s="10"/>
     </row>
-    <row r="515" spans="11:11">
+    <row r="515" spans="10:11">
       <c r="K515" s="10"/>
     </row>
-    <row r="516" spans="11:11">
+    <row r="516" spans="10:11">
       <c r="K516" s="10"/>
     </row>
-    <row r="517" spans="11:11">
+    <row r="517" spans="10:11">
       <c r="K517" s="10"/>
     </row>
-    <row r="518" spans="11:11">
+    <row r="518" spans="10:11">
       <c r="K518" s="10"/>
     </row>
-    <row r="519" spans="11:11">
+    <row r="519" spans="10:11">
       <c r="K519" s="10"/>
     </row>
-    <row r="520" spans="11:11">
+    <row r="520" spans="10:11">
       <c r="K520" s="10"/>
     </row>
-    <row r="521" spans="11:11">
+    <row r="521" spans="10:11">
       <c r="K521" s="10"/>
     </row>
-    <row r="522" spans="11:11">
+    <row r="522" spans="10:11">
       <c r="K522" s="10"/>
     </row>
-    <row r="523" spans="11:11">
+    <row r="523" spans="10:11">
       <c r="K523" s="10"/>
     </row>
-    <row r="524" spans="11:11">
+    <row r="524" spans="10:11">
       <c r="K524" s="10"/>
     </row>
-    <row r="525" spans="11:11">
+    <row r="525" spans="10:11">
       <c r="K525" s="10"/>
     </row>
-    <row r="526" spans="11:11">
+    <row r="526" spans="10:11">
       <c r="K526" s="10"/>
     </row>
-    <row r="527" spans="11:11">
+    <row r="527" spans="10:11">
       <c r="K527" s="10"/>
     </row>
-    <row r="528" spans="11:11">
+    <row r="528" spans="10:11">
       <c r="K528" s="10"/>
     </row>
     <row r="529" spans="11:11">
@@ -10850,6 +11631,24 @@
     </row>
     <row r="552" spans="11:11">
       <c r="K552" s="10"/>
+    </row>
+    <row r="553" spans="11:11">
+      <c r="K553" s="10"/>
+    </row>
+    <row r="554" spans="11:11">
+      <c r="K554" s="10"/>
+    </row>
+    <row r="555" spans="11:11">
+      <c r="K555" s="10"/>
+    </row>
+    <row r="556" spans="11:11">
+      <c r="K556" s="10"/>
+    </row>
+    <row r="557" spans="11:11">
+      <c r="K557" s="10"/>
+    </row>
+    <row r="558" spans="11:11">
+      <c r="K558" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10861,7 +11660,7 @@
     <mergeCell ref="D49:D55"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J300:J507">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J300:J513">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C142:C1048576 C72:C140">
@@ -10870,7 +11669,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B142:B1048576 B72:B140">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K552">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K558">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J299">
@@ -10961,8 +11760,15 @@
     <hyperlink ref="H442" r:id="rId81"/>
     <hyperlink ref="H447" r:id="rId82"/>
     <hyperlink ref="H452" r:id="rId83"/>
+    <hyperlink ref="H456" r:id="rId84" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H459" r:id="rId85" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H463" r:id="rId86" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H467" r:id="rId87" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H470" r:id="rId88" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H479" r:id="rId89" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H490" r:id="rId90" display="http://mediwarecloud.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>
--- a/Test Case/Prapancha/Test Case- EMR OP.xlsx
+++ b/Test Case/Prapancha/Test Case- EMR OP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="989">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2499,9 +2499,6 @@
     <t>MED_EMR OP_TC_087</t>
   </si>
   <si>
-    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;ER Examinations&gt;&gt;Physical Examination</t>
-  </si>
-  <si>
     <t>Click on New option and enter data in fields and click save option</t>
   </si>
   <si>
@@ -2517,9 +2514,6 @@
     <t>http://mediwarecloud.com/</t>
   </si>
   <si>
-    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Reports&gt;&gt;Investigation status</t>
-  </si>
-  <si>
     <t>Investigation status page should be displayed</t>
   </si>
   <si>
@@ -2550,9 +2544,6 @@
     <t>Verify Tabular Lab Results under Reports</t>
   </si>
   <si>
-    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Reports&gt;&gt;Tabular Lab Results</t>
-  </si>
-  <si>
     <t>Enter date in fields and click show option</t>
   </si>
   <si>
@@ -2580,9 +2571,6 @@
     <t>Verify Radiology Results under Reports</t>
   </si>
   <si>
-    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Reports&gt;&gt;Radiology Results</t>
-  </si>
-  <si>
     <t>PACS Result View</t>
   </si>
   <si>
@@ -2602,10 +2590,6 @@
   </si>
   <si>
     <t>MED_EMR OP_TC_092</t>
-  </si>
-  <si>
-    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Reports&gt;&gt;Radiology Results
-View</t>
   </si>
   <si>
     <t>Verify data displayed</t>
@@ -2690,9 +2674,6 @@
     <t>Verify Surgery Request</t>
   </si>
   <si>
-    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Requests&gt;&gt;Surgery request</t>
-  </si>
-  <si>
     <t>Diagnosis View</t>
   </si>
   <si>
@@ -2765,9 +2746,6 @@
     <t>Verify surgery Request List</t>
   </si>
   <si>
-    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Requests&gt;&gt;Surgery request List</t>
-  </si>
-  <si>
     <t>New Surgery</t>
   </si>
   <si>
@@ -2793,6 +2771,499 @@
   </si>
   <si>
     <t>Enter data in fields and click save option</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_096</t>
+  </si>
+  <si>
+    <t>Verify Physiotherapy Referal Request</t>
+  </si>
+  <si>
+    <t>Add Doctor to List</t>
+  </si>
+  <si>
+    <t>Doctor should be listed</t>
+  </si>
+  <si>
+    <t>Verify data displayed in refrence History and click send request&amp; continue option</t>
+  </si>
+  <si>
+    <t>Referal Request should get send</t>
+  </si>
+  <si>
+    <t>Try to add a doctor to list on clicking "Add Doctor to list" option and enter data in reason field and fill other blank fields at footer of page</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_097</t>
+  </si>
+  <si>
+    <t>Verify Antenatal Notes can be saved</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_098</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Antenatal Notes&gt;&gt;Antenatal Course</t>
+  </si>
+  <si>
+    <t>Antenatal Notes page should be displayed</t>
+  </si>
+  <si>
+    <t>Antenatal Course page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_099</t>
+  </si>
+  <si>
+    <t>Verify Previous pregnancies can be saved</t>
+  </si>
+  <si>
+    <t>Verify Antenatal Course can be saved</t>
+  </si>
+  <si>
+    <t>Previous pregnancies page should be displayed</t>
+  </si>
+  <si>
+    <t>Add Item</t>
+  </si>
+  <si>
+    <t>Click add item option</t>
+  </si>
+  <si>
+    <t>Click add item option and enter data and save changes</t>
+  </si>
+  <si>
+    <t>Verify Antenatal summary</t>
+  </si>
+  <si>
+    <t>Antenatal summary page should be displayed</t>
+  </si>
+  <si>
+    <t>Click show All option</t>
+  </si>
+  <si>
+    <t>Date wise search</t>
+  </si>
+  <si>
+    <t>Click on search option after selecting date</t>
+  </si>
+  <si>
+    <t>Select doctor from dropdown list</t>
+  </si>
+  <si>
+    <t>Searched details should be displayed</t>
+  </si>
+  <si>
+    <t>All data should be displayed</t>
+  </si>
+  <si>
+    <t>Doctor should get selected</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0100</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0101</t>
+  </si>
+  <si>
+    <t>Verify Urodynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urodynamics page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0102</t>
+  </si>
+  <si>
+    <t>Verify Cord Prolapse</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select ER Examinations under patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;Cord Prolapse</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cord Prolapse page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify OBG Medical Report</t>
+  </si>
+  <si>
+    <t>OBG Medical Report page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0104</t>
+  </si>
+  <si>
+    <t>Verify Gynacology Report</t>
+  </si>
+  <si>
+    <t>Gynacology Report page should be dispalyed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to add a new report on clicking New </t>
+  </si>
+  <si>
+    <t>Enter data in fields and click submit option</t>
+  </si>
+  <si>
+    <t>New request should be added</t>
+  </si>
+  <si>
+    <t>Verify Evaluation pregnancy</t>
+  </si>
+  <si>
+    <t>Try to add a new report on clicking New</t>
+  </si>
+  <si>
+    <t>New data  should be added</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0106</t>
+  </si>
+  <si>
+    <t>Verify Obstetrics Ultrasonography-Nt Scan</t>
+  </si>
+  <si>
+    <t>Obstetrics Ultrasonography-Nt Scan page should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0107</t>
+  </si>
+  <si>
+    <t>Verify Ultrasound OB/GYN</t>
+  </si>
+  <si>
+    <t>Click on maximise/minimize option under the header</t>
+  </si>
+  <si>
+    <t>Header details should get maximised/minimised</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0108</t>
+  </si>
+  <si>
+    <t>Add New</t>
+  </si>
+  <si>
+    <t>Verify Antenatal Visit Reco</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0109</t>
+  </si>
+  <si>
+    <t>Verify Delivery Room Bookin</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0110</t>
+  </si>
+  <si>
+    <t>Verify Operating Room Book</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0111</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0112</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0113</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0114</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0115</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0116</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0117</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0118</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0119</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify H&amp;P Assessment OB-G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Medical Report </t>
+  </si>
+  <si>
+    <t>Verify Humpty Dumpty Fall RiskAssessment</t>
+  </si>
+  <si>
+    <t>Select Department,Doctor and click Add Doctor button</t>
+  </si>
+  <si>
+    <t>Enter data in Reason field and click save option</t>
+  </si>
+  <si>
+    <t>Data should be added with a notification message</t>
+  </si>
+  <si>
+    <t>Print Reference history</t>
+  </si>
+  <si>
+    <t>Delete row of reference history</t>
+  </si>
+  <si>
+    <t>Click Delete option</t>
+  </si>
+  <si>
+    <t>Close Reference history</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> printing page should be closed</t>
+  </si>
+  <si>
+    <t>Verify Fall Risk Assessment-Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Physiotherapy Assessment </t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt; under patient OP Consultation&gt;&gt;Physiotherapy Templates&gt;&gt;Physiotherapy Referal Request</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Physiotherapy Templates&gt;&gt;Humpty Dumpty Fall Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on consulted status of a patient&gt;&gt; under patient OP Consultation&gt;&gt;Physiotherapy Templates&gt;&gt;Medical Report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;H&amp;P Assessment OB-G </t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select   patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;Operating Room Book</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select  patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;Delivery Room Bookin</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;Antenatal Visit Reco</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select  patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;Ultrasound OB/GYN</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;Obstetrics Ultrasonography-Nt Scan</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;Evaluation pregnancy</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;Gynacology Report</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;OBG Medical Report</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Gynic Templates&gt;&gt;Urodynamics</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Antenatal Notes&gt;&gt;Antenatal summary</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select  patient OP Consultation&gt;&gt;Antenatal Notes&gt;&gt;Previous pregancies</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Antenatal Notes&gt;&gt;Antenatal Notes</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Requests&gt;&gt;Physiotherapy Referal Request</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Requests&gt;&gt;Surgery request List</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Requests&gt;&gt;Surgery request</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Reports&gt;&gt;Radiology Results
+View</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Reports&gt;&gt;Radiology Results</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Reports&gt;&gt;Tabular Lab Results</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;Reports&gt;&gt;Investigation status</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;Select patient OP Consultation&gt;&gt;ER Examinations&gt;&gt;Physical Examination</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Physiotherapy Templates&gt;&gt;Fall Risk Assessment-</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt; under patient OP Consultation&gt;&gt;Physiotherapy Templates&gt;&gt;Physiotherapy Assessment</t>
+  </si>
+  <si>
+    <t>Verify Clinical Nutrition</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt; under patient OP Consultation&gt;&gt;Nutrition Assessment&gt;&gt;Clinical Nutrition</t>
+  </si>
+  <si>
+    <t>Verify  Clinical Nutrition Assessment</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;patient OP Consultation&gt;&gt;Nutrition Assessment&gt;&gt;Clinical Nutrition Assessment</t>
+  </si>
+  <si>
+    <t>Verify  Clinical Nutrition Re- Assessment</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;patient OP Consultation&gt;&gt;Nutrition Assessment&gt;&gt;Clinical Nutrition Re- Assessment</t>
+  </si>
+  <si>
+    <t>Verify Nutritionist Followup Notes</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Nutrition Assessment&gt;&gt;Nutritionist Followup Notes</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0121</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0122</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0123</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0124</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0125</t>
+  </si>
+  <si>
+    <t>Verify Triage Assessment</t>
+  </si>
+  <si>
+    <t>Verify Pediatric Assessment</t>
+  </si>
+  <si>
+    <t>Verify IO-P Record</t>
+  </si>
+  <si>
+    <t>Verify Discharge Order</t>
+  </si>
+  <si>
+    <t>Verify Inter Disiplinary</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;Triage Assessment</t>
+  </si>
+  <si>
+    <t>Enter data in fields and click Save option</t>
+  </si>
+  <si>
+    <t>Try to add a note  on clicking New</t>
+  </si>
+  <si>
+    <t>Try to add a new data on clicking New</t>
+  </si>
+  <si>
+    <t>Try to add a new data  on clicking New</t>
+  </si>
+  <si>
+    <t>Try to add a new request on clicking New</t>
+  </si>
+  <si>
+    <t>Click previous/Next Options</t>
+  </si>
+  <si>
+    <t>Previous/Next page should be displayed</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;pediatric Assessment</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;IO-P Record</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;Discharge Order</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;Inter Disiplinary</t>
+  </si>
+  <si>
+    <t>previous/Next option</t>
+  </si>
+  <si>
+    <t>Try to add a new data on clicking New and enter data on clicking save changes</t>
+  </si>
+  <si>
+    <t>New data should be added</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0126</t>
+  </si>
+  <si>
+    <t>Verify Patient and Family Education</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0127</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0128</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0129</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0130</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;Patient and Family Education</t>
+  </si>
+  <si>
+    <t>Verify Nurse Assessment</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt; Nurse Assessment</t>
+  </si>
+  <si>
+    <t>Verify Progress Note</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;Progress Note</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;Clinical Nutrition</t>
+  </si>
+  <si>
+    <t>Verify Clinical Nutrition Assessment</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;Clinical Nutrition Assessment</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0131</t>
+  </si>
+  <si>
+    <t>Verify ER PHYSICIAN ASSESSMENT FORM II</t>
+  </si>
+  <si>
+    <t>Click on consulted status of a patient&gt;&gt;under patient OP Consultation&gt;&gt;Templates&gt;&gt;Verify ER PHYSICIAN ASSESSMENT FORM II</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +3390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2991,6 +3462,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3324,11 +3801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R558"/>
+  <dimension ref="A1:R679"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H490" sqref="H490"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F680" sqref="F680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3336,7 +3813,7 @@
     <col min="1" max="1" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="15" customWidth="1"/>
     <col min="6" max="6" width="43.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="53.140625" style="9" customWidth="1"/>
@@ -3403,7 +3880,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7">
@@ -3423,7 +3900,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>18</v>
@@ -3437,7 +3914,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -3473,7 +3950,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -3503,7 +3980,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="30">
-      <c r="D5" s="28"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -3523,7 +4000,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="210">
-      <c r="D6" s="28"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -3536,7 +4013,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="225">
-      <c r="D7" s="28"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -3549,7 +4026,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="D8" s="28"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -3562,7 +4039,7 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:18" ht="30">
-      <c r="D9" s="28"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -3575,7 +4052,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="270">
-      <c r="D10" s="28"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="15">
         <v>9</v>
       </c>
@@ -3597,7 +4074,7 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="32" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="7">
@@ -3609,7 +4086,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="30"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="7">
         <v>2</v>
       </c>
@@ -3622,7 +4099,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1">
-      <c r="D13" s="30"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="7">
         <v>3</v>
       </c>
@@ -3635,7 +4112,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="30">
-      <c r="D14" s="30"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="7">
         <v>4</v>
       </c>
@@ -3648,7 +4125,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="30">
-      <c r="D15" s="30"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="7">
         <v>5</v>
       </c>
@@ -3661,7 +4138,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="94.5">
-      <c r="D16" s="30"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="7">
         <v>6</v>
       </c>
@@ -3674,7 +4151,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="45">
-      <c r="D17" s="30"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="7">
         <v>7</v>
       </c>
@@ -3687,7 +4164,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="D18" s="30"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="7">
         <v>8</v>
       </c>
@@ -3700,7 +4177,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="30">
-      <c r="D19" s="30"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="7">
         <v>9</v>
       </c>
@@ -3713,7 +4190,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="30">
-      <c r="D20" s="30"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="7">
         <v>10</v>
       </c>
@@ -3726,7 +4203,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="30">
-      <c r="D21" s="30"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="7">
         <v>11</v>
       </c>
@@ -3739,7 +4216,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="30">
-      <c r="D22" s="30"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="7">
         <v>12</v>
       </c>
@@ -3752,7 +4229,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
-      <c r="D23" s="30"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="7">
         <v>13</v>
       </c>
@@ -3765,7 +4242,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="150">
-      <c r="D24" s="30"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="7">
         <v>14</v>
       </c>
@@ -3787,7 +4264,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="30" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="7">
@@ -3799,7 +4276,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="30">
-      <c r="D26" s="28"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="7">
         <v>2</v>
       </c>
@@ -3815,7 +4292,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="30">
-      <c r="D27" s="28"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="7">
         <v>3</v>
       </c>
@@ -3828,7 +4305,7 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1">
-      <c r="D28" s="28"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="7">
         <v>4</v>
       </c>
@@ -3841,7 +4318,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="135">
-      <c r="D29" s="28"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="7">
         <v>5</v>
       </c>
@@ -3863,7 +4340,7 @@
       <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="30" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="15">
@@ -3875,7 +4352,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="30">
-      <c r="D31" s="28"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="15">
         <v>2</v>
       </c>
@@ -3891,7 +4368,7 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="30">
-      <c r="D32" s="28"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="15">
         <v>3</v>
       </c>
@@ -3904,7 +4381,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="4:11" ht="60" customHeight="1">
-      <c r="D33" s="28"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="15">
         <v>4</v>
       </c>
@@ -3917,7 +4394,7 @@
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="4:11" ht="135">
-      <c r="D34" s="28"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="15">
         <v>5</v>
       </c>
@@ -3930,7 +4407,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="4:11" ht="30">
-      <c r="D35" s="28"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="15">
         <v>6</v>
       </c>
@@ -3943,7 +4420,7 @@
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="4:11" ht="30">
-      <c r="D36" s="28"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="15">
         <v>7</v>
       </c>
@@ -3956,7 +4433,7 @@
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="4:11" ht="30">
-      <c r="D37" s="28"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="15">
         <v>8</v>
       </c>
@@ -3969,7 +4446,7 @@
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="4:11" ht="30">
-      <c r="D38" s="28"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="15">
         <v>9</v>
       </c>
@@ -3982,7 +4459,7 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="4:11" ht="135">
-      <c r="D39" s="28"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="15">
         <v>10</v>
       </c>
@@ -3995,7 +4472,7 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="4:11" ht="45" customHeight="1">
-      <c r="D40" s="28"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="15">
         <v>11</v>
       </c>
@@ -4008,7 +4485,7 @@
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="28"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="15">
         <v>12</v>
       </c>
@@ -4021,7 +4498,7 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="28"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="15">
         <v>13</v>
       </c>
@@ -4034,7 +4511,7 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="4:11">
-      <c r="D43" s="28"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="15">
         <v>14</v>
       </c>
@@ -4047,7 +4524,7 @@
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="28"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="15">
         <v>15</v>
       </c>
@@ -4060,7 +4537,7 @@
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="4:11" ht="30">
-      <c r="D45" s="28"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="15">
         <v>16</v>
       </c>
@@ -4073,7 +4550,7 @@
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="4:11" ht="45" customHeight="1">
-      <c r="D46" s="28"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="15">
         <v>17</v>
       </c>
@@ -4086,7 +4563,7 @@
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="4:11" ht="30">
-      <c r="D47" s="28"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="15">
         <v>18</v>
       </c>
@@ -4099,7 +4576,7 @@
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="28"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="15">
         <v>19</v>
       </c>
@@ -4121,7 +4598,7 @@
       <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="32" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="7">
@@ -4133,7 +4610,7 @@
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="30">
-      <c r="D50" s="30"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="7">
         <v>2</v>
       </c>
@@ -4149,7 +4626,7 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="30">
-      <c r="D51" s="30"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="7">
         <v>3</v>
       </c>
@@ -4162,7 +4639,7 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="180">
-      <c r="D52" s="30"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="7">
         <v>4</v>
       </c>
@@ -4175,7 +4652,7 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="60">
-      <c r="D53" s="30"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="7">
         <v>5</v>
       </c>
@@ -4188,7 +4665,7 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1">
-      <c r="D54" s="30"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="7">
         <v>6</v>
       </c>
@@ -4201,7 +4678,7 @@
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11" ht="45">
-      <c r="D55" s="30"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="7">
         <v>7</v>
       </c>
@@ -4223,7 +4700,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="30" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="7">
@@ -4238,7 +4715,7 @@
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="D57" s="28"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="7">
         <v>2</v>
       </c>
@@ -4251,7 +4728,7 @@
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11" ht="120">
-      <c r="D58" s="28"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="7">
         <v>3</v>
       </c>
@@ -4264,7 +4741,7 @@
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1">
-      <c r="D59" s="28"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="7">
         <v>4</v>
       </c>
@@ -4277,7 +4754,7 @@
       <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11" ht="30">
-      <c r="D60" s="28"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="7">
         <v>5</v>
       </c>
@@ -4290,7 +4767,7 @@
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="D61" s="28"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="7">
         <v>6</v>
       </c>
@@ -4303,7 +4780,7 @@
       <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" ht="90">
-      <c r="D62" s="28"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="7">
         <v>7</v>
       </c>
@@ -4316,7 +4793,7 @@
       <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11" ht="126" customHeight="1">
-      <c r="D63" s="28"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="7">
         <v>8</v>
       </c>
@@ -4329,7 +4806,7 @@
       <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" ht="30">
-      <c r="D64" s="28"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="7">
         <v>9</v>
       </c>
@@ -4342,7 +4819,7 @@
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" ht="30">
-      <c r="D65" s="28"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="7">
         <v>10</v>
       </c>
@@ -4355,7 +4832,7 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="120">
-      <c r="D66" s="28"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="7">
         <v>11</v>
       </c>
@@ -4368,7 +4845,7 @@
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="99.75" customHeight="1">
-      <c r="D67" s="28"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="7">
         <v>12</v>
       </c>
@@ -4381,7 +4858,7 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="105">
-      <c r="D68" s="28"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="7">
         <v>13</v>
       </c>
@@ -4394,7 +4871,7 @@
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11" ht="60">
-      <c r="D69" s="28"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="7">
         <v>14</v>
       </c>
@@ -4407,7 +4884,7 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="90">
-      <c r="D70" s="28"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="7">
         <v>15</v>
       </c>
@@ -7187,7 +7664,7 @@
       </c>
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="1:11" ht="45">
+    <row r="241" spans="1:11" ht="30">
       <c r="A241" s="9" t="s">
         <v>489</v>
       </c>
@@ -8566,7 +9043,7 @@
       <c r="J327" s="10"/>
       <c r="K327" s="10"/>
     </row>
-    <row r="328" spans="1:11" ht="30">
+    <row r="328" spans="1:11">
       <c r="D328" s="9" t="s">
         <v>600</v>
       </c>
@@ -10558,7 +11035,7 @@
         <v>719</v>
       </c>
       <c r="H442" s="24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J442" s="10"/>
       <c r="K442" s="10"/>
@@ -10621,7 +11098,7 @@
       <c r="J446" s="10"/>
       <c r="K446" s="10"/>
     </row>
-    <row r="447" spans="1:11" ht="45">
+    <row r="447" spans="1:11" ht="51.75" customHeight="1">
       <c r="A447" s="9" t="s">
         <v>733</v>
       </c>
@@ -10641,17 +11118,17 @@
         <v>719</v>
       </c>
       <c r="H447" s="24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J447" s="10"/>
       <c r="K447" s="10"/>
     </row>
-    <row r="448" spans="1:11" ht="60">
+    <row r="448" spans="1:11" ht="66" customHeight="1">
       <c r="E448" s="15">
         <v>2</v>
       </c>
       <c r="F448" s="9" t="s">
-        <v>734</v>
+        <v>935</v>
       </c>
       <c r="J448" s="10"/>
       <c r="K448" s="10"/>
@@ -10680,7 +11157,7 @@
         <v>4</v>
       </c>
       <c r="F450" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G450" s="9" t="s">
         <v>658</v>
@@ -10699,14 +11176,14 @@
         <v>595</v>
       </c>
       <c r="G451" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J451" s="10"/>
       <c r="K451" s="10"/>
     </row>
     <row r="452" spans="1:11" ht="45">
       <c r="A452" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B452" s="26" t="s">
         <v>185</v>
@@ -10715,7 +11192,7 @@
         <v>14</v>
       </c>
       <c r="D452" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E452" s="15">
         <v>1</v>
@@ -10724,7 +11201,7 @@
         <v>719</v>
       </c>
       <c r="H452" s="24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J452" s="10"/>
       <c r="K452" s="10"/>
@@ -10734,10 +11211,10 @@
         <v>2</v>
       </c>
       <c r="F453" s="9" t="s">
-        <v>740</v>
+        <v>934</v>
       </c>
       <c r="G453" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J453" s="10"/>
       <c r="K453" s="10"/>
@@ -10750,7 +11227,7 @@
         <v>3</v>
       </c>
       <c r="F454" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G454" s="9" t="s">
         <v>144</v>
@@ -10766,17 +11243,17 @@
         <v>4</v>
       </c>
       <c r="F455" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G455" s="9" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J455" s="10"/>
       <c r="K455" s="10"/>
     </row>
     <row r="456" spans="1:11" ht="45">
       <c r="A456" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B456" s="27" t="s">
         <v>185</v>
@@ -10785,7 +11262,7 @@
         <v>14</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E456" s="15">
         <v>1</v>
@@ -10804,10 +11281,10 @@
         <v>2</v>
       </c>
       <c r="F457" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="G457" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="G457" s="9" t="s">
-        <v>749</v>
       </c>
       <c r="J457" s="10"/>
       <c r="K457" s="10"/>
@@ -10817,7 +11294,7 @@
         <v>3</v>
       </c>
       <c r="F458" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G458" s="9" t="s">
         <v>152</v>
@@ -10827,7 +11304,7 @@
     </row>
     <row r="459" spans="1:11" ht="45">
       <c r="A459" s="9" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B459" s="27" t="s">
         <v>185</v>
@@ -10836,7 +11313,7 @@
         <v>14</v>
       </c>
       <c r="D459" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E459" s="15">
         <v>1</v>
@@ -10855,26 +11332,26 @@
         <v>2</v>
       </c>
       <c r="F460" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="G460" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="G460" s="9" t="s">
-        <v>754</v>
       </c>
       <c r="J460" s="10"/>
       <c r="K460" s="10"/>
     </row>
     <row r="461" spans="1:11">
       <c r="D461" s="15" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E461" s="15">
         <v>3</v>
       </c>
       <c r="F461" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="G461" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="G461" s="9" t="s">
-        <v>755</v>
       </c>
       <c r="J461" s="10"/>
       <c r="K461" s="10"/>
@@ -10884,17 +11361,17 @@
         <v>4</v>
       </c>
       <c r="F462" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="G462" s="9" t="s">
         <v>753</v>
-      </c>
-      <c r="G462" s="9" t="s">
-        <v>756</v>
       </c>
       <c r="J462" s="10"/>
       <c r="K462" s="10"/>
     </row>
     <row r="463" spans="1:11" ht="45">
       <c r="A463" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B463" s="27" t="s">
         <v>185</v>
@@ -10903,7 +11380,7 @@
         <v>14</v>
       </c>
       <c r="D463" s="9" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E463" s="15">
         <v>1</v>
@@ -10922,23 +11399,23 @@
         <v>2</v>
       </c>
       <c r="F464" s="9" t="s">
-        <v>761</v>
+        <v>932</v>
       </c>
       <c r="G464" s="9" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="J464" s="10"/>
       <c r="K464" s="10"/>
     </row>
     <row r="465" spans="1:11">
       <c r="D465" s="15" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E465" s="15">
         <v>3</v>
       </c>
       <c r="F465" s="9" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="G465" s="9" t="s">
         <v>179</v>
@@ -10948,23 +11425,23 @@
     </row>
     <row r="466" spans="1:11">
       <c r="D466" s="15" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E466" s="15">
         <v>4</v>
       </c>
       <c r="F466" s="9" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G466" s="9" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J466" s="10"/>
       <c r="K466" s="10"/>
     </row>
     <row r="467" spans="1:11" ht="45">
       <c r="A467" s="9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B467" s="27" t="s">
         <v>185</v>
@@ -10992,10 +11469,10 @@
         <v>2</v>
       </c>
       <c r="F468" s="9" t="s">
-        <v>769</v>
+        <v>931</v>
       </c>
       <c r="G468" s="9" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="J468" s="10"/>
       <c r="K468" s="10"/>
@@ -11005,17 +11482,17 @@
         <v>3</v>
       </c>
       <c r="F469" s="9" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G469" s="9" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="J469" s="10"/>
       <c r="K469" s="10"/>
     </row>
     <row r="470" spans="1:11" ht="45">
       <c r="A470" s="9" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B470" s="27" t="s">
         <v>185</v>
@@ -11024,7 +11501,7 @@
         <v>14</v>
       </c>
       <c r="D470" s="15" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E470" s="15">
         <v>1</v>
@@ -11043,10 +11520,10 @@
         <v>2</v>
       </c>
       <c r="F471" s="9" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G471" s="9" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="J471" s="10"/>
       <c r="K471" s="10"/>
@@ -11058,26 +11535,26 @@
         <v>3</v>
       </c>
       <c r="F472" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="G472" s="9" t="s">
         <v>779</v>
-      </c>
-      <c r="G472" s="9" t="s">
-        <v>784</v>
       </c>
       <c r="J472" s="10"/>
       <c r="K472" s="10"/>
     </row>
     <row r="473" spans="1:11" ht="41.25" customHeight="1">
       <c r="D473" s="15" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E473" s="15">
         <v>4</v>
       </c>
       <c r="F473" s="9" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G473" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="J473" s="10"/>
       <c r="K473" s="10"/>
@@ -11086,16 +11563,16 @@
       <c r="B474" s="27"/>
       <c r="C474" s="27"/>
       <c r="D474" s="15" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E474" s="15">
         <v>5</v>
       </c>
       <c r="F474" s="9" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G474" s="9" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="J474" s="10"/>
       <c r="K474" s="10"/>
@@ -11104,45 +11581,45 @@
       <c r="B475" s="27"/>
       <c r="C475" s="27"/>
       <c r="D475" s="15" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F475" s="9" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G475" s="9" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="J475" s="10"/>
       <c r="K475" s="10"/>
     </row>
     <row r="476" spans="1:11">
       <c r="D476" s="15" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E476" s="15">
         <v>5</v>
       </c>
       <c r="F476" s="9" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G476" s="9" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="J476" s="10"/>
       <c r="K476" s="10"/>
     </row>
     <row r="477" spans="1:11">
       <c r="D477" s="15" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E477" s="15">
         <v>6</v>
       </c>
       <c r="F477" s="9" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G477" s="9" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="J477" s="10"/>
       <c r="K477" s="10"/>
@@ -11155,7 +11632,7 @@
         <v>7</v>
       </c>
       <c r="F478" s="9" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G478" s="9" t="s">
         <v>521</v>
@@ -11165,7 +11642,7 @@
     </row>
     <row r="479" spans="1:11" ht="45">
       <c r="A479" s="9" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B479" s="27" t="s">
         <v>185</v>
@@ -11174,7 +11651,7 @@
         <v>14</v>
       </c>
       <c r="D479" s="15" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E479" s="15">
         <v>1</v>
@@ -11193,36 +11670,36 @@
         <v>2</v>
       </c>
       <c r="F480" s="9" t="s">
-        <v>797</v>
+        <v>930</v>
       </c>
       <c r="J480" s="10"/>
       <c r="K480" s="10"/>
     </row>
     <row r="481" spans="1:11" ht="30">
       <c r="D481" s="15" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E481" s="15">
         <v>3</v>
       </c>
       <c r="F481" s="9" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G481" s="9" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J481" s="10"/>
       <c r="K481" s="10"/>
     </row>
     <row r="482" spans="1:11" ht="30">
       <c r="D482" s="15" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="E482" s="15">
         <v>4</v>
       </c>
       <c r="F482" s="9" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="J482" s="10"/>
       <c r="K482" s="10"/>
@@ -11237,71 +11714,71 @@
         <v>518</v>
       </c>
       <c r="G483" s="9" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="J483" s="10"/>
       <c r="K483" s="10"/>
     </row>
     <row r="484" spans="1:11" ht="30">
       <c r="D484" s="15" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="E484" s="15">
         <v>6</v>
       </c>
       <c r="F484" s="9" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="G484" s="9" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="J484" s="10"/>
       <c r="K484" s="10"/>
     </row>
     <row r="485" spans="1:11">
       <c r="D485" s="15" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E485" s="15">
         <v>7</v>
       </c>
       <c r="F485" s="9" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G485" s="9" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="J485" s="10"/>
       <c r="K485" s="10"/>
     </row>
     <row r="486" spans="1:11" ht="33.75" customHeight="1">
       <c r="D486" s="9" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="E486" s="15">
         <v>8</v>
       </c>
       <c r="F486" s="9" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="G486" s="9" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="J486" s="10"/>
       <c r="K486" s="10"/>
     </row>
     <row r="487" spans="1:11" ht="47.25" customHeight="1">
       <c r="D487" s="15" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E487" s="15">
         <v>9</v>
       </c>
       <c r="F487" s="9" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G487" s="9" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="J487" s="10"/>
       <c r="K487" s="10"/>
@@ -11314,10 +11791,10 @@
         <v>10</v>
       </c>
       <c r="F488" s="9" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G488" s="9" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="J488" s="10"/>
       <c r="K488" s="10"/>
@@ -11330,17 +11807,17 @@
         <v>11</v>
       </c>
       <c r="F489" s="9" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G489" s="9" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="J489" s="10"/>
       <c r="K489" s="10"/>
     </row>
     <row r="490" spans="1:11" ht="63" customHeight="1">
       <c r="A490" s="9" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B490" s="27" t="s">
         <v>185</v>
@@ -11349,7 +11826,7 @@
         <v>14</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E490" s="15">
         <v>1</v>
@@ -11368,10 +11845,10 @@
         <v>2</v>
       </c>
       <c r="F491" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="G491" s="9" t="s">
         <v>822</v>
-      </c>
-      <c r="G491" s="9" t="s">
-        <v>829</v>
       </c>
       <c r="J491" s="10"/>
       <c r="K491" s="10"/>
@@ -11384,7 +11861,7 @@
         <v>3</v>
       </c>
       <c r="F492" s="9" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="G492" s="9" t="s">
         <v>144</v>
@@ -11394,13 +11871,13 @@
     </row>
     <row r="493" spans="1:11" ht="30">
       <c r="D493" s="15" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="E493" s="15">
         <v>4</v>
       </c>
       <c r="F493" s="9" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="J493" s="10"/>
       <c r="K493" s="10"/>
@@ -11412,7 +11889,7 @@
         <v>5</v>
       </c>
       <c r="F494" s="9" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="J494" s="10"/>
       <c r="K494" s="10"/>
@@ -11421,10 +11898,10 @@
       <c r="B495" s="27"/>
       <c r="C495" s="27"/>
       <c r="F495" s="9" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="G495" s="9" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="J495" s="10"/>
       <c r="K495" s="10"/>
@@ -11437,218 +11914,2732 @@
         <v>6</v>
       </c>
       <c r="F496" s="9" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G496" s="9" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="J496" s="10"/>
       <c r="K496" s="10"/>
     </row>
-    <row r="497" spans="2:11">
-      <c r="B497" s="27"/>
-      <c r="C497" s="27"/>
+    <row r="497" spans="1:11" ht="45">
+      <c r="A497" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="B497" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C497" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D497" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="E497" s="15">
+        <v>1</v>
+      </c>
+      <c r="F497" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H497" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J497" s="10"/>
       <c r="K497" s="10"/>
     </row>
-    <row r="498" spans="2:11">
+    <row r="498" spans="1:11" ht="84" customHeight="1">
+      <c r="E498" s="15">
+        <v>2</v>
+      </c>
+      <c r="F498" s="9" t="s">
+        <v>928</v>
+      </c>
       <c r="J498" s="10"/>
       <c r="K498" s="10"/>
     </row>
-    <row r="499" spans="2:11">
+    <row r="499" spans="1:11" ht="21.75" customHeight="1">
+      <c r="B499" s="28"/>
+      <c r="C499" s="28"/>
+      <c r="E499" s="15">
+        <v>3</v>
+      </c>
+      <c r="F499" s="9" t="s">
+        <v>208</v>
+      </c>
       <c r="J499" s="10"/>
       <c r="K499" s="10"/>
     </row>
-    <row r="500" spans="2:11">
+    <row r="500" spans="1:11" ht="60">
+      <c r="D500" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="E500" s="15">
+        <v>4</v>
+      </c>
+      <c r="F500" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="G500" s="9" t="s">
+        <v>828</v>
+      </c>
       <c r="J500" s="10"/>
       <c r="K500" s="10"/>
     </row>
-    <row r="501" spans="2:11">
+    <row r="501" spans="1:11">
+      <c r="E501" s="15">
+        <v>5</v>
+      </c>
+      <c r="F501" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G501" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="J501" s="10"/>
       <c r="K501" s="10"/>
     </row>
-    <row r="502" spans="2:11">
+    <row r="502" spans="1:11" ht="30">
+      <c r="E502" s="15">
+        <v>6</v>
+      </c>
+      <c r="F502" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="G502" s="9" t="s">
+        <v>830</v>
+      </c>
       <c r="J502" s="10"/>
       <c r="K502" s="10"/>
     </row>
-    <row r="503" spans="2:11">
+    <row r="503" spans="1:11" ht="45">
+      <c r="A503" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B503" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C503" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D503" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="E503" s="15">
+        <v>1</v>
+      </c>
+      <c r="F503" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H503" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J503" s="10"/>
       <c r="K503" s="10"/>
     </row>
-    <row r="504" spans="2:11">
+    <row r="504" spans="1:11" ht="85.5" customHeight="1">
+      <c r="E504" s="15">
+        <v>2</v>
+      </c>
+      <c r="F504" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="G504" s="9" t="s">
+        <v>836</v>
+      </c>
       <c r="J504" s="10"/>
       <c r="K504" s="10"/>
     </row>
-    <row r="505" spans="2:11">
+    <row r="505" spans="1:11">
+      <c r="E505" s="15">
+        <v>3</v>
+      </c>
+      <c r="F505" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="G505" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J505" s="10"/>
       <c r="K505" s="10"/>
     </row>
-    <row r="506" spans="2:11">
+    <row r="506" spans="1:11" ht="45">
+      <c r="A506" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B506" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C506" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D506" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="E506" s="15">
+        <v>1</v>
+      </c>
+      <c r="F506" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H506" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J506" s="10"/>
       <c r="K506" s="10"/>
     </row>
-    <row r="507" spans="2:11">
+    <row r="507" spans="1:11" ht="60">
+      <c r="E507" s="15">
+        <v>2</v>
+      </c>
+      <c r="F507" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="G507" s="9" t="s">
+        <v>837</v>
+      </c>
       <c r="J507" s="10"/>
       <c r="K507" s="10"/>
     </row>
-    <row r="508" spans="2:11">
+    <row r="508" spans="1:11" ht="30">
+      <c r="B508" s="28"/>
+      <c r="C508" s="28"/>
+      <c r="D508" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="E508" s="15">
+        <v>3</v>
+      </c>
+      <c r="F508" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="G508" s="9" t="s">
+        <v>482</v>
+      </c>
       <c r="J508" s="10"/>
       <c r="K508" s="10"/>
     </row>
-    <row r="509" spans="2:11">
+    <row r="509" spans="1:11">
+      <c r="B509" s="28"/>
+      <c r="C509" s="28"/>
+      <c r="D509" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E509" s="15">
+        <v>4</v>
+      </c>
+      <c r="F509" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="G509" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="J509" s="10"/>
       <c r="K509" s="10"/>
     </row>
-    <row r="510" spans="2:11">
+    <row r="510" spans="1:11">
+      <c r="E510" s="15">
+        <v>5</v>
+      </c>
+      <c r="F510" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="G510" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="J510" s="10"/>
       <c r="K510" s="10"/>
     </row>
-    <row r="511" spans="2:11">
+    <row r="511" spans="1:11" ht="45">
+      <c r="A511" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B511" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C511" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D511" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="E511" s="15">
+        <v>1</v>
+      </c>
+      <c r="F511" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H511" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="J511" s="10"/>
       <c r="K511" s="10"/>
     </row>
-    <row r="512" spans="2:11">
+    <row r="512" spans="1:11" ht="45">
+      <c r="E512" s="15">
+        <v>2</v>
+      </c>
+      <c r="F512" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="G512" s="9" t="s">
+        <v>841</v>
+      </c>
       <c r="J512" s="10"/>
       <c r="K512" s="10"/>
     </row>
-    <row r="513" spans="10:11">
+    <row r="513" spans="1:11">
+      <c r="B513" s="28"/>
+      <c r="C513" s="28"/>
+      <c r="D513" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="E513" s="15">
+        <v>3</v>
+      </c>
+      <c r="F513" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="G513" s="9" t="s">
+        <v>482</v>
+      </c>
       <c r="J513" s="10"/>
       <c r="K513" s="10"/>
     </row>
-    <row r="514" spans="10:11">
+    <row r="514" spans="1:11">
+      <c r="B514" s="28"/>
+      <c r="C514" s="28"/>
+      <c r="D514" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E514" s="15">
+        <v>4</v>
+      </c>
+      <c r="F514" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="G514" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J514" s="10"/>
       <c r="K514" s="10"/>
     </row>
-    <row r="515" spans="10:11">
+    <row r="515" spans="1:11">
+      <c r="E515" s="15">
+        <v>5</v>
+      </c>
+      <c r="F515" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="G515" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J515" s="10"/>
       <c r="K515" s="10"/>
     </row>
-    <row r="516" spans="10:11">
+    <row r="516" spans="1:11" ht="48.75" customHeight="1">
+      <c r="A516" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B516" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C516" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D516" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="E516" s="15">
+        <v>1</v>
+      </c>
+      <c r="F516" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H516" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J516" s="10"/>
       <c r="K516" s="10"/>
     </row>
-    <row r="517" spans="10:11">
+    <row r="517" spans="1:11" ht="45">
+      <c r="E517" s="15">
+        <v>2</v>
+      </c>
+      <c r="F517" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="G517" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="J517" s="10"/>
       <c r="K517" s="10"/>
     </row>
-    <row r="518" spans="10:11">
+    <row r="518" spans="1:11">
+      <c r="B518" s="28"/>
+      <c r="C518" s="28"/>
+      <c r="E518" s="15">
+        <v>3</v>
+      </c>
+      <c r="F518" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="G518" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="J518" s="10"/>
       <c r="K518" s="10"/>
     </row>
-    <row r="519" spans="10:11">
+    <row r="519" spans="1:11">
+      <c r="E519" s="15">
+        <v>4</v>
+      </c>
+      <c r="F519" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="G519" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="J519" s="10"/>
       <c r="K519" s="10"/>
     </row>
-    <row r="520" spans="10:11">
+    <row r="520" spans="1:11">
+      <c r="E520" s="15">
+        <v>5</v>
+      </c>
+      <c r="F520" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="G520" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="K520" s="10"/>
     </row>
-    <row r="521" spans="10:11">
+    <row r="521" spans="1:11">
+      <c r="D521" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="E521" s="15">
+        <v>6</v>
+      </c>
+      <c r="F521" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="G521" s="9" t="s">
+        <v>851</v>
+      </c>
       <c r="K521" s="10"/>
     </row>
-    <row r="522" spans="10:11">
+    <row r="522" spans="1:11" ht="45">
+      <c r="A522" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="B522" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C522" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D522" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="E522" s="15">
+        <v>1</v>
+      </c>
+      <c r="F522" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H522" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K522" s="10"/>
     </row>
-    <row r="523" spans="10:11">
+    <row r="523" spans="1:11" ht="45">
+      <c r="E523" s="15">
+        <v>2</v>
+      </c>
+      <c r="F523" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="G523" s="9" t="s">
+        <v>857</v>
+      </c>
       <c r="K523" s="10"/>
     </row>
-    <row r="524" spans="10:11">
+    <row r="524" spans="1:11" ht="30">
+      <c r="E524" s="15">
+        <v>3</v>
+      </c>
+      <c r="F524" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G524" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K524" s="10"/>
     </row>
-    <row r="525" spans="10:11">
+    <row r="525" spans="1:11" ht="45">
+      <c r="A525" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="B525" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C525" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D525" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="E525" s="15">
+        <v>1</v>
+      </c>
+      <c r="F525" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H525" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K525" s="10"/>
     </row>
-    <row r="526" spans="10:11">
+    <row r="526" spans="1:11" ht="60">
+      <c r="E526" s="15">
+        <v>2</v>
+      </c>
+      <c r="F526" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="G526" s="9" t="s">
+        <v>862</v>
+      </c>
       <c r="K526" s="10"/>
     </row>
-    <row r="527" spans="10:11">
+    <row r="527" spans="1:11" ht="30">
+      <c r="E527" s="15">
+        <v>3</v>
+      </c>
+      <c r="F527" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G527" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K527" s="10"/>
     </row>
-    <row r="528" spans="10:11">
+    <row r="528" spans="1:11" ht="45">
+      <c r="A528" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="B528" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C528" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D528" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="E528" s="15">
+        <v>1</v>
+      </c>
+      <c r="F528" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H528" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K528" s="10"/>
     </row>
-    <row r="529" spans="11:11">
+    <row r="529" spans="1:11" ht="45">
+      <c r="E529" s="15">
+        <v>2</v>
+      </c>
+      <c r="F529" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="G529" s="9" t="s">
+        <v>864</v>
+      </c>
       <c r="K529" s="10"/>
     </row>
-    <row r="530" spans="11:11">
+    <row r="530" spans="1:11" ht="30">
+      <c r="E530" s="15">
+        <v>3</v>
+      </c>
+      <c r="F530" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G530" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K530" s="10"/>
     </row>
-    <row r="531" spans="11:11">
+    <row r="531" spans="1:11" ht="45">
+      <c r="A531" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="B531" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C531" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D531" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="E531" s="15">
+        <v>1</v>
+      </c>
+      <c r="F531" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H531" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K531" s="10"/>
     </row>
-    <row r="532" spans="11:11">
+    <row r="532" spans="1:11" ht="45">
+      <c r="E532" s="15">
+        <v>2</v>
+      </c>
+      <c r="F532" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="G532" s="9" t="s">
+        <v>867</v>
+      </c>
       <c r="K532" s="10"/>
     </row>
-    <row r="533" spans="11:11">
+    <row r="533" spans="1:11" ht="30">
+      <c r="E533" s="15">
+        <v>3</v>
+      </c>
+      <c r="F533" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G533" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K533" s="10"/>
     </row>
-    <row r="534" spans="11:11">
+    <row r="534" spans="1:11">
+      <c r="B534" s="28"/>
+      <c r="C534" s="28"/>
+      <c r="D534" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E534" s="15">
+        <v>4</v>
+      </c>
+      <c r="F534" s="9" t="s">
+        <v>869</v>
+      </c>
       <c r="K534" s="10"/>
     </row>
-    <row r="535" spans="11:11">
+    <row r="535" spans="1:11">
+      <c r="B535" s="28"/>
+      <c r="C535" s="28"/>
+      <c r="E535" s="15">
+        <v>5</v>
+      </c>
+      <c r="F535" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="G535" s="9" t="s">
+        <v>871</v>
+      </c>
       <c r="K535" s="10"/>
     </row>
-    <row r="536" spans="11:11">
+    <row r="536" spans="1:11">
+      <c r="B536" s="28"/>
+      <c r="C536" s="28"/>
+      <c r="D536" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E536" s="15">
+        <v>6</v>
+      </c>
+      <c r="F536" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G536" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="K536" s="10"/>
     </row>
-    <row r="537" spans="11:11">
+    <row r="537" spans="1:11" ht="45">
+      <c r="A537" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="B537" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C537" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D537" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="E537" s="15">
+        <v>1</v>
+      </c>
+      <c r="F537" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H537" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K537" s="10"/>
     </row>
-    <row r="538" spans="11:11">
+    <row r="538" spans="1:11" ht="45">
+      <c r="E538" s="15">
+        <v>2</v>
+      </c>
+      <c r="F538" s="9" t="s">
+        <v>921</v>
+      </c>
       <c r="K538" s="10"/>
     </row>
-    <row r="539" spans="11:11">
+    <row r="539" spans="1:11" ht="30">
+      <c r="E539" s="15">
+        <v>3</v>
+      </c>
+      <c r="F539" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G539" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K539" s="10"/>
     </row>
-    <row r="540" spans="11:11">
+    <row r="540" spans="1:11">
+      <c r="D540" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E540" s="15">
+        <v>4</v>
+      </c>
+      <c r="F540" s="9" t="s">
+        <v>873</v>
+      </c>
       <c r="K540" s="10"/>
     </row>
-    <row r="541" spans="11:11">
+    <row r="541" spans="1:11">
+      <c r="E541" s="15">
+        <v>5</v>
+      </c>
+      <c r="F541" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="G541" s="9" t="s">
+        <v>874</v>
+      </c>
       <c r="K541" s="10"/>
     </row>
-    <row r="542" spans="11:11">
+    <row r="542" spans="1:11">
+      <c r="D542" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E542" s="15">
+        <v>6</v>
+      </c>
+      <c r="F542" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G542" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="K542" s="10"/>
     </row>
-    <row r="543" spans="11:11">
+    <row r="543" spans="1:11" ht="45">
+      <c r="A543" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="B543" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C543" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D543" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="E543" s="15">
+        <v>1</v>
+      </c>
+      <c r="F543" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H543" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K543" s="10"/>
     </row>
-    <row r="544" spans="11:11">
+    <row r="544" spans="1:11" ht="77.25" customHeight="1">
+      <c r="E544" s="15">
+        <v>2</v>
+      </c>
+      <c r="F544" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="G544" s="9" t="s">
+        <v>877</v>
+      </c>
       <c r="K544" s="10"/>
     </row>
-    <row r="545" spans="11:11">
+    <row r="545" spans="1:11" ht="30">
+      <c r="E545" s="15">
+        <v>3</v>
+      </c>
+      <c r="F545" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G545" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K545" s="10"/>
     </row>
-    <row r="546" spans="11:11">
+    <row r="546" spans="1:11">
+      <c r="D546" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E546" s="15">
+        <v>4</v>
+      </c>
+      <c r="F546" s="9" t="s">
+        <v>873</v>
+      </c>
       <c r="K546" s="10"/>
     </row>
-    <row r="547" spans="11:11">
+    <row r="547" spans="1:11">
+      <c r="E547" s="15">
+        <v>5</v>
+      </c>
+      <c r="F547" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="G547" s="9" t="s">
+        <v>874</v>
+      </c>
       <c r="K547" s="10"/>
     </row>
-    <row r="548" spans="11:11">
+    <row r="548" spans="1:11">
+      <c r="D548" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E548" s="15">
+        <v>6</v>
+      </c>
+      <c r="F548" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G548" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="K548" s="10"/>
     </row>
-    <row r="549" spans="11:11">
+    <row r="549" spans="1:11" ht="45">
+      <c r="A549" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="B549" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C549" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D549" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="E549" s="15">
+        <v>1</v>
+      </c>
+      <c r="F549" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H549" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K549" s="10"/>
     </row>
-    <row r="550" spans="11:11">
+    <row r="550" spans="1:11" ht="79.5" customHeight="1">
+      <c r="E550" s="15">
+        <v>2</v>
+      </c>
+      <c r="F550" s="9" t="s">
+        <v>919</v>
+      </c>
       <c r="K550" s="10"/>
     </row>
-    <row r="551" spans="11:11">
+    <row r="551" spans="1:11" ht="30">
+      <c r="E551" s="15">
+        <v>3</v>
+      </c>
+      <c r="F551" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="G551" s="9" t="s">
+        <v>881</v>
+      </c>
       <c r="K551" s="10"/>
     </row>
-    <row r="552" spans="11:11">
+    <row r="552" spans="1:11" ht="30">
+      <c r="E552" s="15">
+        <v>4</v>
+      </c>
+      <c r="F552" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G552" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K552" s="10"/>
     </row>
-    <row r="553" spans="11:11">
+    <row r="553" spans="1:11">
+      <c r="D553" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E553" s="15">
+        <v>5</v>
+      </c>
+      <c r="F553" s="9" t="s">
+        <v>873</v>
+      </c>
       <c r="K553" s="10"/>
     </row>
-    <row r="554" spans="11:11">
+    <row r="554" spans="1:11">
+      <c r="E554" s="15">
+        <v>6</v>
+      </c>
+      <c r="F554" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="G554" s="9" t="s">
+        <v>874</v>
+      </c>
       <c r="K554" s="10"/>
     </row>
-    <row r="555" spans="11:11">
+    <row r="555" spans="1:11">
+      <c r="D555" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E555" s="15">
+        <v>7</v>
+      </c>
+      <c r="F555" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G555" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="K555" s="10"/>
     </row>
-    <row r="556" spans="11:11">
+    <row r="556" spans="1:11" ht="45">
+      <c r="A556" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="B556" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C556" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D556" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="E556" s="15">
+        <v>1</v>
+      </c>
+      <c r="F556" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H556" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="K556" s="10"/>
     </row>
-    <row r="557" spans="11:11">
+    <row r="557" spans="1:11" ht="45">
+      <c r="E557" s="15">
+        <v>2</v>
+      </c>
+      <c r="F557" s="9" t="s">
+        <v>918</v>
+      </c>
       <c r="K557" s="10"/>
     </row>
-    <row r="558" spans="11:11">
+    <row r="558" spans="1:11" ht="30">
+      <c r="E558" s="15">
+        <v>3</v>
+      </c>
+      <c r="F558" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G558" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="K558" s="10"/>
+    </row>
+    <row r="559" spans="1:11">
+      <c r="D559" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E559" s="15">
+        <v>4</v>
+      </c>
+      <c r="F559" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="G559" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="K559" s="10"/>
+    </row>
+    <row r="560" spans="1:11">
+      <c r="D560" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E560" s="15">
+        <v>5</v>
+      </c>
+      <c r="F560" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G560" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="K560" s="10"/>
+    </row>
+    <row r="561" spans="1:11" ht="45">
+      <c r="A561" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="B561" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C561" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D561" s="15" t="s">
+        <v>886</v>
+      </c>
+      <c r="E561" s="15">
+        <v>1</v>
+      </c>
+      <c r="F561" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H561" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K561" s="10"/>
+    </row>
+    <row r="562" spans="1:11" ht="66" customHeight="1">
+      <c r="E562" s="15">
+        <v>2</v>
+      </c>
+      <c r="F562" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="K562" s="10"/>
+    </row>
+    <row r="563" spans="1:11" ht="30">
+      <c r="E563" s="15">
+        <v>3</v>
+      </c>
+      <c r="F563" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K563" s="10"/>
+    </row>
+    <row r="564" spans="1:11">
+      <c r="D564" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E564" s="15">
+        <v>4</v>
+      </c>
+      <c r="F564" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="G564" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="K564" s="10"/>
+    </row>
+    <row r="565" spans="1:11">
+      <c r="D565" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E565" s="15">
+        <v>5</v>
+      </c>
+      <c r="F565" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G565" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="K565" s="10"/>
+    </row>
+    <row r="566" spans="1:11" ht="45">
+      <c r="A566" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="B566" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C566" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D566" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="E566" s="15">
+        <v>1</v>
+      </c>
+      <c r="F566" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H566" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K566" s="10"/>
+    </row>
+    <row r="567" spans="1:11" ht="45">
+      <c r="E567" s="15">
+        <v>2</v>
+      </c>
+      <c r="F567" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="K567" s="10"/>
+    </row>
+    <row r="568" spans="1:11" ht="30">
+      <c r="E568" s="15">
+        <v>3</v>
+      </c>
+      <c r="F568" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G568" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11">
+      <c r="D569" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E569" s="15">
+        <v>4</v>
+      </c>
+      <c r="F569" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="G569" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11">
+      <c r="D570" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E570" s="15">
+        <v>5</v>
+      </c>
+      <c r="F570" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G570" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" ht="45">
+      <c r="A571" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B571" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C571" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D571" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="E571" s="15">
+        <v>1</v>
+      </c>
+      <c r="F571" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H571" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" ht="45">
+      <c r="B572" s="28"/>
+      <c r="C572" s="28"/>
+      <c r="E572" s="15">
+        <v>2</v>
+      </c>
+      <c r="F572" s="9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" ht="30">
+      <c r="B573" s="28"/>
+      <c r="C573" s="28"/>
+      <c r="E573" s="15">
+        <v>3</v>
+      </c>
+      <c r="F573" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G573" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11">
+      <c r="B574" s="28"/>
+      <c r="C574" s="28"/>
+      <c r="D574" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E574" s="15">
+        <v>4</v>
+      </c>
+      <c r="F574" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G574" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11">
+      <c r="B575" s="28"/>
+      <c r="C575" s="28"/>
+      <c r="D575" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E575" s="15">
+        <v>5</v>
+      </c>
+      <c r="F575" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="G575" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" ht="45">
+      <c r="A576" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="B576" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C576" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D576" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="E576" s="15">
+        <v>1</v>
+      </c>
+      <c r="F576" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H576" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" ht="45">
+      <c r="B577" s="28"/>
+      <c r="C577" s="28"/>
+      <c r="E577" s="15">
+        <v>2</v>
+      </c>
+      <c r="F577" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="H577" s="24"/>
+    </row>
+    <row r="578" spans="1:8" ht="30">
+      <c r="B578" s="28"/>
+      <c r="C578" s="28"/>
+      <c r="E578" s="15">
+        <v>3</v>
+      </c>
+      <c r="F578" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G578" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H578" s="24"/>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="B579" s="28"/>
+      <c r="C579" s="28"/>
+      <c r="D579" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="E579" s="15">
+        <v>4</v>
+      </c>
+      <c r="F579" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G579" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="H579" s="24"/>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="B580" s="28"/>
+      <c r="C580" s="28"/>
+      <c r="D580" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E580" s="15">
+        <v>5</v>
+      </c>
+      <c r="F580" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="G580" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="H580" s="24"/>
+    </row>
+    <row r="581" spans="1:8" ht="67.5" customHeight="1">
+      <c r="A581" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="B581" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C581" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D581" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="E581" s="15">
+        <v>1</v>
+      </c>
+      <c r="F581" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H581" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" ht="45">
+      <c r="B582" s="28"/>
+      <c r="C582" s="28"/>
+      <c r="E582" s="15">
+        <v>2</v>
+      </c>
+      <c r="F582" s="9" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" ht="30">
+      <c r="B583" s="28"/>
+      <c r="C583" s="28"/>
+      <c r="E583" s="15">
+        <v>3</v>
+      </c>
+      <c r="F583" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G583" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="B584" s="28"/>
+      <c r="C584" s="28"/>
+      <c r="E584" s="15">
+        <v>4</v>
+      </c>
+      <c r="F584" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G584" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="B585" s="28"/>
+      <c r="C585" s="28"/>
+      <c r="E585" s="15">
+        <v>5</v>
+      </c>
+      <c r="F585" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="G585" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" ht="45">
+      <c r="A586" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="B586" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C586" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D586" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="E586" s="15">
+        <v>1</v>
+      </c>
+      <c r="F586" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H586" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" ht="45">
+      <c r="B587" s="28"/>
+      <c r="C587" s="28"/>
+      <c r="D587" s="9"/>
+      <c r="E587" s="15">
+        <v>2</v>
+      </c>
+      <c r="F587" s="9" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" ht="30">
+      <c r="B588" s="28"/>
+      <c r="C588" s="28"/>
+      <c r="D588" s="9"/>
+      <c r="E588" s="15">
+        <v>3</v>
+      </c>
+      <c r="F588" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G588" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="B589" s="28"/>
+      <c r="C589" s="28"/>
+      <c r="D589" s="9"/>
+      <c r="E589" s="15">
+        <v>4</v>
+      </c>
+      <c r="F589" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G589" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="B590" s="28"/>
+      <c r="C590" s="28"/>
+      <c r="D590" s="9"/>
+      <c r="E590" s="15">
+        <v>5</v>
+      </c>
+      <c r="F590" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="G590" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" ht="30">
+      <c r="B591" s="28"/>
+      <c r="C591" s="28"/>
+      <c r="D591" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="E591" s="15">
+        <v>6</v>
+      </c>
+      <c r="F591" s="9" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" ht="30">
+      <c r="B592" s="28"/>
+      <c r="C592" s="28"/>
+      <c r="D592" s="9"/>
+      <c r="E592" s="15">
+        <v>7</v>
+      </c>
+      <c r="F592" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="G592" s="9" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="B593" s="28"/>
+      <c r="C593" s="28"/>
+      <c r="D593" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="E593" s="15">
+        <v>8</v>
+      </c>
+      <c r="F593" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G593" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="B594" s="28"/>
+      <c r="C594" s="28"/>
+      <c r="D594" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="E594" s="15">
+        <v>9</v>
+      </c>
+      <c r="F594" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G594" s="9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" ht="45.75" customHeight="1">
+      <c r="B595" s="28"/>
+      <c r="C595" s="28"/>
+      <c r="D595" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="E595" s="15">
+        <v>10</v>
+      </c>
+      <c r="F595" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="G595" s="9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" ht="45">
+      <c r="A596" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B596" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C596" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D596" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="E596" s="15">
+        <v>1</v>
+      </c>
+      <c r="F596" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H596" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" ht="81.75" customHeight="1">
+      <c r="B597" s="28"/>
+      <c r="C597" s="28"/>
+      <c r="D597" s="9"/>
+      <c r="E597" s="15">
+        <v>2</v>
+      </c>
+      <c r="F597" s="9" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" ht="30">
+      <c r="B598" s="28"/>
+      <c r="C598" s="28"/>
+      <c r="D598" s="9"/>
+      <c r="E598" s="15">
+        <v>3</v>
+      </c>
+      <c r="F598" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G598" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="B599" s="28"/>
+      <c r="C599" s="28"/>
+      <c r="D599" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="E599" s="15">
+        <v>4</v>
+      </c>
+      <c r="F599" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G599" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="B600" s="29"/>
+      <c r="C600" s="29"/>
+      <c r="D600" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="E600" s="15">
+        <v>5</v>
+      </c>
+      <c r="F600" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="G600" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" ht="45">
+      <c r="A601" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B601" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C601" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D601" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="E601" s="15">
+        <v>1</v>
+      </c>
+      <c r="F601" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H601" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" ht="82.5" customHeight="1">
+      <c r="B602" s="28"/>
+      <c r="C602" s="28"/>
+      <c r="D602" s="9"/>
+      <c r="E602" s="15">
+        <v>2</v>
+      </c>
+      <c r="F602" s="9" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" ht="30">
+      <c r="B603" s="28"/>
+      <c r="C603" s="28"/>
+      <c r="D603" s="9"/>
+      <c r="E603" s="15">
+        <v>3</v>
+      </c>
+      <c r="F603" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G603" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="B604" s="29"/>
+      <c r="C604" s="29"/>
+      <c r="D604" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="E604" s="15">
+        <v>4</v>
+      </c>
+      <c r="F604" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G604" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="B605" s="28"/>
+      <c r="C605" s="28"/>
+      <c r="D605" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="E605" s="15">
+        <v>5</v>
+      </c>
+      <c r="F605" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="G605" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" ht="45">
+      <c r="A606" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B606" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C606" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D606" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="E606" s="15">
+        <v>1</v>
+      </c>
+      <c r="F606" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H606" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" ht="45">
+      <c r="B607" s="28"/>
+      <c r="C607" s="28"/>
+      <c r="E607" s="15">
+        <v>2</v>
+      </c>
+      <c r="F607" s="9" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" ht="30">
+      <c r="B608" s="28"/>
+      <c r="C608" s="28"/>
+      <c r="E608" s="15">
+        <v>3</v>
+      </c>
+      <c r="F608" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G608" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="B609" s="29"/>
+      <c r="C609" s="29"/>
+      <c r="D609" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E609" s="15">
+        <v>4</v>
+      </c>
+      <c r="F609" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G609" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="B610" s="28"/>
+      <c r="C610" s="28"/>
+      <c r="D610" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E610" s="15">
+        <v>5</v>
+      </c>
+      <c r="F610" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="G610" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" ht="45">
+      <c r="A611" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B611" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C611" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D611" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="E611" s="15">
+        <v>1</v>
+      </c>
+      <c r="F611" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H611" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" ht="87.75" customHeight="1">
+      <c r="B612" s="28"/>
+      <c r="C612" s="28"/>
+      <c r="E612" s="15">
+        <v>2</v>
+      </c>
+      <c r="F612" s="9" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" ht="30">
+      <c r="B613" s="28"/>
+      <c r="C613" s="28"/>
+      <c r="E613" s="15">
+        <v>3</v>
+      </c>
+      <c r="F613" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G613" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="B614" s="29"/>
+      <c r="C614" s="29"/>
+      <c r="D614" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E614" s="15">
+        <v>4</v>
+      </c>
+      <c r="F614" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G614" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="B615" s="28"/>
+      <c r="C615" s="28"/>
+      <c r="D615" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E615" s="15">
+        <v>5</v>
+      </c>
+      <c r="F615" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="G615" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" ht="57" customHeight="1">
+      <c r="A616" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="B616" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C616" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D616" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="E616" s="15">
+        <v>1</v>
+      </c>
+      <c r="F616" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H616" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" ht="75" customHeight="1">
+      <c r="B617" s="28"/>
+      <c r="C617" s="28"/>
+      <c r="E617" s="15">
+        <v>2</v>
+      </c>
+      <c r="F617" s="9" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" ht="30">
+      <c r="B618" s="28"/>
+      <c r="C618" s="28"/>
+      <c r="E618" s="15">
+        <v>3</v>
+      </c>
+      <c r="F618" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G618" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="B619" s="29"/>
+      <c r="C619" s="29"/>
+      <c r="D619" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E619" s="15">
+        <v>4</v>
+      </c>
+      <c r="F619" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="G619" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="B620" s="28"/>
+      <c r="C620" s="28"/>
+      <c r="D620" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E620" s="15">
+        <v>5</v>
+      </c>
+      <c r="F620" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G620" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" ht="45">
+      <c r="A621" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="B621" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C621" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D621" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="E621" s="15">
+        <v>1</v>
+      </c>
+      <c r="F621" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H621" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" ht="66.75" customHeight="1">
+      <c r="E622" s="15">
+        <v>2</v>
+      </c>
+      <c r="F622" s="9" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" ht="30">
+      <c r="E623" s="15">
+        <v>3</v>
+      </c>
+      <c r="F623" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G623" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="D624" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E624" s="15">
+        <v>4</v>
+      </c>
+      <c r="F624" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="G624" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7">
+      <c r="D625" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E625" s="15">
+        <v>5</v>
+      </c>
+      <c r="F625" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G625" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" ht="45">
+      <c r="A626" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B626" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C626" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D626" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="E626" s="15">
+        <v>1</v>
+      </c>
+      <c r="F626" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" ht="76.5" customHeight="1">
+      <c r="B627" s="29"/>
+      <c r="C627" s="29"/>
+      <c r="E627" s="15">
+        <v>2</v>
+      </c>
+      <c r="F627" s="9" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7">
+      <c r="B628" s="29"/>
+      <c r="C628" s="29"/>
+      <c r="E628" s="15">
+        <v>3</v>
+      </c>
+      <c r="F628" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G628" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7">
+      <c r="B629" s="29"/>
+      <c r="C629" s="29"/>
+      <c r="D629" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="E629" s="15">
+        <v>4</v>
+      </c>
+      <c r="F629" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="G629" s="9" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" ht="45">
+      <c r="A630" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="B630" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C630" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D630" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="E630" s="15">
+        <v>1</v>
+      </c>
+      <c r="F630" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" ht="73.5" customHeight="1">
+      <c r="B631" s="29"/>
+      <c r="C631" s="29"/>
+      <c r="E631" s="15">
+        <v>2</v>
+      </c>
+      <c r="F631" s="9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7">
+      <c r="B632" s="29"/>
+      <c r="C632" s="29"/>
+      <c r="E632" s="15">
+        <v>3</v>
+      </c>
+      <c r="F632" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G632" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" ht="30">
+      <c r="B633" s="29"/>
+      <c r="C633" s="29"/>
+      <c r="D633" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E633" s="15">
+        <v>4</v>
+      </c>
+      <c r="F633" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G633" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7">
+      <c r="B634" s="29"/>
+      <c r="C634" s="29"/>
+      <c r="D634" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E634" s="15">
+        <v>5</v>
+      </c>
+      <c r="F634" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G634" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" ht="45">
+      <c r="A635" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="B635" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C635" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D635" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="E635" s="15">
+        <v>1</v>
+      </c>
+      <c r="F635" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" ht="45">
+      <c r="B636" s="29"/>
+      <c r="C636" s="29"/>
+      <c r="E636" s="15">
+        <v>2</v>
+      </c>
+      <c r="F636" s="9" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7">
+      <c r="B637" s="29"/>
+      <c r="C637" s="29"/>
+      <c r="E637" s="15">
+        <v>3</v>
+      </c>
+      <c r="F637" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G637" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" ht="30">
+      <c r="B638" s="29"/>
+      <c r="C638" s="29"/>
+      <c r="D638" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E638" s="15">
+        <v>4</v>
+      </c>
+      <c r="F638" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G638" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7">
+      <c r="B639" s="29"/>
+      <c r="C639" s="29"/>
+      <c r="D639" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E639" s="15">
+        <v>5</v>
+      </c>
+      <c r="F639" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G639" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" ht="45">
+      <c r="A640" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="B640" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C640" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D640" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="E640" s="15">
+        <v>1</v>
+      </c>
+      <c r="F640" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" ht="66" customHeight="1">
+      <c r="B641" s="29"/>
+      <c r="C641" s="29"/>
+      <c r="E641" s="15">
+        <v>2</v>
+      </c>
+      <c r="F641" s="9" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7">
+      <c r="B642" s="29"/>
+      <c r="C642" s="29"/>
+      <c r="E642" s="15">
+        <v>3</v>
+      </c>
+      <c r="F642" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G642" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" ht="30">
+      <c r="B643" s="29"/>
+      <c r="C643" s="29"/>
+      <c r="D643" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="E643" s="15">
+        <v>4</v>
+      </c>
+      <c r="F643" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G643" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7">
+      <c r="B644" s="29"/>
+      <c r="C644" s="29"/>
+      <c r="D644" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E644" s="15">
+        <v>5</v>
+      </c>
+      <c r="F644" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G644" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" ht="45">
+      <c r="A645" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="B645" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C645" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D645" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="E645" s="15">
+        <v>1</v>
+      </c>
+      <c r="F645" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" ht="66" customHeight="1">
+      <c r="E646" s="15">
+        <v>2</v>
+      </c>
+      <c r="F646" s="9" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7">
+      <c r="E647" s="15">
+        <v>3</v>
+      </c>
+      <c r="F647" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G647" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" ht="30">
+      <c r="D648" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E648" s="15">
+        <v>4</v>
+      </c>
+      <c r="F648" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G648" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7">
+      <c r="D649" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="E649" s="15">
+        <v>5</v>
+      </c>
+      <c r="F649" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G649" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" ht="45">
+      <c r="A650" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B650" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C650" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D650" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="E650" s="15">
+        <v>1</v>
+      </c>
+      <c r="F650" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" ht="63" customHeight="1">
+      <c r="B651" s="29"/>
+      <c r="C651" s="29"/>
+      <c r="D651" s="9"/>
+      <c r="E651" s="15">
+        <v>2</v>
+      </c>
+      <c r="F651" s="9" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7">
+      <c r="B652" s="29"/>
+      <c r="C652" s="29"/>
+      <c r="D652" s="9"/>
+      <c r="E652" s="15">
+        <v>3</v>
+      </c>
+      <c r="F652" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G652" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" ht="30">
+      <c r="B653" s="29"/>
+      <c r="C653" s="29"/>
+      <c r="D653" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E653" s="15">
+        <v>4</v>
+      </c>
+      <c r="F653" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G653" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7">
+      <c r="B654" s="29"/>
+      <c r="C654" s="29"/>
+      <c r="D654" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="E654" s="15">
+        <v>5</v>
+      </c>
+      <c r="F654" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G654" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" ht="45">
+      <c r="A655" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B655" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C655" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D655" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="E655" s="15">
+        <v>1</v>
+      </c>
+      <c r="F655" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" ht="74.25" customHeight="1">
+      <c r="B656" s="29"/>
+      <c r="C656" s="29"/>
+      <c r="D656" s="9"/>
+      <c r="E656" s="15">
+        <v>2</v>
+      </c>
+      <c r="F656" s="9" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" ht="40.5" customHeight="1">
+      <c r="B657" s="29"/>
+      <c r="C657" s="29"/>
+      <c r="D657" s="9"/>
+      <c r="E657" s="15">
+        <v>3</v>
+      </c>
+      <c r="F657" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G657" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" ht="45" customHeight="1">
+      <c r="B658" s="29"/>
+      <c r="C658" s="29"/>
+      <c r="D658" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E658" s="15">
+        <v>4</v>
+      </c>
+      <c r="F658" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G658" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7">
+      <c r="B659" s="29"/>
+      <c r="C659" s="29"/>
+      <c r="D659" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="E659" s="15">
+        <v>5</v>
+      </c>
+      <c r="F659" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G659" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" ht="45">
+      <c r="A660" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="B660" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C660" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D660" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="E660" s="15">
+        <v>1</v>
+      </c>
+      <c r="F660" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" ht="63" customHeight="1">
+      <c r="B661" s="29"/>
+      <c r="C661" s="29"/>
+      <c r="D661" s="9"/>
+      <c r="F661" s="9" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" ht="63" customHeight="1">
+      <c r="B662" s="29"/>
+      <c r="C662" s="29"/>
+      <c r="D662" s="9"/>
+      <c r="F662" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G662" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" ht="63" customHeight="1">
+      <c r="B663" s="29"/>
+      <c r="C663" s="29"/>
+      <c r="D663" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F663" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G663" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7">
+      <c r="B664" s="29"/>
+      <c r="C664" s="29"/>
+      <c r="D664" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="F664" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G664" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" ht="45">
+      <c r="A665" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="B665" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C665" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D665" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="E665" s="15">
+        <v>1</v>
+      </c>
+      <c r="F665" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" ht="66" customHeight="1">
+      <c r="B666" s="29"/>
+      <c r="C666" s="29"/>
+      <c r="D666" s="9"/>
+      <c r="F666" s="9" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" ht="66" customHeight="1">
+      <c r="B667" s="29"/>
+      <c r="C667" s="29"/>
+      <c r="D667" s="9"/>
+      <c r="F667" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G667" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" ht="66" customHeight="1">
+      <c r="B668" s="29"/>
+      <c r="C668" s="29"/>
+      <c r="D668" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F668" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G668" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7">
+      <c r="B669" s="29"/>
+      <c r="C669" s="29"/>
+      <c r="D669" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="F669" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G669" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A670" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="B670" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C670" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D670" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="E670" s="15">
+        <v>1</v>
+      </c>
+      <c r="F670" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" ht="63" customHeight="1">
+      <c r="F671" s="9" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7">
+      <c r="F672" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G672" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" ht="30">
+      <c r="D673" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F673" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G673" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7">
+      <c r="D674" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="F674" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G674" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" ht="45">
+      <c r="A675" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="B675" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C675" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D675" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="F675" s="9" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" ht="69.75" customHeight="1">
+      <c r="F676" s="9" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7">
+      <c r="F677" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="G677" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" ht="30">
+      <c r="D678" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F678" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="G678" s="9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7">
+      <c r="D679" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="F679" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="G679" s="9" t="s">
+        <v>438</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11660,16 +14651,16 @@
     <mergeCell ref="D49:D55"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J300:J513">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J300:J519">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C142:C1048576 C72:C140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C72:C140 C142:C1048576">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B142:B1048576 B72:B140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B1048576">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K558">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K567">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J299">
@@ -11767,8 +14758,33 @@
     <hyperlink ref="H470" r:id="rId88" display="http://mediwarecloud.com/"/>
     <hyperlink ref="H479" r:id="rId89" display="http://mediwarecloud.com/"/>
     <hyperlink ref="H490" r:id="rId90" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H497" r:id="rId91" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H503" r:id="rId92" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H506" r:id="rId93" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H511" r:id="rId94" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H516" r:id="rId95" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H522" r:id="rId96" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H525" r:id="rId97" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H528" r:id="rId98" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H531" r:id="rId99" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H537" r:id="rId100" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H543" r:id="rId101" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H549" r:id="rId102" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H556" r:id="rId103" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H561" r:id="rId104" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H566" r:id="rId105" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H571" r:id="rId106" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H576" r:id="rId107" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H581" r:id="rId108" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H586" r:id="rId109" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H596" r:id="rId110" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H601" r:id="rId111" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H606" r:id="rId112" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H611" r:id="rId113" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H616" r:id="rId114" display="http://mediwarecloud.com/"/>
+    <hyperlink ref="H621" r:id="rId115" display="http://mediwarecloud.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId91"/>
+  <pageSetup orientation="portrait" r:id="rId116"/>
 </worksheet>
 </file>
--- a/Test Case/Prapancha/Test Case- EMR OP.xlsx
+++ b/Test Case/Prapancha/Test Case- EMR OP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="1094">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3523,6 +3523,89 @@
   </si>
   <si>
     <t>Contents of page should be displayed correctly</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0145</t>
+  </si>
+  <si>
+    <t>Mouse hover on a patient's name in the 'displayed patient serach tab and check the details displayed.</t>
+  </si>
+  <si>
+    <t>The patient information should be displayed as a people card with the following information :
+- Photo of patient
+- Patient ID
+-Gender
+- DOB
+- Age
+- Phone Number
+- Patient Information icon
+- Lab Result icon
+- Radiology Result icon
+- Patient log icon
+- Letters and certificates icon
+- Patient files icon
+- Treatment Summary icon
+- External treatment summary icon
+- Examination summary icon
+-Patient Message</t>
+  </si>
+  <si>
+    <t>It will navigate to patient Visit page, try to edit details and save changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify patient search Via In-patients </t>
+  </si>
+  <si>
+    <t>Enable the Current  In-patients check box and verify the details</t>
+  </si>
+  <si>
+    <t>Current in-patients should get listed</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Enter keyword in serach option</t>
+  </si>
+  <si>
+    <t>Enter data in Doctor name and Nursing station and click search</t>
+  </si>
+  <si>
+    <t>Data corresponding to the serach keyword should be displayed</t>
+  </si>
+  <si>
+    <t>Try to View records of Insurance tab in Patient Visit page on clickcing Click to View option</t>
+  </si>
+  <si>
+    <t>Details should be viewed</t>
+  </si>
+  <si>
+    <t>View Option</t>
+  </si>
+  <si>
+    <t>View card</t>
+  </si>
+  <si>
+    <t>Attach card</t>
+  </si>
+  <si>
+    <t>Enter data in fields and save changes</t>
+  </si>
+  <si>
+    <t>Click attach card option and verify card can be attached</t>
+  </si>
+  <si>
+    <t>Card should get attached</t>
+  </si>
+  <si>
+    <t>Data changes should be saved</t>
+  </si>
+  <si>
+    <t>NH0000566</t>
+  </si>
+  <si>
+    <t>NH0000566
+NH0000567</t>
   </si>
 </sst>
 </file>
@@ -3649,7 +3732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3721,6 +3804,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4063,11 +4149,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R733"/>
+  <dimension ref="A1:R741"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G732" sqref="G732"/>
+      <pane ySplit="1" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H734" sqref="H734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4142,7 +4228,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="7">
@@ -4162,7 +4248,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>18</v>
@@ -4176,7 +4262,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="7">
         <v>2</v>
       </c>
@@ -4212,7 +4298,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="7">
         <v>3</v>
       </c>
@@ -4242,7 +4328,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="30">
-      <c r="D5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -4262,7 +4348,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="210">
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -4275,7 +4361,7 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:18" ht="225">
-      <c r="D7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -4288,7 +4374,7 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="D8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -4300,8 +4386,8 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:18" ht="30">
-      <c r="D9" s="31"/>
+    <row r="9" spans="1:18" ht="52.5" customHeight="1">
+      <c r="D9" s="32"/>
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -4314,14 +4400,14 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="270">
-      <c r="D10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="15">
         <v>9</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K10" s="10"/>
@@ -4336,7 +4422,7 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="34" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="7">
@@ -4348,7 +4434,7 @@
       <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="7">
         <v>2</v>
       </c>
@@ -4361,7 +4447,7 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1">
-      <c r="D13" s="33"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="7">
         <v>3</v>
       </c>
@@ -4374,7 +4460,7 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="30">
-      <c r="D14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="7">
         <v>4</v>
       </c>
@@ -4387,7 +4473,7 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="30">
-      <c r="D15" s="33"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="7">
         <v>5</v>
       </c>
@@ -4400,7 +4486,7 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="94.5">
-      <c r="D16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="7">
         <v>6</v>
       </c>
@@ -4413,7 +4499,7 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="45">
-      <c r="D17" s="33"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="7">
         <v>7</v>
       </c>
@@ -4426,7 +4512,7 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="D18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="7">
         <v>8</v>
       </c>
@@ -4439,7 +4525,7 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="30">
-      <c r="D19" s="33"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="7">
         <v>9</v>
       </c>
@@ -4452,7 +4538,7 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="30">
-      <c r="D20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="7">
         <v>10</v>
       </c>
@@ -4465,7 +4551,7 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="30">
-      <c r="D21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="7">
         <v>11</v>
       </c>
@@ -4478,7 +4564,7 @@
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="30">
-      <c r="D22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="7">
         <v>12</v>
       </c>
@@ -4491,7 +4577,7 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
-      <c r="D23" s="33"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="7">
         <v>13</v>
       </c>
@@ -4504,7 +4590,7 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="150">
-      <c r="D24" s="33"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="7">
         <v>14</v>
       </c>
@@ -4526,7 +4612,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="32" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="7">
@@ -4538,7 +4624,7 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="30">
-      <c r="D26" s="31"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="7">
         <v>2</v>
       </c>
@@ -4554,7 +4640,7 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="30">
-      <c r="D27" s="31"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="7">
         <v>3</v>
       </c>
@@ -4567,7 +4653,7 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1">
-      <c r="D28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="7">
         <v>4</v>
       </c>
@@ -4580,7 +4666,7 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="135">
-      <c r="D29" s="31"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="7">
         <v>5</v>
       </c>
@@ -4602,7 +4688,7 @@
       <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="32" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="15">
@@ -4614,7 +4700,7 @@
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="30">
-      <c r="D31" s="31"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="15">
         <v>2</v>
       </c>
@@ -4630,7 +4716,7 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="30">
-      <c r="D32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="15">
         <v>3</v>
       </c>
@@ -4643,7 +4729,7 @@
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="4:11" ht="60" customHeight="1">
-      <c r="D33" s="31"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="15">
         <v>4</v>
       </c>
@@ -4656,7 +4742,7 @@
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="4:11" ht="135">
-      <c r="D34" s="31"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="15">
         <v>5</v>
       </c>
@@ -4669,7 +4755,7 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="4:11" ht="30">
-      <c r="D35" s="31"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="15">
         <v>6</v>
       </c>
@@ -4682,7 +4768,7 @@
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="4:11" ht="30">
-      <c r="D36" s="31"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="15">
         <v>7</v>
       </c>
@@ -4695,7 +4781,7 @@
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="4:11" ht="30">
-      <c r="D37" s="31"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="15">
         <v>8</v>
       </c>
@@ -4708,7 +4794,7 @@
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="4:11" ht="30">
-      <c r="D38" s="31"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="15">
         <v>9</v>
       </c>
@@ -4721,7 +4807,7 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="4:11" ht="135">
-      <c r="D39" s="31"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="15">
         <v>10</v>
       </c>
@@ -4734,7 +4820,7 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="4:11" ht="45" customHeight="1">
-      <c r="D40" s="31"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="15">
         <v>11</v>
       </c>
@@ -4747,7 +4833,7 @@
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="31"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="15">
         <v>12</v>
       </c>
@@ -4760,7 +4846,7 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="31"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="15">
         <v>13</v>
       </c>
@@ -4773,7 +4859,7 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="4:11">
-      <c r="D43" s="31"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="15">
         <v>14</v>
       </c>
@@ -4786,7 +4872,7 @@
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="31"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="15">
         <v>15</v>
       </c>
@@ -4799,7 +4885,7 @@
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="4:11" ht="30">
-      <c r="D45" s="31"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="15">
         <v>16</v>
       </c>
@@ -4812,7 +4898,7 @@
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="4:11" ht="45" customHeight="1">
-      <c r="D46" s="31"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="15">
         <v>17</v>
       </c>
@@ -4825,7 +4911,7 @@
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="4:11" ht="30">
-      <c r="D47" s="31"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="15">
         <v>18</v>
       </c>
@@ -4838,7 +4924,7 @@
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="31"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="15">
         <v>19</v>
       </c>
@@ -4860,7 +4946,7 @@
       <c r="C49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="34" t="s">
         <v>104</v>
       </c>
       <c r="E49" s="7">
@@ -4872,7 +4958,7 @@
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="30">
-      <c r="D50" s="33"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="7">
         <v>2</v>
       </c>
@@ -4888,7 +4974,7 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="30">
-      <c r="D51" s="33"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="7">
         <v>3</v>
       </c>
@@ -4901,7 +4987,7 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="180">
-      <c r="D52" s="33"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="7">
         <v>4</v>
       </c>
@@ -4914,7 +5000,7 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="60">
-      <c r="D53" s="33"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="7">
         <v>5</v>
       </c>
@@ -4927,7 +5013,7 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1">
-      <c r="D54" s="33"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="7">
         <v>6</v>
       </c>
@@ -4940,7 +5026,7 @@
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11" ht="45">
-      <c r="D55" s="33"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="7">
         <v>7</v>
       </c>
@@ -4962,7 +5048,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="32" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="7">
@@ -4977,7 +5063,7 @@
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="D57" s="31"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="7">
         <v>2</v>
       </c>
@@ -4990,7 +5076,7 @@
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11" ht="120">
-      <c r="D58" s="31"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="7">
         <v>3</v>
       </c>
@@ -5003,7 +5089,7 @@
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1">
-      <c r="D59" s="31"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="7">
         <v>4</v>
       </c>
@@ -5016,7 +5102,7 @@
       <c r="K59" s="10"/>
     </row>
     <row r="60" spans="1:11" ht="30">
-      <c r="D60" s="31"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="7">
         <v>5</v>
       </c>
@@ -5029,7 +5115,7 @@
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="D61" s="31"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="7">
         <v>6</v>
       </c>
@@ -5042,7 +5128,7 @@
       <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" ht="90">
-      <c r="D62" s="31"/>
+      <c r="D62" s="32"/>
       <c r="E62" s="7">
         <v>7</v>
       </c>
@@ -5055,7 +5141,7 @@
       <c r="K62" s="10"/>
     </row>
     <row r="63" spans="1:11" ht="126" customHeight="1">
-      <c r="D63" s="31"/>
+      <c r="D63" s="32"/>
       <c r="E63" s="7">
         <v>8</v>
       </c>
@@ -5068,7 +5154,7 @@
       <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" ht="30">
-      <c r="D64" s="31"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="7">
         <v>9</v>
       </c>
@@ -5081,7 +5167,7 @@
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" ht="30">
-      <c r="D65" s="31"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="7">
         <v>10</v>
       </c>
@@ -5094,7 +5180,7 @@
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="120">
-      <c r="D66" s="31"/>
+      <c r="D66" s="32"/>
       <c r="E66" s="7">
         <v>11</v>
       </c>
@@ -5107,7 +5193,7 @@
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="99.75" customHeight="1">
-      <c r="D67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="7">
         <v>12</v>
       </c>
@@ -5120,7 +5206,7 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="105">
-      <c r="D68" s="31"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="7">
         <v>13</v>
       </c>
@@ -5133,7 +5219,7 @@
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11" ht="60">
-      <c r="D69" s="31"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="7">
         <v>14</v>
       </c>
@@ -5146,7 +5232,7 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="90">
-      <c r="D70" s="31"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="7">
         <v>15</v>
       </c>
@@ -15619,10 +15705,10 @@
       <c r="A722" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="B722" s="30" t="s">
+      <c r="B722" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C722" s="30" t="s">
+      <c r="C722" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D722" s="9" t="s">
@@ -15648,6 +15734,9 @@
       <c r="G723" s="9" t="s">
         <v>849</v>
       </c>
+      <c r="H723" s="9" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="724" spans="1:8">
       <c r="D724" s="15" t="s">
@@ -15677,118 +15766,247 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="45">
-      <c r="A726" s="9" t="s">
+    <row r="726" spans="1:8" ht="273" customHeight="1">
+      <c r="B726" s="31"/>
+      <c r="C726" s="31"/>
+      <c r="E726" s="15">
+        <v>5</v>
+      </c>
+      <c r="F726" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G726" s="9" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" ht="45">
+      <c r="A727" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="D726" s="9" t="s">
+      <c r="B727" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C727" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D727" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="E726" s="15">
+      <c r="E727" s="15">
         <v>1</v>
       </c>
-      <c r="F726" s="9" t="s">
+      <c r="F727" s="9" t="s">
         <v>1053</v>
       </c>
-      <c r="H726" s="9" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="727" spans="1:8" ht="45">
-      <c r="B727" s="30"/>
-      <c r="C727" s="30"/>
-      <c r="E727" s="15">
-        <v>2</v>
-      </c>
-      <c r="F727" s="9" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G727" s="9" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="728" spans="1:8">
+      <c r="H727" s="9" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" ht="45">
       <c r="B728" s="30"/>
       <c r="C728" s="30"/>
       <c r="E728" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F728" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G728" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="729" spans="1:8">
       <c r="B729" s="30"/>
       <c r="C729" s="30"/>
-      <c r="D729" s="15" t="s">
-        <v>1060</v>
-      </c>
       <c r="E729" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F729" s="9" t="s">
-        <v>593</v>
+        <v>1059</v>
       </c>
       <c r="G729" s="9" t="s">
-        <v>519</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="730" spans="1:8">
       <c r="B730" s="30"/>
       <c r="C730" s="30"/>
       <c r="D730" s="15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E730" s="15">
+        <v>4</v>
+      </c>
+      <c r="F730" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="G730" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8">
+      <c r="B731" s="30"/>
+      <c r="C731" s="30"/>
+      <c r="D731" s="15" t="s">
         <v>1061</v>
       </c>
-      <c r="E730" s="15">
+      <c r="E731" s="15">
         <v>5</v>
       </c>
-      <c r="F730" s="9" t="s">
+      <c r="F731" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G730" s="9" t="s">
+      <c r="G731" s="9" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="45">
-      <c r="A731" s="9" t="s">
+    <row r="732" spans="1:8" ht="45">
+      <c r="A732" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="D731" s="9" t="s">
+      <c r="B732" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C732" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D732" s="9" t="s">
         <v>1068</v>
       </c>
-      <c r="E731" s="15">
+      <c r="E732" s="15">
         <v>1</v>
       </c>
-      <c r="F731" s="9" t="s">
+      <c r="F732" s="9" t="s">
         <v>1053</v>
       </c>
-      <c r="H731" s="9" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="732" spans="1:8" ht="45">
-      <c r="E732" s="15">
+      <c r="H732" s="9" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" ht="45">
+      <c r="E733" s="15">
         <v>2</v>
       </c>
-      <c r="F732" s="9" t="s">
+      <c r="F733" s="9" t="s">
         <v>1069</v>
       </c>
-      <c r="G732" s="9" t="s">
+      <c r="G733" s="9" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
-      <c r="E733" s="15">
+    <row r="734" spans="1:8" ht="30">
+      <c r="E734" s="15">
         <v>3</v>
       </c>
-      <c r="F733" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="G733" s="9" t="s">
+      <c r="F734" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G734" s="9" t="s">
         <v>1071</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" ht="48" customHeight="1">
+      <c r="B735" s="31"/>
+      <c r="D735" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E735" s="15">
+        <v>4</v>
+      </c>
+      <c r="F735" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G735" s="9" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8">
+      <c r="D736" s="15" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E736" s="15">
+        <v>5</v>
+      </c>
+      <c r="F736" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G736" s="9" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" ht="30">
+      <c r="D737" s="15" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E737" s="15">
+        <v>6</v>
+      </c>
+      <c r="F737" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G737" s="9" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" ht="45">
+      <c r="A738" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B738" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C738" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D738" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E738" s="15">
+        <v>1</v>
+      </c>
+      <c r="F738" s="9" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" ht="30">
+      <c r="E739" s="15">
+        <v>2</v>
+      </c>
+      <c r="F739" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G739" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H739" s="9" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8">
+      <c r="B740" s="31"/>
+      <c r="C740" s="31"/>
+      <c r="D740" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E740" s="15">
+        <v>3</v>
+      </c>
+      <c r="F740" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G740" s="9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" ht="30">
+      <c r="E741" s="15">
+        <v>4</v>
+      </c>
+      <c r="F741" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G741" s="9" t="s">
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -15804,10 +16022,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J301:J520">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C142:C1048576 C72:C140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70 C72:C140 C142:C1048576">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B142:B1048576 B72:B140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B1048576">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K568">
